--- a/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00569361</t>

--- a/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -79,52 +79,67 @@
     <t>NCT00820144</t>
   </si>
   <si>
+    <t>NCT00674869</t>
+  </si>
+  <si>
+    <t>NCT00821548</t>
+  </si>
+  <si>
     <t>NCT00831402</t>
   </si>
   <si>
-    <t>NCT00674869</t>
-  </si>
-  <si>
-    <t>NCT00821548</t>
+    <t>NCT00822250</t>
   </si>
   <si>
     <t>NCT00823485</t>
   </si>
   <si>
-    <t>NCT00822250</t>
-  </si>
-  <si>
     <t>NCT00931567</t>
   </si>
   <si>
+    <t>NCT01049659</t>
+  </si>
+  <si>
+    <t>NCT00833274</t>
+  </si>
+  <si>
+    <t>NCT00559520</t>
+  </si>
+  <si>
+    <t>NCT01221337</t>
+  </si>
+  <si>
+    <t>NCT00830583</t>
+  </si>
+  <si>
+    <t>NCT00831298</t>
+  </si>
+  <si>
+    <t>NCT00822224</t>
+  </si>
+  <si>
     <t>NCT01087216</t>
   </si>
   <si>
-    <t>NCT01221337</t>
-  </si>
-  <si>
-    <t>NCT00833274</t>
-  </si>
-  <si>
-    <t>NCT00559520</t>
-  </si>
-  <si>
-    <t>NCT00830583</t>
-  </si>
-  <si>
-    <t>NCT00822224</t>
-  </si>
-  <si>
-    <t>NCT01049659</t>
-  </si>
-  <si>
-    <t>NCT00831298</t>
+    <t>NCT01235806</t>
+  </si>
+  <si>
+    <t>NCT00733538</t>
+  </si>
+  <si>
+    <t>NCT01511965</t>
+  </si>
+  <si>
+    <t>NCT01384344</t>
   </si>
   <si>
     <t>NCT02862340</t>
   </si>
   <si>
-    <t>NCT01235806</t>
+    <t>NCT01184222</t>
+  </si>
+  <si>
+    <t>NCT00876096</t>
   </si>
   <si>
     <t>NCT01049555</t>
@@ -133,286 +148,316 @@
     <t>NCT01228253</t>
   </si>
   <si>
-    <t>NCT01384344</t>
-  </si>
-  <si>
     <t>NCT00554528</t>
   </si>
   <si>
     <t>NCT01629979</t>
   </si>
   <si>
-    <t>NCT01511965</t>
-  </si>
-  <si>
-    <t>NCT00733538</t>
-  </si>
-  <si>
-    <t>NCT00876096</t>
-  </si>
-  <si>
-    <t>NCT01184222</t>
+    <t>NCT01374997</t>
+  </si>
+  <si>
+    <t>NCT01556308</t>
+  </si>
+  <si>
+    <t>NCT01834755</t>
+  </si>
+  <si>
+    <t>NCT00821691</t>
+  </si>
+  <si>
+    <t>NCT01639274</t>
+  </si>
+  <si>
+    <t>NCT00816491</t>
+  </si>
+  <si>
+    <t>NCT01435291</t>
+  </si>
+  <si>
+    <t>NCT01184781</t>
+  </si>
+  <si>
+    <t>NCT01512641</t>
+  </si>
+  <si>
+    <t>NCT01850186</t>
+  </si>
+  <si>
+    <t>NCT01805349</t>
   </si>
   <si>
     <t>NCT01805128</t>
   </si>
   <si>
-    <t>NCT01639274</t>
-  </si>
-  <si>
     <t>NCT00951964</t>
   </si>
   <si>
-    <t>NCT01184781</t>
-  </si>
-  <si>
-    <t>NCT01556308</t>
-  </si>
-  <si>
-    <t>NCT01512641</t>
-  </si>
-  <si>
-    <t>NCT01850186</t>
-  </si>
-  <si>
-    <t>NCT00816491</t>
-  </si>
-  <si>
-    <t>NCT01435291</t>
-  </si>
-  <si>
-    <t>NCT01834755</t>
-  </si>
-  <si>
-    <t>NCT00821691</t>
-  </si>
-  <si>
-    <t>NCT01805349</t>
-  </si>
-  <si>
-    <t>NCT01374997</t>
+    <t>NCT02570581</t>
+  </si>
+  <si>
+    <t>NCT01798199</t>
+  </si>
+  <si>
+    <t>NCT01573494</t>
+  </si>
+  <si>
+    <t>NCT01246596</t>
   </si>
   <si>
     <t>NCT00886301</t>
   </si>
   <si>
-    <t>NCT01573494</t>
-  </si>
-  <si>
-    <t>NCT02570581</t>
+    <t>NCT01970735</t>
   </si>
   <si>
     <t>NCT01815788</t>
   </si>
   <si>
-    <t>NCT01246596</t>
-  </si>
-  <si>
-    <t>NCT01970735</t>
-  </si>
-  <si>
-    <t>NCT01798199</t>
-  </si>
-  <si>
     <t>NCT01553695</t>
   </si>
   <si>
+    <t>NCT02317679</t>
+  </si>
+  <si>
+    <t>NCT02829892</t>
+  </si>
+  <si>
+    <t>NCT01230203</t>
+  </si>
+  <si>
+    <t>NCT01866878</t>
+  </si>
+  <si>
+    <t>NCT02594020</t>
+  </si>
+  <si>
+    <t>NCT01246648</t>
+  </si>
+  <si>
+    <t>NCT02198404</t>
+  </si>
+  <si>
+    <t>NCT01661660</t>
+  </si>
+  <si>
+    <t>NCT02176629</t>
+  </si>
+  <si>
     <t>NCT02032979</t>
   </si>
   <si>
     <t>NCT01840007</t>
   </si>
   <si>
-    <t>NCT01661660</t>
-  </si>
-  <si>
-    <t>NCT02594020</t>
-  </si>
-  <si>
-    <t>NCT01246648</t>
-  </si>
-  <si>
-    <t>NCT02317679</t>
-  </si>
-  <si>
-    <t>NCT01866878</t>
-  </si>
-  <si>
-    <t>NCT02176629</t>
-  </si>
-  <si>
-    <t>NCT02198404</t>
-  </si>
-  <si>
-    <t>NCT01230203</t>
-  </si>
-  <si>
-    <t>NCT02829892</t>
+    <t>NCT01143285</t>
+  </si>
+  <si>
+    <t>NCT02486185</t>
+  </si>
+  <si>
+    <t>NCT01544725</t>
+  </si>
+  <si>
+    <t>NCT02276573</t>
+  </si>
+  <si>
+    <t>NCT02561858</t>
+  </si>
+  <si>
+    <t>NCT02539316</t>
+  </si>
+  <si>
+    <t>NCT01954368</t>
+  </si>
+  <si>
+    <t>NCT02133222</t>
+  </si>
+  <si>
+    <t>NCT02008643</t>
+  </si>
+  <si>
+    <t>NCT02011009</t>
   </si>
   <si>
     <t>NCT01538342</t>
   </si>
   <si>
-    <t>NCT01954368</t>
-  </si>
-  <si>
-    <t>NCT02486185</t>
-  </si>
-  <si>
-    <t>NCT02008643</t>
-  </si>
-  <si>
     <t>NCT02820285</t>
   </si>
   <si>
-    <t>NCT01143285</t>
-  </si>
-  <si>
-    <t>NCT02561858</t>
-  </si>
-  <si>
-    <t>NCT02276573</t>
-  </si>
-  <si>
-    <t>NCT02539316</t>
-  </si>
-  <si>
-    <t>NCT02011009</t>
-  </si>
-  <si>
-    <t>NCT02133222</t>
-  </si>
-  <si>
-    <t>NCT01544725</t>
+    <t>NCT02288221</t>
+  </si>
+  <si>
+    <t>NCT02518243</t>
   </si>
   <si>
     <t>NCT02527551</t>
   </si>
   <si>
+    <t>NCT02052583</t>
+  </si>
+  <si>
     <t>NCT02834156</t>
   </si>
   <si>
     <t>NCT02007928</t>
   </si>
   <si>
-    <t>NCT02052583</t>
-  </si>
-  <si>
     <t>NCT01870960</t>
   </si>
   <si>
+    <t>NCT01338389</t>
+  </si>
+  <si>
+    <t>NCT02432534</t>
+  </si>
+  <si>
+    <t>NCT01969968</t>
+  </si>
+  <si>
     <t>NCT02108665</t>
   </si>
   <si>
-    <t>NCT02288221</t>
-  </si>
-  <si>
-    <t>NCT01969968</t>
-  </si>
-  <si>
-    <t>NCT02518243</t>
-  </si>
-  <si>
-    <t>NCT02432534</t>
-  </si>
-  <si>
     <t>NCT01807169</t>
   </si>
   <si>
-    <t>NCT01338389</t>
+    <t>NCT03124914</t>
+  </si>
+  <si>
+    <t>NCT02660723</t>
+  </si>
+  <si>
+    <t>NCT03246360</t>
+  </si>
+  <si>
+    <t>NCT01805362</t>
+  </si>
+  <si>
+    <t>NCT02557464</t>
   </si>
   <si>
     <t>NCT02494115</t>
   </si>
   <si>
+    <t>NCT00909805</t>
+  </si>
+  <si>
     <t>NCT01897961</t>
   </si>
   <si>
-    <t>NCT02557464</t>
-  </si>
-  <si>
-    <t>NCT01805362</t>
-  </si>
-  <si>
-    <t>NCT03246360</t>
-  </si>
-  <si>
-    <t>NCT02660723</t>
-  </si>
-  <si>
-    <t>NCT00909805</t>
+    <t>NCT01776385</t>
   </si>
   <si>
     <t>NCT03179176</t>
   </si>
   <si>
-    <t>NCT03124914</t>
-  </si>
-  <si>
-    <t>NCT01776385</t>
+    <t>NCT03036995</t>
+  </si>
+  <si>
+    <t>NCT02660320</t>
+  </si>
+  <si>
+    <t>NCT02557074</t>
+  </si>
+  <si>
+    <t>NCT01089465</t>
+  </si>
+  <si>
+    <t>NCT02372448</t>
+  </si>
+  <si>
+    <t>NCT03270358</t>
+  </si>
+  <si>
+    <t>NCT03437122</t>
+  </si>
+  <si>
+    <t>NCT02746718</t>
+  </si>
+  <si>
+    <t>NCT03167502</t>
+  </si>
+  <si>
+    <t>NCT03877445</t>
+  </si>
+  <si>
+    <t>NCT02734511</t>
+  </si>
+  <si>
+    <t>NCT02022059</t>
+  </si>
+  <si>
+    <t>NCT03179384</t>
+  </si>
+  <si>
+    <t>NCT02830620</t>
+  </si>
+  <si>
+    <t>NCT02049827</t>
+  </si>
+  <si>
+    <t>NCT03584360</t>
   </si>
   <si>
     <t>NCT03503110</t>
   </si>
   <si>
-    <t>NCT01089465</t>
-  </si>
-  <si>
-    <t>NCT03437122</t>
-  </si>
-  <si>
     <t>NCT03520738</t>
   </si>
   <si>
-    <t>NCT02557074</t>
-  </si>
-  <si>
-    <t>NCT03179384</t>
-  </si>
-  <si>
-    <t>NCT02830620</t>
-  </si>
-  <si>
-    <t>NCT02049827</t>
-  </si>
-  <si>
-    <t>NCT02372448</t>
-  </si>
-  <si>
     <t>NCT04377217</t>
   </si>
   <si>
-    <t>NCT02660320</t>
-  </si>
-  <si>
-    <t>NCT03270358</t>
-  </si>
-  <si>
-    <t>NCT02022059</t>
-  </si>
-  <si>
-    <t>NCT03584360</t>
-  </si>
-  <si>
-    <t>NCT02734511</t>
-  </si>
-  <si>
-    <t>NCT03167502</t>
-  </si>
-  <si>
-    <t>NCT02746718</t>
-  </si>
-  <si>
-    <t>NCT03036995</t>
-  </si>
-  <si>
-    <t>NCT03877445</t>
+    <t>NCT03607032</t>
+  </si>
+  <si>
+    <t>NCT03576859</t>
+  </si>
+  <si>
+    <t>NCT03216252</t>
+  </si>
+  <si>
+    <t>NCT03299335</t>
+  </si>
+  <si>
+    <t>NCT02199145</t>
+  </si>
+  <si>
+    <t>NCT02789605</t>
+  </si>
+  <si>
+    <t>NCT02500693</t>
+  </si>
+  <si>
+    <t>NCT03290261</t>
+  </si>
+  <si>
+    <t>NCT03941808</t>
+  </si>
+  <si>
+    <t>NCT03462238</t>
+  </si>
+  <si>
+    <t>NCT04427878</t>
+  </si>
+  <si>
+    <t>NCT03878433</t>
+  </si>
+  <si>
+    <t>NCT03006016</t>
+  </si>
+  <si>
+    <t>NCT03325452</t>
   </si>
   <si>
     <t>NCT02754375</t>
   </si>
   <si>
-    <t>NCT02789605</t>
+    <t>NCT03404492</t>
+  </si>
+  <si>
+    <t>NCT01787929</t>
   </si>
   <si>
     <t>NCT02721134</t>
@@ -421,250 +466,250 @@
     <t>NCT02650167</t>
   </si>
   <si>
-    <t>NCT03607032</t>
+    <t>NCT02531581</t>
+  </si>
+  <si>
+    <t>NCT02723721</t>
   </si>
   <si>
     <t>NCT03162016</t>
   </si>
   <si>
-    <t>NCT02500693</t>
-  </si>
-  <si>
-    <t>NCT03290261</t>
-  </si>
-  <si>
-    <t>NCT04427878</t>
-  </si>
-  <si>
     <t>NCT03171844</t>
   </si>
   <si>
+    <t>NCT03783494</t>
+  </si>
+  <si>
     <t>NCT02768948</t>
   </si>
   <si>
-    <t>NCT03878433</t>
-  </si>
-  <si>
-    <t>NCT03006016</t>
-  </si>
-  <si>
-    <t>NCT03404492</t>
-  </si>
-  <si>
-    <t>NCT03941808</t>
-  </si>
-  <si>
-    <t>NCT02531581</t>
-  </si>
-  <si>
-    <t>NCT02723721</t>
-  </si>
-  <si>
-    <t>NCT02199145</t>
-  </si>
-  <si>
-    <t>NCT03299335</t>
-  </si>
-  <si>
-    <t>NCT03462238</t>
-  </si>
-  <si>
-    <t>NCT01787929</t>
-  </si>
-  <si>
-    <t>NCT03783494</t>
-  </si>
-  <si>
-    <t>NCT03576859</t>
-  </si>
-  <si>
-    <t>NCT03325452</t>
-  </si>
-  <si>
-    <t>NCT03216252</t>
+    <t>NCT02799901</t>
+  </si>
+  <si>
+    <t>NCT03303898</t>
+  </si>
+  <si>
+    <t>NCT02587195</t>
+  </si>
+  <si>
+    <t>NCT04371510</t>
+  </si>
+  <si>
+    <t>NCT04635358</t>
+  </si>
+  <si>
+    <t>NCT04573712</t>
+  </si>
+  <si>
+    <t>NCT03630562</t>
+  </si>
+  <si>
+    <t>NCT04204291</t>
+  </si>
+  <si>
+    <t>NCT04142489</t>
+  </si>
+  <si>
+    <t>NCT02768935</t>
   </si>
   <si>
     <t>NCT04570813</t>
   </si>
   <si>
+    <t>NCT03175874</t>
+  </si>
+  <si>
+    <t>NCT02401581</t>
+  </si>
+  <si>
+    <t>NCT04369456</t>
+  </si>
+  <si>
+    <t>NCT03008733</t>
+  </si>
+  <si>
     <t>NCT02204254</t>
   </si>
   <si>
     <t>NCT04694456</t>
   </si>
   <si>
-    <t>NCT04573712</t>
-  </si>
-  <si>
-    <t>NCT04369456</t>
-  </si>
-  <si>
-    <t>NCT02799901</t>
-  </si>
-  <si>
-    <t>NCT03175874</t>
-  </si>
-  <si>
-    <t>NCT03008733</t>
-  </si>
-  <si>
-    <t>NCT04635358</t>
-  </si>
-  <si>
-    <t>NCT02587195</t>
-  </si>
-  <si>
-    <t>NCT03303898</t>
-  </si>
-  <si>
-    <t>NCT04371510</t>
-  </si>
-  <si>
-    <t>NCT03630562</t>
-  </si>
-  <si>
     <t>NCT02728817</t>
   </si>
   <si>
-    <t>NCT04204291</t>
-  </si>
-  <si>
-    <t>NCT02768935</t>
-  </si>
-  <si>
-    <t>NCT02401581</t>
-  </si>
-  <si>
-    <t>NCT04142489</t>
+    <t>NCT04080063</t>
+  </si>
+  <si>
+    <t>NCT04355351</t>
+  </si>
+  <si>
+    <t>NCT02690402</t>
+  </si>
+  <si>
+    <t>NCT04829578</t>
+  </si>
+  <si>
+    <t>NCT04152421</t>
+  </si>
+  <si>
+    <t>NCT04566315</t>
+  </si>
+  <si>
+    <t>NCT04934033</t>
+  </si>
+  <si>
+    <t>NCT03386760</t>
+  </si>
+  <si>
+    <t>NCT04573829</t>
+  </si>
+  <si>
+    <t>NCT04225182</t>
+  </si>
+  <si>
+    <t>NCT03546166</t>
+  </si>
+  <si>
+    <t>NCT04629924</t>
+  </si>
+  <si>
+    <t>NCT04497272</t>
+  </si>
+  <si>
+    <t>NCT04041089</t>
+  </si>
+  <si>
+    <t>NCT04806022</t>
+  </si>
+  <si>
+    <t>NCT04614519</t>
+  </si>
+  <si>
+    <t>NCT05119413</t>
   </si>
   <si>
     <t>NCT04418206</t>
   </si>
   <si>
-    <t>NCT04355351</t>
-  </si>
-  <si>
-    <t>NCT04806022</t>
-  </si>
-  <si>
-    <t>NCT04225182</t>
+    <t>NCT04196543</t>
+  </si>
+  <si>
+    <t>NCT04385017</t>
+  </si>
+  <si>
+    <t>NCT04573985</t>
+  </si>
+  <si>
+    <t>NCT04983836</t>
   </si>
   <si>
     <t>NCT04106128</t>
   </si>
   <si>
-    <t>NCT04573829</t>
-  </si>
-  <si>
-    <t>NCT04829578</t>
-  </si>
-  <si>
     <t>NCT05199207</t>
   </si>
   <si>
-    <t>NCT03546166</t>
-  </si>
-  <si>
-    <t>NCT04041089</t>
-  </si>
-  <si>
-    <t>NCT03386760</t>
-  </si>
-  <si>
-    <t>NCT04934033</t>
-  </si>
-  <si>
-    <t>NCT04983836</t>
-  </si>
-  <si>
-    <t>NCT04573985</t>
-  </si>
-  <si>
-    <t>NCT04497272</t>
-  </si>
-  <si>
-    <t>NCT04385017</t>
-  </si>
-  <si>
-    <t>NCT05119413</t>
-  </si>
-  <si>
-    <t>NCT04152421</t>
-  </si>
-  <si>
-    <t>NCT02690402</t>
-  </si>
-  <si>
-    <t>NCT04614519</t>
-  </si>
-  <si>
     <t>NCT03122652</t>
   </si>
   <si>
-    <t>NCT04629924</t>
-  </si>
-  <si>
-    <t>NCT04080063</t>
-  </si>
-  <si>
-    <t>NCT04196543</t>
-  </si>
-  <si>
-    <t>NCT04566315</t>
+    <t>NCT02903290</t>
+  </si>
+  <si>
+    <t>NCT03296709</t>
   </si>
   <si>
     <t>NCT03671928</t>
   </si>
   <si>
-    <t>NCT03296709</t>
+    <t>NCT04825600</t>
+  </si>
+  <si>
+    <t>NCT05292703</t>
+  </si>
+  <si>
+    <t>NCT02310451</t>
+  </si>
+  <si>
+    <t>NCT03829072</t>
+  </si>
+  <si>
+    <t>NCT03498963</t>
+  </si>
+  <si>
+    <t>NCT04343924</t>
+  </si>
+  <si>
+    <t>NCT04442594</t>
   </si>
   <si>
     <t>NCT04842773</t>
   </si>
   <si>
-    <t>NCT03829072</t>
+    <t>NCT02408822</t>
   </si>
   <si>
     <t>NCT03572842</t>
   </si>
   <si>
-    <t>NCT04825600</t>
-  </si>
-  <si>
-    <t>NCT03498963</t>
-  </si>
-  <si>
-    <t>NCT05292703</t>
-  </si>
-  <si>
-    <t>NCT02310451</t>
+    <t>NCT04074642</t>
+  </si>
+  <si>
+    <t>NCT04823039</t>
   </si>
   <si>
     <t>NCT03819712</t>
   </si>
   <si>
-    <t>NCT04074642</t>
-  </si>
-  <si>
-    <t>NCT04442594</t>
-  </si>
-  <si>
-    <t>NCT04823039</t>
-  </si>
-  <si>
-    <t>NCT04343924</t>
+    <t>NCT03947515</t>
   </si>
   <si>
     <t>NCT03354741</t>
   </si>
   <si>
-    <t>NCT03947515</t>
-  </si>
-  <si>
-    <t>NCT02903290</t>
-  </si>
-  <si>
-    <t>NCT02408822</t>
+    <t>NCT04159987</t>
+  </si>
+  <si>
+    <t>NCT05843747</t>
+  </si>
+  <si>
+    <t>NCT05211037</t>
+  </si>
+  <si>
+    <t>NCT04563923</t>
+  </si>
+  <si>
+    <t>NCT05742893</t>
+  </si>
+  <si>
+    <t>NCT04175223</t>
+  </si>
+  <si>
+    <t>NCT05783349</t>
+  </si>
+  <si>
+    <t>NCT06357208</t>
+  </si>
+  <si>
+    <t>NCT05780606</t>
+  </si>
+  <si>
+    <t>NCT05764863</t>
+  </si>
+  <si>
+    <t>NCT06088563</t>
+  </si>
+  <si>
+    <t>NCT06136416</t>
+  </si>
+  <si>
+    <t>NCT03286322</t>
+  </si>
+  <si>
+    <t>NCT05051384</t>
+  </si>
+  <si>
+    <t>NCT04920162</t>
   </si>
   <si>
     <t>NCT04907929</t>
@@ -673,63 +718,18 @@
     <t>NCT05276882</t>
   </si>
   <si>
-    <t>NCT04920162</t>
-  </si>
-  <si>
-    <t>NCT05764863</t>
-  </si>
-  <si>
-    <t>NCT05211037</t>
-  </si>
-  <si>
-    <t>NCT03286322</t>
-  </si>
-  <si>
-    <t>NCT04159987</t>
-  </si>
-  <si>
-    <t>NCT05783349</t>
-  </si>
-  <si>
-    <t>NCT05051384</t>
-  </si>
-  <si>
-    <t>NCT06136416</t>
-  </si>
-  <si>
-    <t>NCT04175223</t>
-  </si>
-  <si>
-    <t>NCT05780606</t>
-  </si>
-  <si>
-    <t>NCT04563923</t>
-  </si>
-  <si>
-    <t>NCT06357208</t>
-  </si>
-  <si>
-    <t>NCT06088563</t>
-  </si>
-  <si>
-    <t>NCT05843747</t>
-  </si>
-  <si>
-    <t>NCT05742893</t>
-  </si>
-  <si>
     <t>NCT02180932</t>
   </si>
   <si>
     <t>NCT00696358</t>
   </si>
   <si>
+    <t>NCT02592226</t>
+  </si>
+  <si>
     <t>NCT00821925</t>
   </si>
   <si>
-    <t>NCT02592226</t>
-  </si>
-  <si>
     <t>2015-001614-94</t>
   </si>
   <si>
@@ -811,46 +811,58 @@
     <t>Functional Exploration of the Immune Response Using the B-Subunit of Cholera Toxin Administered by Mucosal Way in Healthy Adult Volunteer: Potential Role in Development of Vaccine Processes</t>
   </si>
   <si>
+    <t>Effectiveness of Pit and Fissure Sealants in the Prevention of Dental Caries</t>
+  </si>
+  <si>
     <t>Assessment of Thyroid Function Throughout Pregnancy With and Without Iodine Supplementation</t>
   </si>
   <si>
-    <t>Effectiveness of Pit and Fissure Sealants in the Prevention of Dental Caries</t>
+    <t>Clinical and Biological Study of Sub-pigmentation During Infantile Cystinosis</t>
   </si>
   <si>
     <t>Clinical Efficacy of In-situ Thrombolysis in Case of Intraventricular Haemorraghia by Aneurysm Rupture</t>
   </si>
   <si>
-    <t>Clinical and Biological Study of Sub-pigmentation During Infantile Cystinosis</t>
-  </si>
-  <si>
     <t>Evaluation of the Efficiency of Autologous Platelet Gel (Platelet Rich Fibrin) Obtained From Own Patients' Blood Versus Vaselitulle in Dupuytren's Disease Postoperative Wound Healing</t>
   </si>
   <si>
+    <t>Effect of Iodine Supplementation and During Pregnancy on Neuropsychological Development of Children Assessed at 2 Years Old</t>
+  </si>
+  <si>
+    <t>Evaluation of Apathy Using Attentional Reaction Test in Neurodegenerative Diseases</t>
+  </si>
+  <si>
+    <t>The Role of Preoperative Oral Immunonutrition in Major Vascular Surgery</t>
+  </si>
+  <si>
     <t>Comparative Study of Two Haemodialyzers "VIE 2.1" Versus "EVODIAL2.2" in a Strategy of Heparin-free Haemodialysis (HFH)</t>
   </si>
   <si>
-    <t>Evaluation of Apathy Using Attentional Reaction Test in Neurodegenerative Diseases</t>
-  </si>
-  <si>
-    <t>The Role of Preoperative Oral Immunonutrition in Major Vascular Surgery</t>
-  </si>
-  <si>
     <t>Pompe Prevalence Study in Patients With Muscle Weakness Without Diagnosis</t>
   </si>
   <si>
+    <t>Assessment of Sleep Disturbance in Alzheimer Disease</t>
+  </si>
+  <si>
     <t>Use of MEOPA for Elderly With Dementia.</t>
   </si>
   <si>
-    <t>Effect of Iodine Supplementation and During Pregnancy on Neuropsychological Development of Children Assessed at 2 Years Old</t>
-  </si>
-  <si>
-    <t>Assessment of Sleep Disturbance in Alzheimer Disease</t>
+    <t>Contribution of ESAOTE™ Low Field MRI for Diagnosis of Scaphoid Fractures.</t>
+  </si>
+  <si>
+    <t>Stage I Multiple Myeloma Treatment</t>
+  </si>
+  <si>
+    <t>Ecological Assessment of Apathy in Alzheimer's Disease and in Control Subjects: Interest on Video Recognition and Actigraphy</t>
   </si>
   <si>
     <t>Study of the Involvement of 15q11 - q13 Chromosome Region and CYFIP1 Gene in Autism. Attempt a Genotype-phenotype Correlation</t>
   </si>
   <si>
-    <t>Contribution of ESAOTE™ Low Field MRI for Diagnosis of Scaphoid Fractures.</t>
+    <t>EFFICACY EVALUATION OF GREAT OCCIPITAL NERVE ELECTRICAL STIMULATION ON REBOUND HEADACHE AFTER WITHDRAWAL IN MEDICATION OVERUSE HEADACHE OCCURING IN MIGRAINE PATIENTS (SENGO-CAM Study)</t>
+  </si>
+  <si>
+    <t>Development and Validation of Fungal Extraction and Real -Time PCR Assay for the Diagnosis of Medically Important Fungal Infections in Blood Samples.</t>
   </si>
   <si>
     <t>Contribution of Actigraphy and Recognition Video in Apathy Assessment of Alzheimer's Disease : Experimental Research</t>
@@ -859,530 +871,563 @@
     <t>Effects of Treatment of Post-traumatic Stress Disorder on Reduced Recall for Fear Extinction</t>
   </si>
   <si>
-    <t>Ecological Assessment of Apathy in Alzheimer's Disease and in Control Subjects: Interest on Video Recognition and Actigraphy</t>
-  </si>
-  <si>
     <t>Arthroplasty Versus Fusion in Anterior Cervical Surgery: Prospective Study of the Impact on the Adjacent Level</t>
   </si>
   <si>
     <t>Efficacy and Tolerance of Transplantation of Harvested Epidermal Cells and Narrow-Band UVB in Vitiligo</t>
   </si>
   <si>
-    <t>Stage I Multiple Myeloma Treatment</t>
-  </si>
-  <si>
-    <t>Development and Validation of Fungal Extraction and Real -Time PCR Assay for the Diagnosis of Medically Important Fungal Infections in Blood Samples.</t>
-  </si>
-  <si>
-    <t>EFFICACY EVALUATION OF GREAT OCCIPITAL NERVE ELECTRICAL STIMULATION ON REBOUND HEADACHE AFTER WITHDRAWAL IN MEDICATION OVERUSE HEADACHE OCCURING IN MIGRAINE PATIENTS (SENGO-CAM Study)</t>
+    <t>Screening Project for a Detection of Fabry Disease in Chronic Renal Failure Patients in Area PACA</t>
+  </si>
+  <si>
+    <t>Study of Inflammatory Mechanisms in Epidermolysis Bullosa Simplex- Dowling Meara</t>
+  </si>
+  <si>
+    <t>Physical and Psychological Evaluation of Patients Reaching End Stage Renal Disease : Effects on the Choice of Renal Replacement Therapy</t>
+  </si>
+  <si>
+    <t>Action of the Amantadine on Post Stroke Aphasic Patients' Language and Communication</t>
+  </si>
+  <si>
+    <t>Prevalence of Chronic Obstructive Pulmonary Disease in HIV-patient Population</t>
+  </si>
+  <si>
+    <t>Comparaison de la Chromo Endoscopie Virtuelle FICE (Fujinon Intelligent Chromoendoscopy) Avec la Coloscopie Conventionnelle Dans la détection de la Dysplasie Chez Patients Porteurs de Recto Colite ulcéro hémorragique (RCH).</t>
+  </si>
+  <si>
+    <t>Prospective Pharmacokinetic and Pharmacogenetic Analysis of Advagraf After Transplantation</t>
+  </si>
+  <si>
+    <t>Prospective Comparison of Capsule Endoscopy Pillcam II™ Versus Colonoscopy for the Detection of Adenomatous Polyps and Cancer in a High Risk Population</t>
+  </si>
+  <si>
+    <t>Prevalence of Dissociative Disorders in Children in a Population Supported in the Medico-social and Health Structures in Provence Alpes Cote d'Azur</t>
+  </si>
+  <si>
+    <t>Comparative Study of Dual Yellow Laser Versus Stabilized Kilnman Preparation in the Treatment of Melasma</t>
+  </si>
+  <si>
+    <t>Study of the Association Between Digital Osteoarthritis and Lower Limb Osteoarthritis (Knee and Hip) in Terms of Severity and Evolution - Khoala Group Ancillary Project / Cohort Khoala</t>
   </si>
   <si>
     <t>EXPLORATION OF THE SOCIAL COGNITION IN ADOLESCENTS WITH A Dissociative Disorder OR AUTISM SPECTRUM</t>
   </si>
   <si>
-    <t>Prevalence of Chronic Obstructive Pulmonary Disease in HIV-patient Population</t>
-  </si>
-  <si>
     <t>Treatment of Epidermolysis Bullosa Dystrophica by Polyphenon E (Epigallocatechin 3 Gallate)</t>
   </si>
   <si>
-    <t>Prospective Comparison of Capsule Endoscopy Pillcam II™ Versus Colonoscopy for the Detection of Adenomatous Polyps and Cancer in a High Risk Population</t>
-  </si>
-  <si>
-    <t>Study of Inflammatory Mechanisms in Epidermolysis Bullosa Simplex- Dowling Meara</t>
-  </si>
-  <si>
-    <t>Prevalence of Dissociative Disorders in Children in a Population Supported in the Medico-social and Health Structures in Provence Alpes Cote d'Azur</t>
-  </si>
-  <si>
-    <t>Comparative Study of Dual Yellow Laser Versus Stabilized Kilnman Preparation in the Treatment of Melasma</t>
-  </si>
-  <si>
-    <t>Comparaison de la Chromo Endoscopie Virtuelle FICE (Fujinon Intelligent Chromoendoscopy) Avec la Coloscopie Conventionnelle Dans la détection de la Dysplasie Chez Patients Porteurs de Recto Colite ulcéro hémorragique (RCH).</t>
-  </si>
-  <si>
-    <t>Prospective Pharmacokinetic and Pharmacogenetic Analysis of Advagraf After Transplantation</t>
-  </si>
-  <si>
-    <t>Physical and Psychological Evaluation of Patients Reaching End Stage Renal Disease : Effects on the Choice of Renal Replacement Therapy</t>
-  </si>
-  <si>
-    <t>Action of the Amantadine on Post Stroke Aphasic Patients' Language and Communication</t>
-  </si>
-  <si>
-    <t>Study of the Association Between Digital Osteoarthritis and Lower Limb Osteoarthritis (Knee and Hip) in Terms of Severity and Evolution - Khoala Group Ancillary Project / Cohort Khoala</t>
-  </si>
-  <si>
-    <t>Screening Project for a Detection of Fabry Disease in Chronic Renal Failure Patients in Area PACA</t>
+    <t>MELA Study - Hedonic Study on the Taste of Drugs Crushed in Food: Observational Study Involving 16 Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>VERVE* PROJECT: Study of the Acceptability of a Virtual Reality System on the Cognitive Stimulation of Patients With Alzheimer's Disease or Related Conditions. (*Vanquishing Apathy Through E-inclusion Using Realistic Virtual Environment)</t>
+  </si>
+  <si>
+    <t>Study of Circulating Tumor Cells Before and After Treatment in Patients With Metastatic Melanoma.</t>
   </si>
   <si>
     <t>Fatty Liver and Ectopic Fat in Overweight and Obese Patients</t>
   </si>
   <si>
-    <t>Study of Circulating Tumor Cells Before and After Treatment in Patients With Metastatic Melanoma.</t>
-  </si>
-  <si>
-    <t>MELA Study - Hedonic Study on the Taste of Drugs Crushed in Food: Observational Study Involving 16 Healthy Volunteers</t>
+    <t>Clinical, Genetic and Epigenetic Characterization of Patients With FSHD Type 1 and FSHD Type 2</t>
   </si>
   <si>
     <t>Evaluation of Efficacy and Patient Acceptance of Sound Amplifier Téo First, in Mild and Moderate Presbycusis Patient 60 Years of Age and Older, With no Previous Hearing Aid.</t>
   </si>
   <si>
-    <t>Clinical, Genetic and Epigenetic Characterization of Patients With FSHD Type 1 and FSHD Type 2</t>
-  </si>
-  <si>
-    <t>VERVE* PROJECT: Study of the Acceptability of a Virtual Reality System on the Cognitive Stimulation of Patients With Alzheimer's Disease or Related Conditions. (*Vanquishing Apathy Through E-inclusion Using Realistic Virtual Environment)</t>
-  </si>
-  <si>
     <t>Validation of a Clinical Interview for a Diagnosis of ADHD in Adults. Cross-validity of Screening Instruments ADHD in Adults. Estimation of Prevalence in France</t>
   </si>
   <si>
+    <t>Treatment of Port-wine Stains by Bosentan in Addition to Pulsed Dye Laser (PDL) in Children or Young Adults Who Previously Failed to Respond to PDL Alone: a Monocentric Pilot Study</t>
+  </si>
+  <si>
+    <t>Using Environmental Light Therapy to Improve Sleep and Neuropsychiatric Symptoms in Dementia</t>
+  </si>
+  <si>
+    <t>Computed Tomography Scan Versus Color Duplex Ultrasound for Surveillance of Endovascular Repair of Abdominal Aortic Aneurysm. A Prospective Multicenter Study</t>
+  </si>
+  <si>
+    <t>Rehabilitation Protocol for Disorders on Hand Sensitivity in Multiple Sclerosis Patients.</t>
+  </si>
+  <si>
+    <t>Pilot Study of Sedation With Propofol in Refractory Pains Due to Care in Palliative Care Unit</t>
+  </si>
+  <si>
+    <t>Ecological Assessment of Autonomy and Apathy in Alzheimer Patients at Mild and Moderate Stages, as Welle as in Healthy Control Particpants</t>
+  </si>
+  <si>
+    <t>Usability of Virtual Reality in Subjects With Mild Cognitive Impairment or Alzheimer's Disease. MeMO-RV2</t>
+  </si>
+  <si>
     <t>Neurological and Psychiatric Comorbidities Patients With FSHD 1 and 2</t>
   </si>
   <si>
     <t>Pilot Study Evaluating the Efficacy and Safety of Metformin in Melanoma</t>
   </si>
   <si>
-    <t>Ecological Assessment of Autonomy and Apathy in Alzheimer Patients at Mild and Moderate Stages, as Welle as in Healthy Control Particpants</t>
-  </si>
-  <si>
-    <t>Treatment of Port-wine Stains by Bosentan in Addition to Pulsed Dye Laser (PDL) in Children or Young Adults Who Previously Failed to Respond to PDL Alone: a Monocentric Pilot Study</t>
-  </si>
-  <si>
-    <t>Rehabilitation Protocol for Disorders on Hand Sensitivity in Multiple Sclerosis Patients.</t>
-  </si>
-  <si>
-    <t>Usability of Virtual Reality in Subjects With Mild Cognitive Impairment or Alzheimer's Disease. MeMO-RV2</t>
-  </si>
-  <si>
-    <t>Pilot Study of Sedation With Propofol in Refractory Pains Due to Care in Palliative Care Unit</t>
-  </si>
-  <si>
-    <t>Computed Tomography Scan Versus Color Duplex Ultrasound for Surveillance of Endovascular Repair of Abdominal Aortic Aneurysm. A Prospective Multicenter Study</t>
-  </si>
-  <si>
-    <t>Using Environmental Light Therapy to Improve Sleep and Neuropsychiatric Symptoms in Dementia</t>
-  </si>
-  <si>
-    <t>Role of Tyrosine Kinase Lyn and Cleaved Form by Caspases in Psoriasis</t>
-  </si>
-  <si>
-    <t>Acute Severe Traumatic Pain in the ED : Can we Improve Time to Pain-relief With a Single Dose of Intranasal Sufentanil Given at Triage ? A Randomized Double-blinded Placebo Controlled Study (InSPEED Study)</t>
+    <t>Chimiodiet Study:Impact of Early and Active Nutritional and Dietary Management on grade3 or More Toxicities Induced by Chemotherapy and Targeted Therapies Administered to Patients as First Intention for Non Surgical Metastatic Colorectal Cancer.</t>
   </si>
   <si>
     <t>Evaluation of the SARC-F Questionnaire, a New Screening Tool for Sarcopenia in People 65-year Old and Older in the Community</t>
-  </si>
-  <si>
-    <t>Health Related Quality of Life in Children With Food Allergy: Comparison to Healthy Children and Children With Other Chronic Diseases</t>
-  </si>
-  <si>
-    <t>Characterization of Immune Semaphorin in Non Alcoholic Fatty Liver Disease and NASH</t>
-  </si>
-  <si>
-    <t>Chimiodiet Study:Impact of Early and Active Nutritional and Dietary Management on grade3 or More Toxicities Induced by Chemotherapy and Targeted Therapies Administered to Patients as First Intention for Non Surgical Metastatic Colorectal Cancer.</t>
-  </si>
-  <si>
-    <t>Toxicity of Perirenal Fat in Overweight or Obese Subjects: A Pathophysiological Link Between Uric Acid Stones and Renal Ammonium Formation</t>
-  </si>
-  <si>
-    <t>Study of Inflammatory Role of Epstein-Barr Virus (EBV) in Atrophic and Erosive Forms of Oral Lichen Planus</t>
   </si>
   <si>
     <t>Hepatoprotective role of SMOFlipid® used in short-term parenteral nutrition in an Onco-Hematology Pediatric Population, pilot study 
  Etude pilote du rôle hépatoprotecteur des SMOFlipid® en nutrition parentérale de courte durée chez des enfants suivis en Onco-Hématologie.</t>
   </si>
   <si>
+    <t>Ketamine-propofol Versus Ketamine Alone for Procedural Sedation in Adults : a Blinded, Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Study of Inflammatory Role of Epstein-Barr Virus (EBV) in Atrophic and Erosive Forms of Oral Lichen Planus</t>
+  </si>
+  <si>
+    <t>Toxicity of Perirenal Fat in Overweight or Obese Subjects: A Pathophysiological Link Between Uric Acid Stones and Renal Ammonium Formation</t>
+  </si>
+  <si>
     <t>Pilot Study: Hepatoprotective Role of SMOFlipid® Used in Short-term Parenteral Nutrition in an Onco-Hematology Pediatric Population</t>
   </si>
   <si>
+    <t>Acute Severe Traumatic Pain in the ED : Can we Improve Time to Pain-relief With a Single Dose of Intranasal Sufentanil Given at Triage ? A Randomized Double-blinded Placebo Controlled Study (InSPEED Study)</t>
+  </si>
+  <si>
+    <t>Circulating Cell-free DNA in Metastatic Melanoma Patient: Mutational Analyses in Consecutive Measurement Before and After Chemotherapy.</t>
+  </si>
+  <si>
+    <t>Health Related Quality of Life in Children With Food Allergy: Comparison to Healthy Children and Children With Other Chronic Diseases</t>
+  </si>
+  <si>
     <t>Evaluation of Therapeutic Management in ESBL-infected Patients or Carriers by Providing and Sharing a Free Tool - the "ESBL toolKIT" and Interventional Study of a Prospective Cohort of HIV+ Patients Searching for Possible Sexual Transmission Factors in ESBL (Extended-spectrum ß-lacatamase-producing Bacteria) Carriers</t>
   </si>
   <si>
-    <t>Circulating Cell-free DNA in Metastatic Melanoma Patient: Mutational Analyses in Consecutive Measurement Before and After Chemotherapy.</t>
-  </si>
-  <si>
-    <t>Ketamine-propofol Versus Ketamine Alone for Procedural Sedation in Adults : a Blinded, Randomized Controlled Trial</t>
+    <t>Role of Tyrosine Kinase Lyn and Cleaved Form by Caspases in Psoriasis</t>
+  </si>
+  <si>
+    <t>Characterization of Immune Semaphorin in Non Alcoholic Fatty Liver Disease and NASH</t>
+  </si>
+  <si>
+    <t>SafEE : Safe &amp; Easy Environment at Home for Patients Presenting a Frail Syndrome</t>
   </si>
   <si>
     <t>Efficacy of Deep Haptic Massage in Fibromyalgia : Preliminary Study</t>
   </si>
   <si>
+    <t>Evaluation de l'oxymétrie cérébrale à Deux Niveaux d'Hypothermie thérapeutique après arrêt Cardiaque Extra-hospitalier</t>
+  </si>
+  <si>
     <t>Impact Assessment of Positioning on Pain Sensitivity During a Lumbar Puncture in Children</t>
   </si>
   <si>
     <t>Assessment of Incidence of Adverse Events in a Naive Pediatric Population Treated With an (Typical and Atypical) Antipsychotic Drug Over 12 Months Follow-up</t>
   </si>
   <si>
-    <t>Evaluation de l'oxymétrie cérébrale à Deux Niveaux d'Hypothermie thérapeutique après arrêt Cardiaque Extra-hospitalier</t>
-  </si>
-  <si>
     <t>Maxillary Sinus Floor Augmentation With Bioss® and Enamel Matrix Derivative: Evaluation of Osteogenic Properties</t>
   </si>
   <si>
+    <t>Influence of Oral Treatment With Citicoline for the Prevention of Radiation Optic Neuropathy in Patients Treated for Uveal Melanomas With Proton Beam Therapy</t>
+  </si>
+  <si>
+    <t>Atorvastatin in Active Vitiligo: a Bicentric Prospective Randomized Trial</t>
+  </si>
+  <si>
+    <t>Lipophilic Organic Polluants and Morbid Obesity: Kinetic of the Release and Impact on the Metabolic Syndrome Before and After Bariatric Surgery</t>
+  </si>
+  <si>
     <t>Magnetic Resonance Imaging Hysterosalpingography Versus Radiographic Hysterosalpingography in Female Infertility</t>
   </si>
   <si>
-    <t>SafEE : Safe &amp; Easy Environment at Home for Patients Presenting a Frail Syndrome</t>
-  </si>
-  <si>
-    <t>Lipophilic Organic Polluants and Morbid Obesity: Kinetic of the Release and Impact on the Metabolic Syndrome Before and After Bariatric Surgery</t>
-  </si>
-  <si>
-    <t>Atorvastatin in Active Vitiligo: a Bicentric Prospective Randomized Trial</t>
-  </si>
-  <si>
     <t>Recto Colonic Endoscopic Mucosal Resection and Polypectomy Under Clopidogrel: the "MEDOC"Study.</t>
   </si>
   <si>
-    <t>Influence of Oral Treatment With Citicoline for the Prevention of Radiation Optic Neuropathy in Patients Treated for Uveal Melanomas With Proton Beam Therapy</t>
+    <t>Relationship Between Neuromuscular Fatigue, Perceived Tiredness and Level Of Physical Activity of Patients Living With HIV</t>
+  </si>
+  <si>
+    <t>To Investigate the Impact of Aging on Cytokine and Chemokine Production by Peripheral Blood Immune Cells</t>
+  </si>
+  <si>
+    <t>Pharmacological Comparison of Continuous and Intermittent Infusions of Cloxacillin During Bone and Joint Infections: a Prospective, Randomized, Open-label, Monocentric Crossover Study.</t>
+  </si>
+  <si>
+    <t>RAS Blockade at Bedtime Versus on Awakening for the Prevention of Aldosterone Breakthrough</t>
+  </si>
+  <si>
+    <t>Identification of Early Semantic Markers of Alzheimer's Disease by Using Eye Tracking in Reading Neutral and Predictable Sentences</t>
   </si>
   <si>
     <t>Comfort Subcutaneous Drainage: a Descriptive Study Among Palliative Care Cancer Patients Presenting Severe Refractory Lower Limbs Lymphedema</t>
   </si>
   <si>
+    <t>Interest of 2-octyl-cyanoacrylate (Dermabond®) in Closing Surgical Incisions in Children Before Acquisition of Continence. Randomised, Prospective, Non-inferiority Study.</t>
+  </si>
+  <si>
     <t>Phospholipase A2 Receptor (PLA2R1) Autoantibodies in Membranous Nephropathy in Kidney Transplantation</t>
   </si>
   <si>
-    <t>Identification of Early Semantic Markers of Alzheimer's Disease by Using Eye Tracking in Reading Neutral and Predictable Sentences</t>
-  </si>
-  <si>
-    <t>RAS Blockade at Bedtime Versus on Awakening for the Prevention of Aldosterone Breakthrough</t>
-  </si>
-  <si>
-    <t>Pharmacological Comparison of Continuous and Intermittent Infusions of Cloxacillin During Bone and Joint Infections: a Prospective, Randomized, Open-label, Monocentric Crossover Study.</t>
-  </si>
-  <si>
-    <t>To Investigate the Impact of Aging on Cytokine and Chemokine Production by Peripheral Blood Immune Cells</t>
-  </si>
-  <si>
-    <t>Interest of 2-octyl-cyanoacrylate (Dermabond®) in Closing Surgical Incisions in Children Before Acquisition of Continence. Randomised, Prospective, Non-inferiority Study.</t>
+    <t>Detection and Characterization of Circulating Tumor Cells in Patients With Malignant Pleural Mesothelioma: Towards a New Phase in the Understanding of the Natural History of This Cancer?</t>
   </si>
   <si>
     <t>Evaluation of the Interest of Ultra-high Frequency Doppler Ultrasound (UFDU) in the Surgical Management of Patients Operated in an Awake Condition for a Cerebral Tumor</t>
   </si>
   <si>
-    <t>Relationship Between Neuromuscular Fatigue, Perceived Tiredness and Level Of Physical Activity of Patients Living With HIV</t>
-  </si>
-  <si>
-    <t>Detection and Characterization of Circulating Tumor Cells in Patients With Malignant Pleural Mesothelioma: Towards a New Phase in the Understanding of the Natural History of This Cancer?</t>
+    <t>Repigmentation Using Apremilast and Phototherapy In Diffuse VITILIGO RAPID VITILIGO</t>
+  </si>
+  <si>
+    <t>Comparison of the Efficacy of Micro-holes vs. Laser-assisted Dermabrasion, for Repigmenting in Vitiligo Skin</t>
+  </si>
+  <si>
+    <t>TREg Activation in the Treatment of the PELADE (Alopecia Areata). Double Blind Randomized Placebo Controlled Comparative Study Using Low Doses of IL2</t>
+  </si>
+  <si>
+    <t>Cimex Lectularius or Bed Bugs : Vector of Infectious Agents and Pathogenic Role</t>
+  </si>
+  <si>
+    <t>Multicenter Validation of the Sensitivity of Theranostic ALK Rearrangement Detection by FISH Analysis and Prevalence of Escaping Mutations in Circulating Tumor Cells for the Non-invasive Management of Lung Cancer Patients</t>
+  </si>
+  <si>
+    <t>OStéopontin as a Marker Of StenoSIS - OSMOSIS</t>
+  </si>
+  <si>
+    <t>Project A3sc - An Atlas of Airways at a Single Cell Level</t>
+  </si>
+  <si>
+    <t>Frequency of Pompe's Disease and Neuromuscular Etiologies in Patients With Restrictive Respiratory Failure Associated With Signs of Muscle Weakness</t>
+  </si>
+  <si>
+    <t>Performance in Walking in Osteoarthritis Patients: the Role of Fatigue and the Effect of an Eccentric Muscle Building Program</t>
+  </si>
+  <si>
+    <t>Study of the Influence of Blue Light Emitted by Computer / Television Screens on Melasma Single-center, Interventional, Randomized, Single-blind Study (Masked Investigator) MELABLUE Study</t>
+  </si>
+  <si>
+    <t>Efficiency and Safety of a Procedural Sedation by Propofol Administered by Trained Doctors Who Are Not Anesthesiologists on Terminally Ill Patients With Refractory Pain Hospitalized in a Palliative Care Unit</t>
+  </si>
+  <si>
+    <t>Prospective Monocentric Study on the Efficacy of Lidocain Spray for Patient Comfort During Nasogastric Tube Insertion in Enteral Nutrition: the Xylonut Trial</t>
+  </si>
+  <si>
+    <t>Impact on the Intestinal Microbiota of Treatment With Ceftriaxone in Women's Acute Community Pyelonephritis</t>
+  </si>
+  <si>
+    <t>Study at the Man of the Profile of Chimiokines in the Anorexia Bound to the Cancerous Cachexy.</t>
+  </si>
+  <si>
+    <t>Evaluation of a Predictive Immunovirological Test Occurrence of BK Virus Nephropathy in Renal Transplant</t>
+  </si>
+  <si>
+    <t>Study Role of the Local Treatments on the Microbiome Modulation in the Psoriatic Skin. Study Monocentric, Interventional, Randomized and Single-blind</t>
   </si>
   <si>
     <t>Anatomo-functional Study of the Brain Cortical and Sub-cortical Connectivity Using Diffusion MRI, Electrocorticography and Direct Electrical Stimulation</t>
   </si>
   <si>
-    <t>Cimex Lectularius or Bed Bugs : Vector of Infectious Agents and Pathogenic Role</t>
-  </si>
-  <si>
-    <t>Project A3sc - An Atlas of Airways at a Single Cell Level</t>
-  </si>
-  <si>
     <t>Arterial Calcifications: Role of Tissue-nonspecific Alkaline Phosphatase in Phosphate and Pyrophosphate Homeostasis. PIPAL Study.</t>
   </si>
   <si>
-    <t>TREg Activation in the Treatment of the PELADE (Alopecia Areata). Double Blind Randomized Placebo Controlled Comparative Study Using Low Doses of IL2</t>
-  </si>
-  <si>
-    <t>Impact on the Intestinal Microbiota of Treatment With Ceftriaxone in Women's Acute Community Pyelonephritis</t>
-  </si>
-  <si>
-    <t>Study at the Man of the Profile of Chimiokines in the Anorexia Bound to the Cancerous Cachexy.</t>
-  </si>
-  <si>
-    <t>Evaluation of a Predictive Immunovirological Test Occurrence of BK Virus Nephropathy in Renal Transplant</t>
-  </si>
-  <si>
-    <t>Multicenter Validation of the Sensitivity of Theranostic ALK Rearrangement Detection by FISH Analysis and Prevalence of Escaping Mutations in Circulating Tumor Cells for the Non-invasive Management of Lung Cancer Patients</t>
-  </si>
-  <si>
     <t>Computerized Facial Recognition for Automated Diagnosis of the Facio-Scapulo-Humeral Muscular Dystrophy (FSMHD): Pilot Study</t>
   </si>
   <si>
-    <t>Comparison of the Efficacy of Micro-holes vs. Laser-assisted Dermabrasion, for Repigmenting in Vitiligo Skin</t>
-  </si>
-  <si>
-    <t>OStéopontin as a Marker Of StenoSIS - OSMOSIS</t>
-  </si>
-  <si>
-    <t>Prospective Monocentric Study on the Efficacy of Lidocain Spray for Patient Comfort During Nasogastric Tube Insertion in Enteral Nutrition: the Xylonut Trial</t>
-  </si>
-  <si>
-    <t>Study Role of the Local Treatments on the Microbiome Modulation in the Psoriatic Skin. Study Monocentric, Interventional, Randomized and Single-blind</t>
-  </si>
-  <si>
     <t>Treatment of the oral aphtose récidivante and idiopathique of the adult by probiotics_x000D_ Double-blind randomized interventional study versus placebo</t>
   </si>
   <si>
-    <t>Efficiency and Safety of a Procedural Sedation by Propofol Administered by Trained Doctors Who Are Not Anesthesiologists on Terminally Ill Patients With Refractory Pain Hospitalized in a Palliative Care Unit</t>
-  </si>
-  <si>
-    <t>Performance in Walking in Osteoarthritis Patients: the Role of Fatigue and the Effect of an Eccentric Muscle Building Program</t>
-  </si>
-  <si>
-    <t>Frequency of Pompe's Disease and Neuromuscular Etiologies in Patients With Restrictive Respiratory Failure Associated With Signs of Muscle Weakness</t>
-  </si>
-  <si>
-    <t>Repigmentation Using Apremilast and Phototherapy In Diffuse VITILIGO RAPID VITILIGO</t>
-  </si>
-  <si>
-    <t>Study of the Influence of Blue Light Emitted by Computer / Television Screens on Melasma Single-center, Interventional, Randomized, Single-blind Study (Masked Investigator) MELABLUE Study</t>
+    <t>Evaluation of the Efficacy and Safety of the Use of the RespIn PAD in the Bronchial De-enclosure of Elderly Patients Who Cannot Benefit From Respiratory Physiotherapy</t>
+  </si>
+  <si>
+    <t>Pyrophosphate Homeostasis and Hepatic Expression of ABCC6. Pilot Study in Liver Transplantation</t>
+  </si>
+  <si>
+    <t>IMPLEMENTING A SINGLE MUSCLE FIBER DNA QUANTIFICATION TECHNIQUE AS A INTERPRETATION TOOL FOR THE VARIANTS OF UNKNOWN SERVICE IN MITOCHONDRIAL DISEASES</t>
+  </si>
+  <si>
+    <t>Molecular Profile of the Evolution of Inclusion Body Myositis</t>
+  </si>
+  <si>
+    <t>Indication and Response to Immunosuppressive Treatment in Membranous Nephropathy : Role of Anti-mouse PLA2R1 ELISA</t>
+  </si>
+  <si>
+    <t>Treatment of Idiopathic and Recurrent Aphthous Stomatitis by a Probiotic, the Lactobacillus Rhamnosus Lcr35® : a Randomized, Double Blind and Placebo-controlled Trial</t>
+  </si>
+  <si>
+    <t>Circulating Tumor Cells and Early Diagnosis of Lung Cancer in Patients With Chronic Obstructive Pulmonary Disease</t>
+  </si>
+  <si>
+    <t>Hypnosis as a Therapeutic Tool in Patients With Reccurent Cystitis</t>
+  </si>
+  <si>
+    <t>Gastroprotected Superoxide Dismutase in Combination With UVB vs Placebo and UVB for Treating Vitiligo. A Randomized Double Blind Placebo Controlled Monocentric Study</t>
+  </si>
+  <si>
+    <t>Determinants of Vascular Calcification in Chronic Renal Failure : Impact of Pyrophosphate Levels After Renal Transplantation</t>
+  </si>
+  <si>
+    <t>Is Adipose Tissue a Reservoir for SARS-Cov2 Spread?</t>
+  </si>
+  <si>
+    <t>Oral Superoxide Dismutase (GLISODin) to Decrease Melasma Severity. A Prospective Randomized Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Impact of Preoperative 4-week Supplementation With Omega-3 Polyunsaturated Fatty Acids on Liver Volume and Steatosis to Facilitate Bariatric Surgery in Morbdly Obese Patients : the " Omegaobese Study ".</t>
+  </si>
+  <si>
+    <t>A Pilot Study Evaluating the PROgnostic Contribution of Venous Lactate for the Recovery of Spontaneous Cardiac Activity, Following an Extra-hospital Cardiac Arrest "PROLAC Study"</t>
   </si>
   <si>
     <t>Cerebral Functional Modifications After Low Frequency Repetitive Transcranial Magnetic Stimulation in Refractory Depression. Assessment With 18F-FDG-PET Imaging.</t>
   </si>
   <si>
-    <t>Treatment of Idiopathic and Recurrent Aphthous Stomatitis by a Probiotic, the Lactobacillus Rhamnosus Lcr35® : a Randomized, Double Blind and Placebo-controlled Trial</t>
+    <t>Effects of Cardiorespiratory Rehabilitation on the Right Ventricle in Pulmonary Hypertension</t>
+  </si>
+  <si>
+    <t>Cemented Versus Uncemented Hemiarthroplasty for Displaced Femoral Neck Fracture in Elderly Patient : a Randomized Prospective Trial</t>
   </si>
   <si>
     <t>Diagnostic Performance of a New Bio-marker During Bacterial Sepsis</t>
   </si>
   <si>
-    <t>Evaluation of the Efficacy and Safety of the Use of the RespIn PAD in the Bronchial De-enclosure of Elderly Patients Who Cannot Benefit From Respiratory Physiotherapy</t>
+    <t>Comparing a Diuretic Vascular Filling in the Initial Management of Acute Pulmonary Embolism With Right Ventricular Dysfunction Normotensive</t>
+  </si>
+  <si>
+    <t>Prospective Study of Ingenol Mebutate for Non-invasive Lentigo Melanoma of the Face - Study PICAMEL</t>
   </si>
   <si>
     <t>Treatment of Multiple Gingival Recession Defects Using a Xenogenic Acellular Dermal Matrix Compared to Connective Tissue Graft: a Randomized Controlled Clinical Study</t>
   </si>
   <si>
-    <t>Circulating Tumor Cells and Early Diagnosis of Lung Cancer in Patients With Chronic Obstructive Pulmonary Disease</t>
-  </si>
-  <si>
-    <t>Hypnosis as a Therapeutic Tool in Patients With Reccurent Cystitis</t>
-  </si>
-  <si>
-    <t>Is Adipose Tissue a Reservoir for SARS-Cov2 Spread?</t>
-  </si>
-  <si>
     <t>Early Skin to Skin in Neonatal reanimation_Risk Assessment in the Newborn With an Umbilical Venous Catheter</t>
   </si>
   <si>
+    <t>Target-controlled Infusion With Propofol in the Emergency Department : a Prospective Study on 45 Adult Patients</t>
+  </si>
+  <si>
     <t>Telmisartan Promotes the Differentiation of Monocytes Into Macrophages M2 in Diabetic Nephropathy?</t>
   </si>
   <si>
-    <t>Oral Superoxide Dismutase (GLISODin) to Decrease Melasma Severity. A Prospective Randomized Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Impact of Preoperative 4-week Supplementation With Omega-3 Polyunsaturated Fatty Acids on Liver Volume and Steatosis to Facilitate Bariatric Surgery in Morbdly Obese Patients : the " Omegaobese Study ".</t>
-  </si>
-  <si>
-    <t>Effects of Cardiorespiratory Rehabilitation on the Right Ventricle in Pulmonary Hypertension</t>
-  </si>
-  <si>
-    <t>Gastroprotected Superoxide Dismutase in Combination With UVB vs Placebo and UVB for Treating Vitiligo. A Randomized Double Blind Placebo Controlled Monocentric Study</t>
-  </si>
-  <si>
-    <t>Comparing a Diuretic Vascular Filling in the Initial Management of Acute Pulmonary Embolism With Right Ventricular Dysfunction Normotensive</t>
-  </si>
-  <si>
-    <t>Prospective Study of Ingenol Mebutate for Non-invasive Lentigo Melanoma of the Face - Study PICAMEL</t>
-  </si>
-  <si>
-    <t>Indication and Response to Immunosuppressive Treatment in Membranous Nephropathy : Role of Anti-mouse PLA2R1 ELISA</t>
-  </si>
-  <si>
-    <t>Molecular Profile of the Evolution of Inclusion Body Myositis</t>
-  </si>
-  <si>
-    <t>Determinants of Vascular Calcification in Chronic Renal Failure : Impact of Pyrophosphate Levels After Renal Transplantation</t>
-  </si>
-  <si>
-    <t>Cemented Versus Uncemented Hemiarthroplasty for Displaced Femoral Neck Fracture in Elderly Patient : a Randomized Prospective Trial</t>
-  </si>
-  <si>
-    <t>Target-controlled Infusion With Propofol in the Emergency Department : a Prospective Study on 45 Adult Patients</t>
-  </si>
-  <si>
-    <t>Pyrophosphate Homeostasis and Hepatic Expression of ABCC6. Pilot Study in Liver Transplantation</t>
-  </si>
-  <si>
-    <t>A Pilot Study Evaluating the PROgnostic Contribution of Venous Lactate for the Recovery of Spontaneous Cardiac Activity, Following an Extra-hospital Cardiac Arrest "PROLAC Study"</t>
-  </si>
-  <si>
-    <t>IMPLEMENTING A SINGLE MUSCLE FIBER DNA QUANTIFICATION TECHNIQUE AS A INTERPRETATION TOOL FOR THE VARIANTS OF UNKNOWN SERVICE IN MITOCHONDRIAL DISEASES</t>
+    <t>Nivolumab in Combination With High Dose Radiotherapy at Varied Tumor Sites in Advanced Melanoma and no Prior Antitumoral Treatment</t>
+  </si>
+  <si>
+    <t>ASYMPTOMATIC CARRIER OF LEISHMANIA INFANTUM, MEDISERRANEAN VISCERAL LEISHMANIOSIS AGENT: STUDY OF IMMUNE RESPONSE - POSTULATE PRIOR TO HUMAN VACCINAL TRIALS Immune Response of Asymptomatic Carriers to L. Infantum</t>
+  </si>
+  <si>
+    <t>A National, Multi-center Study to Evaluate the Safety of Long Term Treatment With Teriflunomide 14 mg Once Daily in Patients With a First Clinical Episode Suggestive of Multiple Sclerosis in a Long-term Extension Period</t>
+  </si>
+  <si>
+    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Chronic Haemodialysis Patients</t>
+  </si>
+  <si>
+    <t>Feasibility Study of Smoking Cessation for the Staff of a Hospital Center Through a Treatment Proposal Combining Nicotine Substitutes, Psychological Support, Nutritional Assistance and Hypnosis.</t>
+  </si>
+  <si>
+    <t>FAME 1: The Effects of Apathy on Different Forms of Fatigue</t>
+  </si>
+  <si>
+    <t>Assay of Pro-angiogenic Cytokines in Exudative Age-Related Macular Degeneration</t>
+  </si>
+  <si>
+    <t>Project A4sc - An Atlas of Airways at a Single Cell Level</t>
+  </si>
+  <si>
+    <t>Clinical Study of In Vivo Damage Induced bu UV in the Epidermis of the Scalp</t>
+  </si>
+  <si>
+    <t>Macrophage Phenotype in Type 2 Diabetics After Myocardial Infarction and the Potential Role of miRNAs Secreted</t>
   </si>
   <si>
     <t>Art'Health: Effects of Artistic and Participative Workshops at the MAMAC of Nice on the Health of Seniors</t>
   </si>
   <si>
+    <t>AVP Study: Autophagy and Pathological Aging Human Study in Osteoporosis With or Without Dementia of Alzheimer's Type</t>
+  </si>
+  <si>
+    <t>Study ¨PRECOCE Feasibility Study of Photovaporisation of Prostate With a Limitated Length of Catheterization of 3 Hours</t>
+  </si>
+  <si>
+    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Kidney Transplant Patients</t>
+  </si>
+  <si>
+    <t>Descriptive Analysis of Morphological Aspects of Nerve by Ultra-high Frequency Ultrasound (30-50MHZ) in Demyelinating Neuropathies: Inflammatory Demyelinating Polyneuropathy Chronic (IPDC), Neuropathy Multifocal Motor Block of Conducting (NMMBC) and Neuropathy With Antibody A MAG</t>
+  </si>
+  <si>
     <t>Prospective, Open Label, Randomized Study Comparing Bipolar Radiofrequency Potentiated by Infrared Light to Doxycycline in Patient With Papulopustular Rosacea</t>
   </si>
   <si>
     <t>Pro-inflammatory Cytokines as Potential Therapeutic Target in Type 1 Facioscapulohumeral Muscular Dystrophy: Pilot Study</t>
   </si>
   <si>
-    <t>FAME 1: The Effects of Apathy on Different Forms of Fatigue</t>
-  </si>
-  <si>
-    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Kidney Transplant Patients</t>
-  </si>
-  <si>
-    <t>Nivolumab in Combination With High Dose Radiotherapy at Varied Tumor Sites in Advanced Melanoma and no Prior Antitumoral Treatment</t>
-  </si>
-  <si>
-    <t>AVP Study: Autophagy and Pathological Aging Human Study in Osteoporosis With or Without Dementia of Alzheimer's Type</t>
-  </si>
-  <si>
-    <t>Descriptive Analysis of Morphological Aspects of Nerve by Ultra-high Frequency Ultrasound (30-50MHZ) in Demyelinating Neuropathies: Inflammatory Demyelinating Polyneuropathy Chronic (IPDC), Neuropathy Multifocal Motor Block of Conducting (NMMBC) and Neuropathy With Antibody A MAG</t>
-  </si>
-  <si>
-    <t>Feasibility Study of Smoking Cessation for the Staff of a Hospital Center Through a Treatment Proposal Combining Nicotine Substitutes, Psychological Support, Nutritional Assistance and Hypnosis.</t>
-  </si>
-  <si>
-    <t>A National, Multi-center Study to Evaluate the Safety of Long Term Treatment With Teriflunomide 14 mg Once Daily in Patients With a First Clinical Episode Suggestive of Multiple Sclerosis in a Long-term Extension Period</t>
-  </si>
-  <si>
-    <t>ASYMPTOMATIC CARRIER OF LEISHMANIA INFANTUM, MEDISERRANEAN VISCERAL LEISHMANIOSIS AGENT: STUDY OF IMMUNE RESPONSE - POSTULATE PRIOR TO HUMAN VACCINAL TRIALS Immune Response of Asymptomatic Carriers to L. Infantum</t>
-  </si>
-  <si>
-    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Chronic Haemodialysis Patients</t>
-  </si>
-  <si>
-    <t>Assay of Pro-angiogenic Cytokines in Exudative Age-Related Macular Degeneration</t>
-  </si>
-  <si>
     <t>Evaluation of the Radial Artery Deviation And Reimplantation Technique for Primary Hemodialysis Access Creation: a Multicenter Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Project A4sc - An Atlas of Airways at a Single Cell Level</t>
-  </si>
-  <si>
-    <t>Macrophage Phenotype in Type 2 Diabetics After Myocardial Infarction and the Potential Role of miRNAs Secreted</t>
-  </si>
-  <si>
-    <t>Study ¨PRECOCE Feasibility Study of Photovaporisation of Prostate With a Limitated Length of Catheterization of 3 Hours</t>
-  </si>
-  <si>
-    <t>Clinical Study of In Vivo Damage Induced bu UV in the Epidermis of the Scalp</t>
+    <t>Biological Markers of Functional Effects of Physical Activity : Aging, Immunometabolism and Frailty Project (VIF-APAS)</t>
+  </si>
+  <si>
+    <t>Study of Immune Response During SARS-CoV-2 Infection</t>
+  </si>
+  <si>
+    <t>Fragility Multidisciplinary Evaluation and Adapted Physical Activity</t>
+  </si>
+  <si>
+    <t>A Prospective Study of Hypnosis for Chronic Idiopathic Pruritus</t>
+  </si>
+  <si>
+    <t>Acceptability and Clinical, Cognitive and Brain Efficacy of the Pilot of a Computerized Psychotherapy Program Based on Behavioural and Cognitive Techniques in the Depressed Patient</t>
+  </si>
+  <si>
+    <t>SYMPTOMATIC EFFECTIVENESS OF MICROPARTICLE ARTERIAL EMBOLIZATION IN PATIENTS WITH TOTAL KNEE PROSTHESIS WITH PAIN RESISTANT TO MEDICAL TREATMENT</t>
+  </si>
+  <si>
+    <t>Nice Healthy Brain - Cohort of Healthy People in Brain MRI, Together With a Language and Cognitive Assessment at the University Hospital of Nice</t>
+  </si>
+  <si>
+    <t>Treatment of bullous pemphigoid with avdoralimab (IPH5401), an anti-C5aR1 monoclonal antibody</t>
+  </si>
+  <si>
+    <t>Evaluation of an Ultra-speed Picosecond Laser for Treating Tattoos</t>
+  </si>
+  <si>
+    <t>PsyDoMa :Non-drug Approaches at Home for Alzheimer's Patients With Psycho-behavioural Disorders and Psycho-education for the Caregivers</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of a Muscular Strengthening Protocol With an Instrumented Orthosis for Gonarthrosis Patients</t>
+  </si>
+  <si>
+    <t>Open, Prospective, Single-center Study Evaluating the Efficacy and Safety of 0.05% Ingenol Mebutate (Picato® 500) in the Treatment of Basal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Comparison of Intraosseous Anesthesia Osteocentral With Electronic Assistance to Injection to a Conventional Anaesthesia by Infiltration on Temporary Molars</t>
+  </si>
+  <si>
+    <t>Assesment of the Metabolomic Signature in COVID-19 Patients (SignCov Study)</t>
+  </si>
+  <si>
+    <t>Development and Evaluation of the Effectiveness of Rehabilitation Tools for Neurovisual Disorders in Patients With Posterior Cortical Atrophy (PCA)</t>
+  </si>
+  <si>
+    <t>Effects of Different Forms of Fatigue on Double-Task Performance in the Elderly</t>
+  </si>
+  <si>
+    <t>Appendectomy by Low Impact Laparoscopy vs Routine Laparoscopy : a Randomized Prospective Monocentric Trial</t>
+  </si>
+  <si>
+    <t>Comparison of a New Masterful Preparation to Kligman's Trio in the Treatment of Melasma: a Double Blind Prospective Randomzed Study</t>
   </si>
   <si>
     <t>Validating an ELISpot for Early Detection of an Active Immune Response Against COVID-19</t>
   </si>
   <si>
-    <t>Treatment of bullous pemphigoid with avdoralimab (IPH5401), an anti-C5aR1 monoclonal antibody</t>
-  </si>
-  <si>
-    <t>Study of Immune Response During SARS-CoV-2 Infection</t>
-  </si>
-  <si>
-    <t>Effects of Different Forms of Fatigue on Double-Task Performance in the Elderly</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of a Muscular Strengthening Protocol With an Instrumented Orthosis for Gonarthrosis Patients</t>
+    <t>Interest of a Post-operative Ultrasound With Systematic Use of Ultrasonic Contrast in the Follow-up of Aortic Endoprosthesis: Prospective Study at the University Hospital of Nice</t>
+  </si>
+  <si>
+    <t>Role of Inflammasomes in COVID-19 Disease</t>
+  </si>
+  <si>
+    <t>Impact of the Eurékoi Serious Game on Family Caregivers of Patients With a Major Neurocognitive Disorder</t>
+  </si>
+  <si>
+    <t>Comparison of Analgesic Efficiency Between Serratus Block and Paravertebral Block in Video-assisted Thoracic Surgery. Double-blind Randomized Comparative Non-inferiority Study</t>
   </si>
   <si>
     <t>Prevalence, Impact and Reversibility of Acute Diaprhagmatic Dysfunction in Acute Respiratory Detresse Measured by Diaphragmatic Echogaphy</t>
   </si>
   <si>
-    <t>PsyDoMa :Non-drug Approaches at Home for Alzheimer's Patients With Psycho-behavioural Disorders and Psycho-education for the Caregivers</t>
-  </si>
-  <si>
-    <t>A Prospective Study of Hypnosis for Chronic Idiopathic Pruritus</t>
-  </si>
-  <si>
     <t>Sarcopenia Physical Activity and Metabolomic</t>
   </si>
   <si>
-    <t>Open, Prospective, Single-center Study Evaluating the Efficacy and Safety of 0.05% Ingenol Mebutate (Picato® 500) in the Treatment of Basal Cell Carcinoma</t>
-  </si>
-  <si>
-    <t>Development and Evaluation of the Effectiveness of Rehabilitation Tools for Neurovisual Disorders in Patients With Posterior Cortical Atrophy (PCA)</t>
-  </si>
-  <si>
-    <t>Evaluation of an Ultra-speed Picosecond Laser for Treating Tattoos</t>
-  </si>
-  <si>
-    <t>Nice Healthy Brain - Cohort of Healthy People in Brain MRI, Together With a Language and Cognitive Assessment at the University Hospital of Nice</t>
-  </si>
-  <si>
-    <t>Comparison of Analgesic Efficiency Between Serratus Block and Paravertebral Block in Video-assisted Thoracic Surgery. Double-blind Randomized Comparative Non-inferiority Study</t>
-  </si>
-  <si>
-    <t>Impact of the Eurékoi Serious Game on Family Caregivers of Patients With a Major Neurocognitive Disorder</t>
-  </si>
-  <si>
-    <t>Assesment of the Metabolomic Signature in COVID-19 Patients (SignCov Study)</t>
-  </si>
-  <si>
-    <t>Role of Inflammasomes in COVID-19 Disease</t>
-  </si>
-  <si>
-    <t>Comparison of a New Masterful Preparation to Kligman's Trio in the Treatment of Melasma: a Double Blind Prospective Randomzed Study</t>
-  </si>
-  <si>
-    <t>Acceptability and Clinical, Cognitive and Brain Efficacy of the Pilot of a Computerized Psychotherapy Program Based on Behavioural and Cognitive Techniques in the Depressed Patient</t>
-  </si>
-  <si>
-    <t>Fragility Multidisciplinary Evaluation and Adapted Physical Activity</t>
-  </si>
-  <si>
-    <t>Appendectomy by Low Impact Laparoscopy vs Routine Laparoscopy : a Randomized Prospective Monocentric Trial</t>
-  </si>
-  <si>
     <t>Multi-center, Randomized, Double-blinded Study of Teriflunomide® in Radiologically Isolated Syndrome (RIS) The TERIS Study</t>
   </si>
   <si>
-    <t>Comparison of Intraosseous Anesthesia Osteocentral With Electronic Assistance to Injection to a Conventional Anaesthesia by Infiltration on Temporary Molars</t>
-  </si>
-  <si>
-    <t>Biological Markers of Functional Effects of Physical Activity : Aging, Immunometabolism and Frailty Project (VIF-APAS)</t>
-  </si>
-  <si>
-    <t>Interest of a Post-operative Ultrasound With Systematic Use of Ultrasonic Contrast in the Follow-up of Aortic Endoprosthesis: Prospective Study at the University Hospital of Nice</t>
-  </si>
-  <si>
-    <t>SYMPTOMATIC EFFECTIVENESS OF MICROPARTICLE ARTERIAL EMBOLIZATION IN PATIENTS WITH TOTAL KNEE PROSTHESIS WITH PAIN RESISTANT TO MEDICAL TREATMENT</t>
+    <t>Longitudinal Monitoring of Energy Expenditure, Dynamic Stability and Fatigue During Gait in Patients With Cerebellar Ataxia Gene</t>
+  </si>
+  <si>
+    <t>Preformed Pediatric Crown Zirconia Versus Preformed Pediatric Metal Crown PPC Z-M</t>
   </si>
   <si>
     <t>Study of Circulating Glicentin Levels in Patients With Intestinal Ischemia</t>
   </si>
   <si>
-    <t>Preformed Pediatric Crown Zirconia Versus Preformed Pediatric Metal Crown PPC Z-M</t>
+    <t>Diagnosis of Toxoplasma Gondii Infection by Exploration of Cellular Immunity</t>
+  </si>
+  <si>
+    <t>Olfaction, Virtual Reality and Art in Health</t>
+  </si>
+  <si>
+    <t>Pilot Study of Exosomes Before and After BRAF Inhibitor Therapy in Patients With Advanced Unresectable or Metastatic BRAF Mutation-positive Melanoma</t>
+  </si>
+  <si>
+    <t>Impact of Cooking Education and Adapted Physical Activity on Nutritional Status and Quality of Life of Patients Treated by Allo Stem Cell Transplantation</t>
+  </si>
+  <si>
+    <t>Early Detection by Molecular Biology Technique of Pathogens Responsible for Respiratory Infections Associated With Drownings in Seawater: Pilot Study at the CHU de Nice</t>
+  </si>
+  <si>
+    <t>Clinical Study: Physiological Effects of Scuba Diving on PTSD by Activating the Parasympathetic System and Restoring the Optimal and Sustainable State of Balance Between the Sympathetic and Parasympathetic Autonomous Nervous System (Sympatho-vagale Scale)</t>
+  </si>
+  <si>
+    <t>REMINISCENCES : Reminiscence Triggered by Virtual Reality for Older Adults With Mood Disorders</t>
   </si>
   <si>
     <t>MESSAge Study : Ultrasound Measurement of Sarcopenia in the Elder Subject</t>
   </si>
   <si>
-    <t>Impact of Cooking Education and Adapted Physical Activity on Nutritional Status and Quality of Life of Patients Treated by Allo Stem Cell Transplantation</t>
+    <t>Superiority of Drug-eluting Balloon Angioplasty Versus Plain Balloon Angioplasty for the Treatment of Hemodialysis Vascular Access Stenosis : a Multicentre, Randomized, Controlled Trial</t>
   </si>
   <si>
     <t>Functional Non Specific Immunity Monitoring After Kidney Transplantation Using an Interferon Gamma Test, QuantiFERON Monitor®</t>
   </si>
   <si>
-    <t>Diagnosis of Toxoplasma Gondii Infection by Exploration of Cellular Immunity</t>
-  </si>
-  <si>
-    <t>Early Detection by Molecular Biology Technique of Pathogens Responsible for Respiratory Infections Associated With Drownings in Seawater: Pilot Study at the CHU de Nice</t>
-  </si>
-  <si>
-    <t>Olfaction, Virtual Reality and Art in Health</t>
-  </si>
-  <si>
-    <t>Pilot Study of Exosomes Before and After BRAF Inhibitor Therapy in Patients With Advanced Unresectable or Metastatic BRAF Mutation-positive Melanoma</t>
+    <t>OCT-angiography as a Pronostic Marker for Visual Impairment in Patients Undergoing Neurosurgery for Compressive Macroadenoma : a Prospective Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of Prevenar 13's Vaccine Response in Patients Hospitalized in Infectious Disease Department for Sepsis</t>
   </si>
   <si>
     <t>Identification of Predictive Blood Biomarkers of Recurrent Urinary Tract Infections</t>
   </si>
   <si>
-    <t>OCT-angiography as a Pronostic Marker for Visual Impairment in Patients Undergoing Neurosurgery for Compressive Macroadenoma : a Prospective Study.</t>
-  </si>
-  <si>
-    <t>REMINISCENCES : Reminiscence Triggered by Virtual Reality for Older Adults With Mood Disorders</t>
-  </si>
-  <si>
-    <t>Evaluation of Prevenar 13's Vaccine Response in Patients Hospitalized in Infectious Disease Department for Sepsis</t>
-  </si>
-  <si>
-    <t>Clinical Study: Physiological Effects of Scuba Diving on PTSD by Activating the Parasympathetic System and Restoring the Optimal and Sustainable State of Balance Between the Sympathetic and Parasympathetic Autonomous Nervous System (Sympatho-vagale Scale)</t>
+    <t>Urinary and Prostate Microbiotes and Prostate Cancer</t>
   </si>
   <si>
     <t>Stimulation of Acupuncture Points by Athermic Laser Therapy for the Prevention of Chemotherapy Induced Nausea and Vomiting in Children</t>
   </si>
   <si>
-    <t>Urinary and Prostate Microbiotes and Prostate Cancer</t>
-  </si>
-  <si>
-    <t>Longitudinal Monitoring of Energy Expenditure, Dynamic Stability and Fatigue During Gait in Patients With Cerebellar Ataxia Gene</t>
-  </si>
-  <si>
-    <t>Superiority of Drug-eluting Balloon Angioplasty Versus Plain Balloon Angioplasty for the Treatment of Hemodialysis Vascular Access Stenosis : a Multicentre, Randomized, Controlled Trial</t>
+    <t>A Multicenter, Interventional, Open-label Study to Monitor the Evolution of Motor Function in SMA Type II Adults Patients Treated With SPINRAZA®</t>
+  </si>
+  <si>
+    <t>Ex Vivo Transformation of White Adipose Tissue (WAT) Into Brown Adipose Tissue (BAT) in Morbidly Obese Patients Using the Ex Vivo Adipocyte Expansion (ExAdEx) Approach: Proof of Concept. From White to Brown Adipose Tissue</t>
+  </si>
+  <si>
+    <t>Screening for Renal Complications in Children and Young Adults With Major Sickle Cell Disease</t>
+  </si>
+  <si>
+    <t>Treatment of Bullous Pemphigoid With Avdoralimab (IPH5401), an Anti-C5aR1 Monoclonal Antibody</t>
+  </si>
+  <si>
+    <t>Comparison of a Speech-Language Pathology Assessment Tool for Pragmatic and Discourse Skills for Patients With Schizophrenic Spectrum Disorders and Other Psychotic Disorders</t>
+  </si>
+  <si>
+    <t>Study to Measure the Impact of Probiotics on Immune Activation and Neurocognitive Disorders in HIV-positive Patients With Neurocognitive Disorders</t>
+  </si>
+  <si>
+    <t>To Study the Predictive Value of Th1, Th2 and Th17 Cytokine Serum Levels Produced After Non-specific Stimulation on the Success of Embryo Implantation</t>
+  </si>
+  <si>
+    <t>IMPACT OF BREATH CONTROL AND RETENTION ON PATIENT STRESS. E.S IN MEDICALLY ASSISTED REPRODUCTION BREATH HOLD TO BREATH BETTER PROGRAM IN MEDICALLY ASSISTED REPRODUCTION</t>
+  </si>
+  <si>
+    <t>Single-cell Transcriptome Identification of UV- and Visible-light-induced Genes in Human Melanocytes in Vivo</t>
+  </si>
+  <si>
+    <t>fMRI Study of the Cerebal Bases of the Spatialization Process in Working Memory in Young Healthy Adults</t>
+  </si>
+  <si>
+    <t>Study of the Impact of Time of Vaccination on Response to Influenza Vaccine in Kidney Transplant Recipients -ChronoVAX</t>
+  </si>
+  <si>
+    <t>Pilot Study for the Development of an Activity and Quality of Life Questionnaire for the Follow-up of Patients With Non-dystrophic Myotonia</t>
+  </si>
+  <si>
+    <t>Comparison of a Classical Rehabilitation Method and a Specific Rehabilitation Method of the Cervical Spine to Improve Balance in Elderly Patients</t>
+  </si>
+  <si>
+    <t>Using the Superb Microvascular Imaging Method in the Diagnosis of Intraocular Tumors (SMITIS)</t>
+  </si>
+  <si>
+    <t>Search for New Predictive Markers of the Immune Response in Vitiligo and Melanoma (Vitilimel Study)</t>
   </si>
   <si>
     <t>Effectiveness Speech and Cognitive Therapy Implant Pre-cohlear Implantation</t>
@@ -1391,51 +1436,6 @@
     <t>Improved Rehabilitation After Surgery and Hypnosis: Benefits Potentiated by a Preoperative Consultation</t>
   </si>
   <si>
-    <t>Search for New Predictive Markers of the Immune Response in Vitiligo and Melanoma (Vitilimel Study)</t>
-  </si>
-  <si>
-    <t>fMRI Study of the Cerebal Bases of the Spatialization Process in Working Memory in Young Healthy Adults</t>
-  </si>
-  <si>
-    <t>Screening for Renal Complications in Children and Young Adults With Major Sickle Cell Disease</t>
-  </si>
-  <si>
-    <t>Comparison of a Classical Rehabilitation Method and a Specific Rehabilitation Method of the Cervical Spine to Improve Balance in Elderly Patients</t>
-  </si>
-  <si>
-    <t>A Multicenter, Interventional, Open-label Study to Monitor the Evolution of Motor Function in SMA Type II Adults Patients Treated With SPINRAZA®</t>
-  </si>
-  <si>
-    <t>To Study the Predictive Value of Th1, Th2 and Th17 Cytokine Serum Levels Produced After Non-specific Stimulation on the Success of Embryo Implantation</t>
-  </si>
-  <si>
-    <t>Using the Superb Microvascular Imaging Method in the Diagnosis of Intraocular Tumors (SMITIS)</t>
-  </si>
-  <si>
-    <t>Pilot Study for the Development of an Activity and Quality of Life Questionnaire for the Follow-up of Patients With Non-dystrophic Myotonia</t>
-  </si>
-  <si>
-    <t>Study to Measure the Impact of Probiotics on Immune Activation and Neurocognitive Disorders in HIV-positive Patients With Neurocognitive Disorders</t>
-  </si>
-  <si>
-    <t>Single-cell Transcriptome Identification of UV- and Visible-light-induced Genes in Human Melanocytes in Vivo</t>
-  </si>
-  <si>
-    <t>Treatment of Bullous Pemphigoid With Avdoralimab (IPH5401), an Anti-C5aR1 Monoclonal Antibody</t>
-  </si>
-  <si>
-    <t>IMPACT OF BREATH CONTROL AND RETENTION ON PATIENT STRESS. E.S IN MEDICALLY ASSISTED REPRODUCTION BREATH HOLD TO BREATH BETTER PROGRAM IN MEDICALLY ASSISTED REPRODUCTION</t>
-  </si>
-  <si>
-    <t>Study of the Impact of Time of Vaccination on Response to Influenza Vaccine in Kidney Transplant Recipients -ChronoVAX</t>
-  </si>
-  <si>
-    <t>Ex Vivo Transformation of White Adipose Tissue (WAT) Into Brown Adipose Tissue (BAT) in Morbidly Obese Patients Using the Ex Vivo Adipocyte Expansion (ExAdEx) Approach: Proof of Concept. From White to Brown Adipose Tissue</t>
-  </si>
-  <si>
-    <t>Comparison of a Speech-Language Pathology Assessment Tool for Pragmatic and Discourse Skills for Patients With Schizophrenic Spectrum Disorders and Other Psychotic Disorders</t>
-  </si>
-  <si>
     <t>Comparative Study of 308nm Excimer Lamp and 308nm Excimer Laser in the Treatment of Vitiligo</t>
   </si>
   <si>
@@ -1445,6 +1445,12 @@
     <t>POPS</t>
   </si>
   <si>
+    <t>IFM-01-04</t>
+  </si>
+  <si>
+    <t>Viticell</t>
+  </si>
+  <si>
     <t>09-PP-06</t>
   </si>
   <si>
@@ -1454,10 +1460,7 @@
     <t>VITICELL</t>
   </si>
   <si>
-    <t>Viticell</t>
-  </si>
-  <si>
-    <t>IFM-01-04</t>
+    <t>CELIC-1</t>
   </si>
   <si>
     <t>HIV and COPD</t>
@@ -1466,376 +1469,415 @@
     <t>AADAPT</t>
   </si>
   <si>
-    <t>CELIC-1</t>
-  </si>
-  <si>
     <t>Khoala</t>
   </si>
   <si>
     <t>MELA</t>
   </si>
   <si>
+    <t>VERVE</t>
+  </si>
+  <si>
     <t>TEO FIRST</t>
   </si>
   <si>
-    <t>VERVE</t>
+    <t>SOLEIL SOMMEIL</t>
+  </si>
+  <si>
+    <t>ESSEA</t>
+  </si>
+  <si>
+    <t>FINGER</t>
+  </si>
+  <si>
+    <t>PROPOPAL1</t>
   </si>
   <si>
     <t>Dem@Care</t>
   </si>
   <si>
-    <t>FINGER</t>
-  </si>
-  <si>
     <t>MeMO-RV2</t>
   </si>
   <si>
-    <t>PROPOPAL1</t>
-  </si>
-  <si>
-    <t>ESSEA</t>
-  </si>
-  <si>
-    <t>SOLEIL SOMMEIL</t>
+    <t>CHIMIODIET</t>
+  </si>
+  <si>
+    <t>SARCORSICA</t>
+  </si>
+  <si>
+    <t>SMOFPILOT</t>
+  </si>
+  <si>
+    <t>LICHENVIR</t>
   </si>
   <si>
     <t>InSPEED</t>
   </si>
   <si>
-    <t>SARCORSICA</t>
-  </si>
-  <si>
-    <t>CHIMIODIET</t>
-  </si>
-  <si>
-    <t>LICHENVIR</t>
-  </si>
-  <si>
-    <t>SMOFPILOT</t>
+    <t>AMMAM</t>
   </si>
   <si>
     <t>Calires</t>
   </si>
   <si>
-    <t>AMMAM</t>
+    <t>SafEE</t>
+  </si>
+  <si>
+    <t>SaFEE2</t>
   </si>
   <si>
     <t>FEM</t>
   </si>
   <si>
+    <t>CARBOXHYD</t>
+  </si>
+  <si>
     <t>PHIPA-PEPL</t>
   </si>
   <si>
-    <t>CARBOXHYD</t>
-  </si>
-  <si>
     <t>EMDOGAIM</t>
   </si>
   <si>
-    <t>SafEE</t>
-  </si>
-  <si>
     <t>POLOB</t>
   </si>
   <si>
-    <t>SaFEE2</t>
-  </si>
-  <si>
     <t>MEDOC</t>
   </si>
   <si>
+    <t>ACT PHY HIV</t>
+  </si>
+  <si>
+    <t>Cytokinage</t>
+  </si>
+  <si>
+    <t>CLOXA Continue</t>
+  </si>
+  <si>
+    <t>IRAB2</t>
+  </si>
+  <si>
+    <t>ADAL</t>
+  </si>
+  <si>
     <t>PRAM-KT</t>
   </si>
   <si>
-    <t>ADAL</t>
-  </si>
-  <si>
-    <t>IRAB2</t>
-  </si>
-  <si>
-    <t>CLOXA Continue</t>
-  </si>
-  <si>
-    <t>Cytokinage</t>
-  </si>
-  <si>
     <t>EUHF_PRC</t>
   </si>
   <si>
-    <t>ACT PHY HIV</t>
+    <t>Rapid Vitiligo</t>
+  </si>
+  <si>
+    <t>Dermabrasion</t>
+  </si>
+  <si>
+    <t>TreatPelade</t>
+  </si>
+  <si>
+    <t>STALKLUNG01</t>
+  </si>
+  <si>
+    <t>OSMOSIS</t>
   </si>
   <si>
     <t>AAAsc</t>
   </si>
   <si>
+    <t>POPS3</t>
+  </si>
+  <si>
+    <t>EX-ART</t>
+  </si>
+  <si>
+    <t>MELABLUE</t>
+  </si>
+  <si>
+    <t>PROPOPAL2</t>
+  </si>
+  <si>
+    <t>Xylonut</t>
+  </si>
+  <si>
+    <t>CEFIMPACT</t>
+  </si>
+  <si>
+    <t>CHIMIOKINES</t>
+  </si>
+  <si>
+    <t>Microbiome&amp;Pso</t>
+  </si>
+  <si>
     <t>PIPAL</t>
   </si>
   <si>
-    <t>TreatPelade</t>
-  </si>
-  <si>
-    <t>CEFIMPACT</t>
-  </si>
-  <si>
-    <t>CHIMIOKINES</t>
-  </si>
-  <si>
-    <t>STALKLUNG01</t>
-  </si>
-  <si>
     <t>CV4DIAGNOSIS</t>
   </si>
   <si>
-    <t>Dermabrasion</t>
-  </si>
-  <si>
-    <t>OSMOSIS</t>
-  </si>
-  <si>
-    <t>Xylonut</t>
-  </si>
-  <si>
-    <t>Microbiome&amp;Pso</t>
-  </si>
-  <si>
     <t>Aphtose</t>
   </si>
   <si>
-    <t>PROPOPAL2</t>
-  </si>
-  <si>
-    <t>EX-ART</t>
-  </si>
-  <si>
-    <t>POPS3</t>
-  </si>
-  <si>
-    <t>Rapid Vitiligo</t>
-  </si>
-  <si>
-    <t>MELABLUE</t>
+    <t>RESPINPAD</t>
+  </si>
+  <si>
+    <t>Pyro-TH</t>
+  </si>
+  <si>
+    <t>IBM-RNAseq</t>
+  </si>
+  <si>
+    <t>SOURIS</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>HYPNOCYST</t>
+  </si>
+  <si>
+    <t>Vitisod</t>
+  </si>
+  <si>
+    <t>PyroCal-greffe</t>
+  </si>
+  <si>
+    <t>TA/SARS-Cov2</t>
+  </si>
+  <si>
+    <t>Glisodin</t>
+  </si>
+  <si>
+    <t>Omegobese</t>
+  </si>
+  <si>
+    <t>PROLAC</t>
   </si>
   <si>
     <t>SMTr-METAB</t>
   </si>
   <si>
+    <t>Rehab-HTP</t>
+  </si>
+  <si>
+    <t>PIH</t>
+  </si>
+  <si>
     <t>BACTIDIAG</t>
   </si>
   <si>
     <t>COLOSTRUM</t>
   </si>
   <si>
-    <t>RESPINPAD</t>
+    <t>PICAMEL</t>
   </si>
   <si>
     <t>MUCODERM</t>
   </si>
   <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>HYPNOCYST</t>
-  </si>
-  <si>
-    <t>TA/SARS-Cov2</t>
-  </si>
-  <si>
     <t>PA2PRéaNice</t>
   </si>
   <si>
-    <t>Glisodin</t>
-  </si>
-  <si>
-    <t>Omegobese</t>
-  </si>
-  <si>
-    <t>Rehab-HTP</t>
-  </si>
-  <si>
-    <t>Vitisod</t>
-  </si>
-  <si>
-    <t>PICAMEL</t>
-  </si>
-  <si>
-    <t>SOURIS</t>
-  </si>
-  <si>
-    <t>IBM-RNAseq</t>
-  </si>
-  <si>
-    <t>PyroCal-greffe</t>
-  </si>
-  <si>
-    <t>PIH</t>
-  </si>
-  <si>
     <t>SIVOC</t>
   </si>
   <si>
-    <t>Pyro-TH</t>
-  </si>
-  <si>
-    <t>PROLAC</t>
+    <t>NIRVANA</t>
+  </si>
+  <si>
+    <t>Asymptoleish</t>
+  </si>
+  <si>
+    <t>TERICIS</t>
+  </si>
+  <si>
+    <t>PredictCovid-D</t>
+  </si>
+  <si>
+    <t>Je_Respire</t>
+  </si>
+  <si>
+    <t>FAME1</t>
+  </si>
+  <si>
+    <t>TARMAC-1</t>
+  </si>
+  <si>
+    <t>A4sc</t>
   </si>
   <si>
     <t>Art'Health</t>
   </si>
   <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>PRECOCE</t>
+  </si>
+  <si>
+    <t>PredictCovidT</t>
+  </si>
+  <si>
+    <t>EchoNerf</t>
+  </si>
+  <si>
     <t>Rosac-RF</t>
   </si>
   <si>
     <t>CYTOKINE-FSH</t>
   </si>
   <si>
-    <t>FAME1</t>
-  </si>
-  <si>
-    <t>PredictCovidT</t>
-  </si>
-  <si>
-    <t>NIRVANA</t>
-  </si>
-  <si>
-    <t>AVP</t>
-  </si>
-  <si>
-    <t>EchoNerf</t>
-  </si>
-  <si>
-    <t>Je_Respire</t>
-  </si>
-  <si>
-    <t>TERICIS</t>
-  </si>
-  <si>
-    <t>Asymptoleish</t>
-  </si>
-  <si>
-    <t>PredictCovid-D</t>
-  </si>
-  <si>
-    <t>TARMAC-1</t>
-  </si>
-  <si>
     <t>RADAR</t>
   </si>
   <si>
-    <t>A4sc</t>
-  </si>
-  <si>
-    <t>PRECOCE</t>
+    <t>BIO-APAS</t>
+  </si>
+  <si>
+    <t>CovImmune</t>
+  </si>
+  <si>
+    <t>STOP DEPRESS</t>
+  </si>
+  <si>
+    <t>NHB</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PicoS</t>
+  </si>
+  <si>
+    <t>PSYDOMA</t>
+  </si>
+  <si>
+    <t>PICABAS</t>
+  </si>
+  <si>
+    <t>SLEEPER-ONE</t>
+  </si>
+  <si>
+    <t>SignCov</t>
+  </si>
+  <si>
+    <t>REEDUC-ACP</t>
+  </si>
+  <si>
+    <t>LIL-APP</t>
+  </si>
+  <si>
+    <t>Kligman</t>
   </si>
   <si>
     <t>EliSpot</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>CovImmune</t>
+    <t>Ultra_Evar</t>
+  </si>
+  <si>
+    <t>CoVInnate</t>
+  </si>
+  <si>
+    <t>BSBP</t>
   </si>
   <si>
     <t>PIRD-DRA</t>
   </si>
   <si>
-    <t>PSYDOMA</t>
-  </si>
-  <si>
     <t>SPAM</t>
   </si>
   <si>
-    <t>PICABAS</t>
-  </si>
-  <si>
-    <t>REEDUC-ACP</t>
-  </si>
-  <si>
-    <t>PicoS</t>
-  </si>
-  <si>
-    <t>NHB</t>
-  </si>
-  <si>
-    <t>BSBP</t>
-  </si>
-  <si>
-    <t>SignCov</t>
-  </si>
-  <si>
-    <t>CoVInnate</t>
-  </si>
-  <si>
-    <t>Kligman</t>
-  </si>
-  <si>
-    <t>STOP DEPRESS</t>
-  </si>
-  <si>
-    <t>LIL-APP</t>
-  </si>
-  <si>
     <t>TERIS</t>
   </si>
   <si>
-    <t>SLEEPER-ONE</t>
-  </si>
-  <si>
-    <t>BIO-APAS</t>
-  </si>
-  <si>
-    <t>Ultra_Evar</t>
+    <t>PPC Z-M</t>
   </si>
   <si>
     <t>GLICENTINEDIGE</t>
   </si>
   <si>
-    <t>PPC Z-M</t>
+    <t>TOXCELL</t>
+  </si>
+  <si>
+    <t>OREVAS</t>
+  </si>
+  <si>
+    <t>EXOSOMES</t>
+  </si>
+  <si>
+    <t>NUTRITION</t>
+  </si>
+  <si>
+    <t>APIR-NOY</t>
+  </si>
+  <si>
+    <t>DIVE4NICE</t>
+  </si>
+  <si>
+    <t>REMINISCENCES</t>
   </si>
   <si>
     <t>MESSAGE</t>
   </si>
   <si>
-    <t>NUTRITION</t>
+    <t>B3AV</t>
   </si>
   <si>
     <t>QuantiFERON</t>
   </si>
   <si>
-    <t>TOXCELL</t>
-  </si>
-  <si>
-    <t>APIR-NOY</t>
-  </si>
-  <si>
-    <t>OREVAS</t>
-  </si>
-  <si>
-    <t>EXOSOMES</t>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>Vaccis</t>
   </si>
   <si>
     <t>Predict-UTI</t>
   </si>
   <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t>REMINISCENCES</t>
-  </si>
-  <si>
-    <t>Vaccis</t>
-  </si>
-  <si>
-    <t>DIVE4NICE</t>
+    <t>MICROPROSTK</t>
   </si>
   <si>
     <t>NAUVOLA</t>
   </si>
   <si>
-    <t>MICROPROSTK</t>
-  </si>
-  <si>
-    <t>B3AV</t>
+    <t>SMAII</t>
+  </si>
+  <si>
+    <t>OBADEX</t>
+  </si>
+  <si>
+    <t>NEPHRO-DREPA</t>
+  </si>
+  <si>
+    <t>IPH</t>
+  </si>
+  <si>
+    <t>VEOS</t>
+  </si>
+  <si>
+    <t>PROCOG</t>
+  </si>
+  <si>
+    <t>BHBB</t>
+  </si>
+  <si>
+    <t>melatrans</t>
+  </si>
+  <si>
+    <t>IRMF-SPAT</t>
+  </si>
+  <si>
+    <t>CHRONOVAX</t>
+  </si>
+  <si>
+    <t>MNDActivLife</t>
+  </si>
+  <si>
+    <t>SATRACE</t>
+  </si>
+  <si>
+    <t>SMITIS</t>
+  </si>
+  <si>
+    <t>VITILIMEL</t>
   </si>
   <si>
     <t>EPOC</t>
@@ -1844,73 +1886,31 @@
     <t>RACHYP</t>
   </si>
   <si>
-    <t>VITILIMEL</t>
-  </si>
-  <si>
-    <t>IRMF-SPAT</t>
-  </si>
-  <si>
-    <t>NEPHRO-DREPA</t>
-  </si>
-  <si>
-    <t>SATRACE</t>
-  </si>
-  <si>
-    <t>SMAII</t>
-  </si>
-  <si>
-    <t>SMITIS</t>
-  </si>
-  <si>
-    <t>MNDActivLife</t>
-  </si>
-  <si>
-    <t>PROCOG</t>
-  </si>
-  <si>
-    <t>melatrans</t>
-  </si>
-  <si>
-    <t>IPH</t>
-  </si>
-  <si>
-    <t>BHBB</t>
-  </si>
-  <si>
-    <t>CHRONOVAX</t>
-  </si>
-  <si>
-    <t>OBADEX</t>
-  </si>
-  <si>
-    <t>VEOS</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
-    <t>OTHER</t>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
+    <t>DRUG</t>
   </si>
   <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>DRUG</t>
+    <t>RADIATION</t>
   </si>
   <si>
     <t>GENETIC</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2419,19 +2419,16 @@
       <c r="F7" t="s">
         <v>244</v>
       </c>
-      <c r="G7" t="s">
-        <v>266</v>
-      </c>
       <c r="I7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -2439,16 +2436,19 @@
       <c r="F8" t="s">
         <v>244</v>
       </c>
+      <c r="G8" t="s">
+        <v>266</v>
+      </c>
       <c r="I8" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2460,15 +2460,15 @@
         <v>267</v>
       </c>
       <c r="I9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2480,7 +2480,7 @@
         <v>268</v>
       </c>
       <c r="I10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2516,6 +2516,9 @@
       <c r="F12" t="s">
         <v>247</v>
       </c>
+      <c r="G12" t="s">
+        <v>270</v>
+      </c>
       <c r="I12" t="s">
         <v>627</v>
       </c>
@@ -2534,10 +2537,10 @@
         <v>247</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2554,10 +2557,10 @@
         <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2574,7 +2577,7 @@
         <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I15" t="s">
         <v>625</v>
@@ -2594,7 +2597,7 @@
         <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H16" t="s">
         <v>475</v>
@@ -2617,10 +2620,10 @@
         <v>247</v>
       </c>
       <c r="G17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I17" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2637,7 +2640,7 @@
         <v>247</v>
       </c>
       <c r="G18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I18" t="s">
         <v>628</v>
@@ -2656,11 +2659,8 @@
       <c r="F19" t="s">
         <v>247</v>
       </c>
-      <c r="G19" t="s">
-        <v>276</v>
-      </c>
       <c r="I19" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2699,8 +2699,11 @@
       <c r="G21" t="s">
         <v>278</v>
       </c>
+      <c r="H21" t="s">
+        <v>476</v>
+      </c>
       <c r="I21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2716,14 +2719,11 @@
       <c r="F22" t="s">
         <v>248</v>
       </c>
-      <c r="G22" t="s">
-        <v>279</v>
-      </c>
       <c r="H22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2740,10 +2740,10 @@
         <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2760,10 +2760,10 @@
         <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I24" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2780,13 +2780,10 @@
         <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" t="s">
-        <v>477</v>
+        <v>281</v>
       </c>
       <c r="I25" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2803,13 +2800,10 @@
         <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" t="s">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="I26" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2825,11 +2819,14 @@
       <c r="F27" t="s">
         <v>248</v>
       </c>
+      <c r="G27" t="s">
+        <v>283</v>
+      </c>
       <c r="H27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2848,9 +2845,6 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
-      <c r="H28" t="s">
-        <v>480</v>
-      </c>
       <c r="I28" t="s">
         <v>629</v>
       </c>
@@ -2871,8 +2865,11 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
+      <c r="H29" t="s">
+        <v>479</v>
+      </c>
       <c r="I29" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2891,8 +2888,11 @@
       <c r="G30" t="s">
         <v>286</v>
       </c>
+      <c r="H30" t="s">
+        <v>480</v>
+      </c>
       <c r="I30" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2912,7 +2912,7 @@
         <v>287</v>
       </c>
       <c r="I31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2931,19 +2931,16 @@
       <c r="G32" t="s">
         <v>288</v>
       </c>
-      <c r="H32" t="s">
-        <v>481</v>
-      </c>
       <c r="I32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2955,15 +2952,15 @@
         <v>289</v>
       </c>
       <c r="I33" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -2974,8 +2971,11 @@
       <c r="G34" t="s">
         <v>290</v>
       </c>
+      <c r="H34" t="s">
+        <v>481</v>
+      </c>
       <c r="I34" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2994,16 +2994,19 @@
       <c r="G35" t="s">
         <v>291</v>
       </c>
+      <c r="H35" t="s">
+        <v>482</v>
+      </c>
       <c r="I35" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -3015,15 +3018,15 @@
         <v>292</v>
       </c>
       <c r="I36" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -3034,16 +3037,19 @@
       <c r="G37" t="s">
         <v>293</v>
       </c>
+      <c r="H37" t="s">
+        <v>483</v>
+      </c>
       <c r="I37" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -3055,15 +3061,15 @@
         <v>294</v>
       </c>
       <c r="I38" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -3074,19 +3080,16 @@
       <c r="G39" t="s">
         <v>295</v>
       </c>
-      <c r="H39" t="s">
-        <v>482</v>
-      </c>
       <c r="I39" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -3098,7 +3101,7 @@
         <v>296</v>
       </c>
       <c r="I40" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3118,10 +3121,10 @@
         <v>297</v>
       </c>
       <c r="H41" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I41" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3140,19 +3143,16 @@
       <c r="G42" t="s">
         <v>298</v>
       </c>
-      <c r="H42" t="s">
-        <v>484</v>
-      </c>
       <c r="I42" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -3164,7 +3164,7 @@
         <v>299</v>
       </c>
       <c r="I43" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3183,8 +3183,11 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
+      <c r="H44" t="s">
+        <v>485</v>
+      </c>
       <c r="I44" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3203,8 +3206,11 @@
       <c r="G45" t="s">
         <v>301</v>
       </c>
+      <c r="H45" t="s">
+        <v>486</v>
+      </c>
       <c r="I45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3223,19 +3229,16 @@
       <c r="G46" t="s">
         <v>302</v>
       </c>
-      <c r="H46" t="s">
-        <v>485</v>
-      </c>
       <c r="I46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -3243,14 +3246,8 @@
       <c r="F47" t="s">
         <v>250</v>
       </c>
-      <c r="G47" t="s">
-        <v>303</v>
-      </c>
-      <c r="H47" t="s">
-        <v>486</v>
-      </c>
       <c r="I47" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3265,6 +3262,9 @@
       </c>
       <c r="F48" t="s">
         <v>250</v>
+      </c>
+      <c r="G48" t="s">
+        <v>303</v>
       </c>
       <c r="I48" t="s">
         <v>623</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -3310,7 +3310,7 @@
         <v>487</v>
       </c>
       <c r="I50" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3330,7 +3330,7 @@
         <v>306</v>
       </c>
       <c r="I51" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3350,7 +3350,7 @@
         <v>307</v>
       </c>
       <c r="I52" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3369,16 +3369,19 @@
       <c r="G53" t="s">
         <v>308</v>
       </c>
+      <c r="H53" t="s">
+        <v>488</v>
+      </c>
       <c r="I53" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
@@ -3390,10 +3393,10 @@
         <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I54" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3409,8 +3412,14 @@
       <c r="F55" t="s">
         <v>251</v>
       </c>
+      <c r="G55" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" t="s">
+        <v>490</v>
+      </c>
       <c r="I55" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3443,11 +3452,8 @@
       <c r="F57" t="s">
         <v>251</v>
       </c>
-      <c r="G57" t="s">
-        <v>310</v>
-      </c>
       <c r="I57" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3467,10 +3473,10 @@
         <v>311</v>
       </c>
       <c r="H58" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I58" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3490,10 +3496,10 @@
         <v>312</v>
       </c>
       <c r="H59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I59" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3513,18 +3519,18 @@
         <v>313</v>
       </c>
       <c r="H60" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I60" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
@@ -3535,11 +3541,8 @@
       <c r="G61" t="s">
         <v>314</v>
       </c>
-      <c r="H61" t="s">
-        <v>492</v>
-      </c>
       <c r="I61" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3558,19 +3561,16 @@
       <c r="G62" t="s">
         <v>315</v>
       </c>
-      <c r="H62" t="s">
-        <v>493</v>
-      </c>
       <c r="I62" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
@@ -3581,8 +3581,11 @@
       <c r="G63" t="s">
         <v>316</v>
       </c>
+      <c r="H63" t="s">
+        <v>494</v>
+      </c>
       <c r="I63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3602,10 +3605,10 @@
         <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I64" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3615,8 +3618,8 @@
       <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s">
-        <v>80</v>
+      <c r="D65" t="s">
+        <v>238</v>
       </c>
       <c r="F65" t="s">
         <v>252</v>
@@ -3625,10 +3628,7 @@
         <v>318</v>
       </c>
       <c r="H65" t="s">
-        <v>495</v>
-      </c>
-      <c r="I65" t="s">
-        <v>626</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3639,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
         <v>252</v>
@@ -3648,18 +3648,18 @@
         <v>319</v>
       </c>
       <c r="I66" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s">
         <v>252</v>
@@ -3667,8 +3667,11 @@
       <c r="G67" t="s">
         <v>320</v>
       </c>
+      <c r="H67" t="s">
+        <v>497</v>
+      </c>
       <c r="I67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3679,7 +3682,7 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
         <v>252</v>
@@ -3687,11 +3690,8 @@
       <c r="G68" t="s">
         <v>321</v>
       </c>
-      <c r="H68" t="s">
-        <v>496</v>
-      </c>
       <c r="I68" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3702,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F69" t="s">
         <v>252</v>
@@ -3710,19 +3710,22 @@
       <c r="G69" t="s">
         <v>322</v>
       </c>
+      <c r="H69" t="s">
+        <v>496</v>
+      </c>
       <c r="I69" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
         <v>252</v>
@@ -3731,10 +3734,10 @@
         <v>323</v>
       </c>
       <c r="H70" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I70" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3744,8 +3747,8 @@
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" t="s">
-        <v>238</v>
+      <c r="C71" t="s">
+        <v>85</v>
       </c>
       <c r="F71" t="s">
         <v>252</v>
@@ -3754,7 +3757,10 @@
         <v>324</v>
       </c>
       <c r="H71" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="I71" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3773,11 +3779,8 @@
       <c r="G72" t="s">
         <v>325</v>
       </c>
-      <c r="H72" t="s">
-        <v>498</v>
-      </c>
       <c r="I72" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3797,18 +3800,18 @@
         <v>326</v>
       </c>
       <c r="H73" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I73" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -3819,19 +3822,16 @@
       <c r="G74" t="s">
         <v>327</v>
       </c>
-      <c r="H74" t="s">
-        <v>500</v>
-      </c>
       <c r="I74" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -3843,7 +3843,7 @@
         <v>328</v>
       </c>
       <c r="I75" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3866,7 +3866,7 @@
         <v>501</v>
       </c>
       <c r="I76" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3882,22 +3882,19 @@
       <c r="F77" t="s">
         <v>253</v>
       </c>
-      <c r="G77" t="s">
-        <v>330</v>
-      </c>
       <c r="H77" t="s">
         <v>502</v>
       </c>
       <c r="I77" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>92</v>
@@ -3906,10 +3903,13 @@
         <v>253</v>
       </c>
       <c r="G78" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="H78" t="s">
+        <v>503</v>
       </c>
       <c r="I78" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3926,10 +3926,10 @@
         <v>253</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H79" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I79" t="s">
         <v>623</v>
@@ -3949,21 +3949,21 @@
         <v>253</v>
       </c>
       <c r="G80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H80" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
@@ -3972,10 +3972,10 @@
         <v>253</v>
       </c>
       <c r="G81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I81" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3992,13 +3992,13 @@
         <v>253</v>
       </c>
       <c r="G82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H82" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4015,10 +4015,7 @@
         <v>253</v>
       </c>
       <c r="G83" t="s">
-        <v>336</v>
-      </c>
-      <c r="H83" t="s">
-        <v>506</v>
+        <v>335</v>
       </c>
       <c r="I83" t="s">
         <v>626</v>
@@ -4037,11 +4034,11 @@
       <c r="F84" t="s">
         <v>253</v>
       </c>
-      <c r="H84" t="s">
-        <v>507</v>
+      <c r="G84" t="s">
+        <v>336</v>
       </c>
       <c r="I84" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4060,8 +4057,11 @@
       <c r="G85" t="s">
         <v>337</v>
       </c>
+      <c r="H85" t="s">
+        <v>507</v>
+      </c>
       <c r="I85" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4080,11 +4080,8 @@
       <c r="G86" t="s">
         <v>338</v>
       </c>
-      <c r="H86" t="s">
-        <v>508</v>
-      </c>
       <c r="I86" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4103,8 +4100,11 @@
       <c r="G87" t="s">
         <v>339</v>
       </c>
+      <c r="H87" t="s">
+        <v>508</v>
+      </c>
       <c r="I87" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4123,16 +4123,19 @@
       <c r="G88" t="s">
         <v>340</v>
       </c>
+      <c r="H88" t="s">
+        <v>509</v>
+      </c>
       <c r="I88" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>103</v>
@@ -4144,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="H89" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I89" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4167,7 +4170,7 @@
         <v>342</v>
       </c>
       <c r="H90" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I90" t="s">
         <v>628</v>
@@ -4190,10 +4193,10 @@
         <v>343</v>
       </c>
       <c r="H91" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I91" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4213,10 +4216,10 @@
         <v>344</v>
       </c>
       <c r="H92" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I92" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4235,11 +4238,8 @@
       <c r="G93" t="s">
         <v>345</v>
       </c>
-      <c r="H93" t="s">
-        <v>513</v>
-      </c>
       <c r="I93" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4259,15 +4259,15 @@
         <v>346</v>
       </c>
       <c r="I94" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
         <v>109</v>
@@ -4282,7 +4282,7 @@
         <v>514</v>
       </c>
       <c r="I95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4301,19 +4301,16 @@
       <c r="G96" t="s">
         <v>348</v>
       </c>
-      <c r="H96" t="s">
-        <v>515</v>
-      </c>
       <c r="I96" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
@@ -4324,8 +4321,11 @@
       <c r="G97" t="s">
         <v>349</v>
       </c>
+      <c r="H97" t="s">
+        <v>515</v>
+      </c>
       <c r="I97" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4344,8 +4344,11 @@
       <c r="G98" t="s">
         <v>350</v>
       </c>
+      <c r="H98" t="s">
+        <v>516</v>
+      </c>
       <c r="I98" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4364,8 +4367,11 @@
       <c r="G99" t="s">
         <v>351</v>
       </c>
+      <c r="H99" t="s">
+        <v>517</v>
+      </c>
       <c r="I99" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4385,10 +4391,10 @@
         <v>352</v>
       </c>
       <c r="H100" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I100" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4407,11 +4413,8 @@
       <c r="G101" t="s">
         <v>353</v>
       </c>
-      <c r="H101" t="s">
-        <v>517</v>
-      </c>
       <c r="I101" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4431,10 +4434,10 @@
         <v>354</v>
       </c>
       <c r="H102" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I102" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4454,10 +4457,10 @@
         <v>355</v>
       </c>
       <c r="H103" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I103" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4477,10 +4480,10 @@
         <v>356</v>
       </c>
       <c r="H104" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I104" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4499,16 +4502,19 @@
       <c r="G105" t="s">
         <v>357</v>
       </c>
+      <c r="H105" t="s">
+        <v>522</v>
+      </c>
       <c r="I105" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>120</v>
@@ -4520,10 +4526,10 @@
         <v>358</v>
       </c>
       <c r="H106" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I106" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4543,10 +4549,10 @@
         <v>359</v>
       </c>
       <c r="H107" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I107" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4566,10 +4572,10 @@
         <v>360</v>
       </c>
       <c r="H108" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I108" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4589,10 +4595,10 @@
         <v>361</v>
       </c>
       <c r="H109" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I109" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4612,18 +4618,18 @@
         <v>362</v>
       </c>
       <c r="H110" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="I110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>125</v>
@@ -4635,21 +4641,21 @@
         <v>363</v>
       </c>
       <c r="H111" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I111" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>239</v>
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
       </c>
       <c r="F112" t="s">
         <v>255</v>
@@ -4657,19 +4663,19 @@
       <c r="G112" t="s">
         <v>364</v>
       </c>
-      <c r="H112" t="s">
-        <v>527</v>
+      <c r="I112" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F113" t="s">
         <v>255</v>
@@ -4678,21 +4684,21 @@
         <v>365</v>
       </c>
       <c r="H113" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F114" t="s">
         <v>255</v>
@@ -4700,11 +4706,8 @@
       <c r="G114" t="s">
         <v>366</v>
       </c>
-      <c r="H114" t="s">
-        <v>529</v>
-      </c>
       <c r="I114" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4715,7 +4718,7 @@
         <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F115" t="s">
         <v>255</v>
@@ -4727,18 +4730,18 @@
         <v>530</v>
       </c>
       <c r="I115" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F116" t="s">
         <v>255</v>
@@ -4750,18 +4753,18 @@
         <v>531</v>
       </c>
       <c r="I116" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" t="s">
-        <v>130</v>
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>239</v>
       </c>
       <c r="F117" t="s">
         <v>255</v>
@@ -4772,9 +4775,6 @@
       <c r="H117" t="s">
         <v>532</v>
       </c>
-      <c r="I117" t="s">
-        <v>627</v>
-      </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -4796,7 +4796,7 @@
         <v>533</v>
       </c>
       <c r="I118" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4816,10 +4816,10 @@
         <v>371</v>
       </c>
       <c r="H119" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="I119" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4838,11 +4838,8 @@
       <c r="G120" t="s">
         <v>372</v>
       </c>
-      <c r="H120" t="s">
-        <v>534</v>
-      </c>
       <c r="I120" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4858,19 +4855,22 @@
       <c r="F121" t="s">
         <v>256</v>
       </c>
+      <c r="G121" t="s">
+        <v>373</v>
+      </c>
       <c r="H121" t="s">
         <v>535</v>
       </c>
       <c r="I121" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
@@ -4879,21 +4879,21 @@
         <v>256</v>
       </c>
       <c r="G122" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H122" t="s">
         <v>536</v>
       </c>
       <c r="I122" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
@@ -4902,13 +4902,13 @@
         <v>256</v>
       </c>
       <c r="G123" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H123" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I123" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4925,10 +4925,10 @@
         <v>256</v>
       </c>
       <c r="G124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H124" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I124" t="s">
         <v>624</v>
@@ -4948,13 +4948,13 @@
         <v>256</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H125" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I125" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4971,13 +4971,13 @@
         <v>256</v>
       </c>
       <c r="G126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H126" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I126" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4994,13 +4994,13 @@
         <v>256</v>
       </c>
       <c r="G127" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I127" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5017,7 +5017,10 @@
         <v>256</v>
       </c>
       <c r="G128" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="H128" t="s">
+        <v>541</v>
       </c>
       <c r="I128" t="s">
         <v>623</v>
@@ -5037,13 +5040,13 @@
         <v>256</v>
       </c>
       <c r="G129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H129" t="s">
         <v>542</v>
       </c>
       <c r="I129" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5060,13 +5063,13 @@
         <v>256</v>
       </c>
       <c r="G130" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H130" t="s">
         <v>543</v>
       </c>
       <c r="I130" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5083,13 +5086,13 @@
         <v>256</v>
       </c>
       <c r="G131" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H131" t="s">
         <v>544</v>
       </c>
       <c r="I131" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5106,21 +5109,21 @@
         <v>256</v>
       </c>
       <c r="G132" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H132" t="s">
         <v>545</v>
       </c>
       <c r="I132" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
@@ -5129,10 +5132,13 @@
         <v>256</v>
       </c>
       <c r="G133" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="H133" t="s">
+        <v>546</v>
       </c>
       <c r="I133" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5149,21 +5155,21 @@
         <v>256</v>
       </c>
       <c r="G134" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I134" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>148</v>
@@ -5172,13 +5178,13 @@
         <v>256</v>
       </c>
       <c r="G135" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H135" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I135" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5194,22 +5200,19 @@
       <c r="F136" t="s">
         <v>256</v>
       </c>
-      <c r="G136" t="s">
-        <v>387</v>
-      </c>
       <c r="H136" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I136" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
@@ -5220,11 +5223,8 @@
       <c r="G137" t="s">
         <v>388</v>
       </c>
-      <c r="H137" t="s">
-        <v>549</v>
-      </c>
       <c r="I137" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5247,15 +5247,15 @@
         <v>550</v>
       </c>
       <c r="I138" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
@@ -5270,7 +5270,7 @@
         <v>551</v>
       </c>
       <c r="I139" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5293,7 +5293,7 @@
         <v>552</v>
       </c>
       <c r="I140" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5316,7 +5316,7 @@
         <v>553</v>
       </c>
       <c r="I141" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5336,15 +5336,15 @@
         <v>393</v>
       </c>
       <c r="I142" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
@@ -5359,7 +5359,7 @@
         <v>554</v>
       </c>
       <c r="I143" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5382,7 +5382,7 @@
         <v>555</v>
       </c>
       <c r="I144" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5405,15 +5405,15 @@
         <v>556</v>
       </c>
       <c r="I145" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
         <v>159</v>
@@ -5428,7 +5428,7 @@
         <v>557</v>
       </c>
       <c r="I146" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5451,7 +5451,7 @@
         <v>558</v>
       </c>
       <c r="I147" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5474,7 +5474,7 @@
         <v>559</v>
       </c>
       <c r="I148" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5520,7 +5520,7 @@
         <v>561</v>
       </c>
       <c r="I150" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5539,11 +5539,8 @@
       <c r="G151" t="s">
         <v>402</v>
       </c>
-      <c r="H151" t="s">
-        <v>562</v>
-      </c>
       <c r="I151" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5562,11 +5559,8 @@
       <c r="G152" t="s">
         <v>403</v>
       </c>
-      <c r="H152" t="s">
-        <v>563</v>
-      </c>
       <c r="I152" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5586,10 +5580,10 @@
         <v>404</v>
       </c>
       <c r="H153" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I153" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5609,10 +5603,10 @@
         <v>405</v>
       </c>
       <c r="H154" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I154" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5632,10 +5626,10 @@
         <v>406</v>
       </c>
       <c r="H155" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I155" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5655,10 +5649,10 @@
         <v>407</v>
       </c>
       <c r="H156" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I156" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5678,10 +5672,10 @@
         <v>408</v>
       </c>
       <c r="H157" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I157" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5700,8 +5694,11 @@
       <c r="G158" t="s">
         <v>409</v>
       </c>
+      <c r="H158" t="s">
+        <v>567</v>
+      </c>
       <c r="I158" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5721,10 +5718,10 @@
         <v>410</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I159" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5743,8 +5740,11 @@
       <c r="G160" t="s">
         <v>411</v>
       </c>
+      <c r="H160" t="s">
+        <v>569</v>
+      </c>
       <c r="I160" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5767,7 +5767,7 @@
         <v>570</v>
       </c>
       <c r="I161" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5777,8 +5777,8 @@
       <c r="B162" t="s">
         <v>14</v>
       </c>
-      <c r="D162" t="s">
-        <v>240</v>
+      <c r="C162" t="s">
+        <v>175</v>
       </c>
       <c r="F162" t="s">
         <v>258</v>
@@ -5789,6 +5789,9 @@
       <c r="H162" t="s">
         <v>571</v>
       </c>
+      <c r="I162" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
@@ -5798,7 +5801,7 @@
         <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F163" t="s">
         <v>258</v>
@@ -5806,11 +5809,8 @@
       <c r="G163" t="s">
         <v>414</v>
       </c>
-      <c r="H163" t="s">
-        <v>572</v>
-      </c>
       <c r="I163" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5821,7 +5821,7 @@
         <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F164" t="s">
         <v>258</v>
@@ -5830,7 +5830,7 @@
         <v>415</v>
       </c>
       <c r="I164" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5841,7 +5841,7 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F165" t="s">
         <v>258</v>
@@ -5849,8 +5849,11 @@
       <c r="G165" t="s">
         <v>416</v>
       </c>
+      <c r="H165" t="s">
+        <v>572</v>
+      </c>
       <c r="I165" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5861,7 +5864,7 @@
         <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F166" t="s">
         <v>258</v>
@@ -5869,11 +5872,8 @@
       <c r="G166" t="s">
         <v>417</v>
       </c>
-      <c r="H166" t="s">
-        <v>573</v>
-      </c>
       <c r="I166" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5884,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F167" t="s">
         <v>258</v>
@@ -5893,10 +5893,10 @@
         <v>418</v>
       </c>
       <c r="H167" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I167" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5906,8 +5906,8 @@
       <c r="B168" t="s">
         <v>14</v>
       </c>
-      <c r="C168" t="s">
-        <v>180</v>
+      <c r="D168" t="s">
+        <v>240</v>
       </c>
       <c r="F168" t="s">
         <v>258</v>
@@ -5915,8 +5915,8 @@
       <c r="G168" t="s">
         <v>419</v>
       </c>
-      <c r="I168" t="s">
-        <v>626</v>
+      <c r="H168" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5939,15 +5939,15 @@
         <v>575</v>
       </c>
       <c r="I169" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
         <v>182</v>
@@ -5962,7 +5962,7 @@
         <v>576</v>
       </c>
       <c r="I170" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5981,19 +5981,16 @@
       <c r="G171" t="s">
         <v>422</v>
       </c>
-      <c r="H171" t="s">
-        <v>577</v>
-      </c>
       <c r="I171" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
         <v>184</v>
@@ -6005,10 +6002,10 @@
         <v>423</v>
       </c>
       <c r="H172" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I172" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6028,10 +6025,10 @@
         <v>424</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I173" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6051,10 +6048,10 @@
         <v>425</v>
       </c>
       <c r="H174" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I174" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6073,8 +6070,11 @@
       <c r="G175" t="s">
         <v>426</v>
       </c>
+      <c r="H175" t="s">
+        <v>580</v>
+      </c>
       <c r="I175" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6093,19 +6093,16 @@
       <c r="G176" t="s">
         <v>427</v>
       </c>
-      <c r="H176" t="s">
-        <v>581</v>
-      </c>
       <c r="I176" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
         <v>189</v>
@@ -6117,10 +6114,10 @@
         <v>428</v>
       </c>
       <c r="H177" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I177" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6140,10 +6137,10 @@
         <v>429</v>
       </c>
       <c r="H178" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I178" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6163,10 +6160,10 @@
         <v>430</v>
       </c>
       <c r="H179" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I179" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6185,16 +6182,19 @@
       <c r="G180" t="s">
         <v>431</v>
       </c>
+      <c r="H180" t="s">
+        <v>584</v>
+      </c>
       <c r="I180" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
         <v>193</v>
@@ -6209,7 +6209,7 @@
         <v>585</v>
       </c>
       <c r="I181" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6228,11 +6228,8 @@
       <c r="G182" t="s">
         <v>433</v>
       </c>
-      <c r="H182" t="s">
-        <v>586</v>
-      </c>
       <c r="I182" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6252,10 +6249,10 @@
         <v>434</v>
       </c>
       <c r="H183" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I183" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6275,10 +6272,10 @@
         <v>435</v>
       </c>
       <c r="H184" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I184" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6298,10 +6295,10 @@
         <v>436</v>
       </c>
       <c r="H185" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I185" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6320,8 +6317,11 @@
       <c r="G186" t="s">
         <v>437</v>
       </c>
+      <c r="H186" t="s">
+        <v>589</v>
+      </c>
       <c r="I186" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6340,11 +6340,8 @@
       <c r="G187" t="s">
         <v>438</v>
       </c>
-      <c r="H187" t="s">
-        <v>590</v>
-      </c>
       <c r="I187" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6364,10 +6361,10 @@
         <v>439</v>
       </c>
       <c r="H188" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I188" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6387,10 +6384,10 @@
         <v>440</v>
       </c>
       <c r="H189" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I189" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6410,10 +6407,10 @@
         <v>441</v>
       </c>
       <c r="H190" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I190" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6433,10 +6430,10 @@
         <v>442</v>
       </c>
       <c r="H191" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I191" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6456,10 +6453,10 @@
         <v>443</v>
       </c>
       <c r="H192" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I192" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6479,10 +6476,10 @@
         <v>444</v>
       </c>
       <c r="H193" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I193" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6502,10 +6499,10 @@
         <v>445</v>
       </c>
       <c r="H194" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I194" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6525,10 +6522,10 @@
         <v>446</v>
       </c>
       <c r="H195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I195" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6548,7 +6545,7 @@
         <v>447</v>
       </c>
       <c r="H196" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I196" t="s">
         <v>623</v>
@@ -6571,10 +6568,10 @@
         <v>448</v>
       </c>
       <c r="H197" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I197" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6594,10 +6591,10 @@
         <v>449</v>
       </c>
       <c r="H198" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I198" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6617,10 +6614,10 @@
         <v>450</v>
       </c>
       <c r="H199" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I199" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6640,10 +6637,10 @@
         <v>451</v>
       </c>
       <c r="H200" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I200" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6663,10 +6660,10 @@
         <v>452</v>
       </c>
       <c r="H201" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I201" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6686,7 +6683,7 @@
         <v>453</v>
       </c>
       <c r="H202" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I202" t="s">
         <v>623</v>
@@ -6708,8 +6705,11 @@
       <c r="G203" t="s">
         <v>454</v>
       </c>
+      <c r="H203" t="s">
+        <v>605</v>
+      </c>
       <c r="I203" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6732,7 +6732,7 @@
         <v>606</v>
       </c>
       <c r="I204" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6755,7 +6755,7 @@
         <v>607</v>
       </c>
       <c r="I205" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6778,7 +6778,7 @@
         <v>608</v>
       </c>
       <c r="I206" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6801,7 +6801,7 @@
         <v>609</v>
       </c>
       <c r="I207" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6824,7 +6824,7 @@
         <v>610</v>
       </c>
       <c r="I208" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6889,11 +6889,8 @@
       <c r="G211" t="s">
         <v>462</v>
       </c>
-      <c r="H211" t="s">
-        <v>613</v>
-      </c>
       <c r="I211" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6912,8 +6909,11 @@
       <c r="G212" t="s">
         <v>463</v>
       </c>
+      <c r="H212" t="s">
+        <v>613</v>
+      </c>
       <c r="I212" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6936,7 +6936,7 @@
         <v>614</v>
       </c>
       <c r="I213" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6959,7 +6959,7 @@
         <v>615</v>
       </c>
       <c r="I214" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7005,7 +7005,7 @@
         <v>617</v>
       </c>
       <c r="I216" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7028,7 +7028,7 @@
         <v>618</v>
       </c>
       <c r="I217" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7051,7 +7051,7 @@
         <v>619</v>
       </c>
       <c r="I218" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7074,7 +7074,7 @@
         <v>620</v>
       </c>
       <c r="I219" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7097,7 +7097,7 @@
         <v>621</v>
       </c>
       <c r="I220" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7120,7 +7120,7 @@
         <v>622</v>
       </c>
       <c r="I221" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7151,35 +7151,35 @@
         <v>473</v>
       </c>
       <c r="I223" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
         <v>236</v>
       </c>
-      <c r="G224" t="s">
-        <v>474</v>
-      </c>
       <c r="I224" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s">
         <v>237</v>
+      </c>
+      <c r="G225" t="s">
+        <v>474</v>
       </c>
       <c r="I225" t="s">
         <v>623</v>

--- a/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
+++ b/publipostage2/05qsjq305/liste_essais_cliniques_identifies_05qsjq305.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="673">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00569361</t>
@@ -79,592 +79,628 @@
     <t>NCT00820144</t>
   </si>
   <si>
+    <t>NCT00821548</t>
+  </si>
+  <si>
     <t>NCT00674869</t>
   </si>
   <si>
-    <t>NCT00821548</t>
-  </si>
-  <si>
     <t>NCT00831402</t>
   </si>
   <si>
+    <t>NCT00823485</t>
+  </si>
+  <si>
     <t>NCT00822250</t>
   </si>
   <si>
-    <t>NCT00823485</t>
-  </si>
-  <si>
     <t>NCT00931567</t>
   </si>
   <si>
+    <t>NCT00831298</t>
+  </si>
+  <si>
     <t>NCT01049659</t>
   </si>
   <si>
+    <t>NCT00559520</t>
+  </si>
+  <si>
+    <t>NCT01221337</t>
+  </si>
+  <si>
+    <t>NCT00830583</t>
+  </si>
+  <si>
+    <t>NCT01087216</t>
+  </si>
+  <si>
     <t>NCT00833274</t>
   </si>
   <si>
-    <t>NCT00559520</t>
-  </si>
-  <si>
-    <t>NCT01221337</t>
-  </si>
-  <si>
-    <t>NCT00830583</t>
-  </si>
-  <si>
-    <t>NCT00831298</t>
-  </si>
-  <si>
     <t>NCT00822224</t>
   </si>
   <si>
-    <t>NCT01087216</t>
+    <t>NCT01049555</t>
+  </si>
+  <si>
+    <t>NCT01384344</t>
   </si>
   <si>
     <t>NCT01235806</t>
   </si>
   <si>
+    <t>NCT00876096</t>
+  </si>
+  <si>
+    <t>NCT01511965</t>
+  </si>
+  <si>
+    <t>NCT01184222</t>
+  </si>
+  <si>
+    <t>NCT01629979</t>
+  </si>
+  <si>
+    <t>NCT01228253</t>
+  </si>
+  <si>
+    <t>NCT02862340</t>
+  </si>
+  <si>
     <t>NCT00733538</t>
   </si>
   <si>
-    <t>NCT01511965</t>
-  </si>
-  <si>
-    <t>NCT01384344</t>
-  </si>
-  <si>
-    <t>NCT02862340</t>
-  </si>
-  <si>
-    <t>NCT01184222</t>
-  </si>
-  <si>
-    <t>NCT00876096</t>
-  </si>
-  <si>
-    <t>NCT01049555</t>
-  </si>
-  <si>
-    <t>NCT01228253</t>
-  </si>
-  <si>
     <t>NCT00554528</t>
   </si>
   <si>
-    <t>NCT01629979</t>
-  </si>
-  <si>
     <t>NCT01374997</t>
   </si>
   <si>
+    <t>NCT01805349</t>
+  </si>
+  <si>
+    <t>NCT01805128</t>
+  </si>
+  <si>
+    <t>NCT01435291</t>
+  </si>
+  <si>
+    <t>NCT00816491</t>
+  </si>
+  <si>
+    <t>NCT00951964</t>
+  </si>
+  <si>
+    <t>NCT01639274</t>
+  </si>
+  <si>
+    <t>NCT01512641</t>
+  </si>
+  <si>
     <t>NCT01556308</t>
   </si>
   <si>
+    <t>NCT01184781</t>
+  </si>
+  <si>
+    <t>NCT00821691</t>
+  </si>
+  <si>
     <t>NCT01834755</t>
   </si>
   <si>
-    <t>NCT00821691</t>
-  </si>
-  <si>
-    <t>NCT01639274</t>
-  </si>
-  <si>
-    <t>NCT00816491</t>
-  </si>
-  <si>
-    <t>NCT01435291</t>
-  </si>
-  <si>
-    <t>NCT01184781</t>
-  </si>
-  <si>
-    <t>NCT01512641</t>
-  </si>
-  <si>
     <t>NCT01850186</t>
   </si>
   <si>
-    <t>NCT01805349</t>
-  </si>
-  <si>
-    <t>NCT01805128</t>
-  </si>
-  <si>
-    <t>NCT00951964</t>
-  </si>
-  <si>
     <t>NCT02570581</t>
   </si>
   <si>
+    <t>NCT01970735</t>
+  </si>
+  <si>
+    <t>NCT01553695</t>
+  </si>
+  <si>
     <t>NCT01798199</t>
   </si>
   <si>
+    <t>NCT01246596</t>
+  </si>
+  <si>
     <t>NCT01573494</t>
   </si>
   <si>
-    <t>NCT01246596</t>
-  </si>
-  <si>
     <t>NCT00886301</t>
   </si>
   <si>
-    <t>NCT01970735</t>
-  </si>
-  <si>
     <t>NCT01815788</t>
   </si>
   <si>
-    <t>NCT01553695</t>
+    <t>NCT02198404</t>
   </si>
   <si>
     <t>NCT02317679</t>
   </si>
   <si>
+    <t>NCT01661660</t>
+  </si>
+  <si>
+    <t>NCT02032979</t>
+  </si>
+  <si>
+    <t>NCT01246648</t>
+  </si>
+  <si>
+    <t>NCT02176629</t>
+  </si>
+  <si>
+    <t>NCT01230203</t>
+  </si>
+  <si>
+    <t>NCT01866878</t>
+  </si>
+  <si>
+    <t>NCT01840007</t>
+  </si>
+  <si>
+    <t>NCT02594020</t>
+  </si>
+  <si>
     <t>NCT02829892</t>
   </si>
   <si>
-    <t>NCT01230203</t>
-  </si>
-  <si>
-    <t>NCT01866878</t>
-  </si>
-  <si>
-    <t>NCT02594020</t>
-  </si>
-  <si>
-    <t>NCT01246648</t>
-  </si>
-  <si>
-    <t>NCT02198404</t>
-  </si>
-  <si>
-    <t>NCT01661660</t>
-  </si>
-  <si>
-    <t>NCT02176629</t>
-  </si>
-  <si>
-    <t>NCT02032979</t>
-  </si>
-  <si>
-    <t>NCT01840007</t>
+    <t>NCT02011009</t>
+  </si>
+  <si>
+    <t>NCT02008643</t>
+  </si>
+  <si>
+    <t>NCT01538342</t>
+  </si>
+  <si>
+    <t>NCT02486185</t>
   </si>
   <si>
     <t>NCT01143285</t>
   </si>
   <si>
-    <t>NCT02486185</t>
+    <t>NCT01954368</t>
+  </si>
+  <si>
+    <t>NCT02820285</t>
   </si>
   <si>
     <t>NCT01544725</t>
   </si>
   <si>
+    <t>NCT02561858</t>
+  </si>
+  <si>
     <t>NCT02276573</t>
   </si>
   <si>
-    <t>NCT02561858</t>
+    <t>NCT02133222</t>
   </si>
   <si>
     <t>NCT02539316</t>
   </si>
   <si>
-    <t>NCT01954368</t>
-  </si>
-  <si>
-    <t>NCT02133222</t>
-  </si>
-  <si>
-    <t>NCT02008643</t>
-  </si>
-  <si>
-    <t>NCT02011009</t>
-  </si>
-  <si>
-    <t>NCT01538342</t>
-  </si>
-  <si>
-    <t>NCT02820285</t>
+    <t>NCT01969968</t>
+  </si>
+  <si>
+    <t>NCT02834156</t>
+  </si>
+  <si>
+    <t>NCT02432534</t>
+  </si>
+  <si>
+    <t>NCT02527551</t>
+  </si>
+  <si>
+    <t>NCT02052583</t>
+  </si>
+  <si>
+    <t>NCT02007928</t>
+  </si>
+  <si>
+    <t>NCT01807169</t>
+  </si>
+  <si>
+    <t>NCT01338389</t>
+  </si>
+  <si>
+    <t>NCT02518243</t>
+  </si>
+  <si>
+    <t>NCT01870960</t>
   </si>
   <si>
     <t>NCT02288221</t>
   </si>
   <si>
-    <t>NCT02518243</t>
-  </si>
-  <si>
-    <t>NCT02527551</t>
-  </si>
-  <si>
-    <t>NCT02052583</t>
-  </si>
-  <si>
-    <t>NCT02834156</t>
-  </si>
-  <si>
-    <t>NCT02007928</t>
-  </si>
-  <si>
-    <t>NCT01870960</t>
-  </si>
-  <si>
-    <t>NCT01338389</t>
-  </si>
-  <si>
-    <t>NCT02432534</t>
-  </si>
-  <si>
-    <t>NCT01969968</t>
-  </si>
-  <si>
     <t>NCT02108665</t>
   </si>
   <si>
-    <t>NCT01807169</t>
+    <t>NCT01805362</t>
   </si>
   <si>
     <t>NCT03124914</t>
   </si>
   <si>
+    <t>NCT01776385</t>
+  </si>
+  <si>
     <t>NCT02660723</t>
   </si>
   <si>
     <t>NCT03246360</t>
   </si>
   <si>
-    <t>NCT01805362</t>
+    <t>NCT03179176</t>
+  </si>
+  <si>
+    <t>NCT02494115</t>
+  </si>
+  <si>
+    <t>NCT00909805</t>
+  </si>
+  <si>
+    <t>NCT01897961</t>
   </si>
   <si>
     <t>NCT02557464</t>
   </si>
   <si>
-    <t>NCT02494115</t>
-  </si>
-  <si>
-    <t>NCT00909805</t>
-  </si>
-  <si>
-    <t>NCT01897961</t>
-  </si>
-  <si>
-    <t>NCT01776385</t>
-  </si>
-  <si>
-    <t>NCT03179176</t>
+    <t>NCT03270358</t>
+  </si>
+  <si>
+    <t>NCT02022059</t>
+  </si>
+  <si>
+    <t>NCT02734511</t>
+  </si>
+  <si>
+    <t>NCT01089465</t>
   </si>
   <si>
     <t>NCT03036995</t>
   </si>
   <si>
+    <t>NCT04377217</t>
+  </si>
+  <si>
     <t>NCT02660320</t>
   </si>
   <si>
     <t>NCT02557074</t>
   </si>
   <si>
-    <t>NCT01089465</t>
-  </si>
-  <si>
     <t>NCT02372448</t>
   </si>
   <si>
-    <t>NCT03270358</t>
+    <t>NCT02746718</t>
+  </si>
+  <si>
+    <t>NCT03179384</t>
+  </si>
+  <si>
+    <t>NCT02049827</t>
+  </si>
+  <si>
+    <t>NCT02830620</t>
+  </si>
+  <si>
+    <t>NCT03520738</t>
+  </si>
+  <si>
+    <t>NCT03584360</t>
   </si>
   <si>
     <t>NCT03437122</t>
   </si>
   <si>
-    <t>NCT02746718</t>
+    <t>NCT03877445</t>
   </si>
   <si>
     <t>NCT03167502</t>
   </si>
   <si>
-    <t>NCT03877445</t>
-  </si>
-  <si>
-    <t>NCT02734511</t>
-  </si>
-  <si>
-    <t>NCT02022059</t>
-  </si>
-  <si>
-    <t>NCT03179384</t>
-  </si>
-  <si>
-    <t>NCT02830620</t>
-  </si>
-  <si>
-    <t>NCT02049827</t>
-  </si>
-  <si>
-    <t>NCT03584360</t>
-  </si>
-  <si>
     <t>NCT03503110</t>
   </si>
   <si>
-    <t>NCT03520738</t>
-  </si>
-  <si>
-    <t>NCT04377217</t>
+    <t>NCT03941808</t>
+  </si>
+  <si>
+    <t>NCT02754375</t>
+  </si>
+  <si>
+    <t>NCT03462238</t>
+  </si>
+  <si>
+    <t>NCT02199145</t>
+  </si>
+  <si>
+    <t>NCT03299335</t>
+  </si>
+  <si>
+    <t>NCT03162016</t>
+  </si>
+  <si>
+    <t>NCT02723721</t>
+  </si>
+  <si>
+    <t>NCT02789605</t>
+  </si>
+  <si>
+    <t>NCT04427878</t>
+  </si>
+  <si>
+    <t>NCT02500693</t>
+  </si>
+  <si>
+    <t>NCT03290261</t>
+  </si>
+  <si>
+    <t>NCT03576859</t>
+  </si>
+  <si>
+    <t>NCT02768948</t>
+  </si>
+  <si>
+    <t>NCT03325452</t>
+  </si>
+  <si>
+    <t>NCT02721134</t>
+  </si>
+  <si>
+    <t>NCT02650167</t>
+  </si>
+  <si>
+    <t>NCT03404492</t>
   </si>
   <si>
     <t>NCT03607032</t>
   </si>
   <si>
-    <t>NCT03576859</t>
+    <t>NCT03006016</t>
+  </si>
+  <si>
+    <t>NCT03783494</t>
+  </si>
+  <si>
+    <t>NCT03878433</t>
+  </si>
+  <si>
+    <t>NCT01787929</t>
+  </si>
+  <si>
+    <t>NCT03171844</t>
+  </si>
+  <si>
+    <t>NCT02531581</t>
   </si>
   <si>
     <t>NCT03216252</t>
   </si>
   <si>
-    <t>NCT03299335</t>
-  </si>
-  <si>
-    <t>NCT02199145</t>
-  </si>
-  <si>
-    <t>NCT02789605</t>
-  </si>
-  <si>
-    <t>NCT02500693</t>
-  </si>
-  <si>
-    <t>NCT03290261</t>
-  </si>
-  <si>
-    <t>NCT03941808</t>
-  </si>
-  <si>
-    <t>NCT03462238</t>
-  </si>
-  <si>
-    <t>NCT04427878</t>
-  </si>
-  <si>
-    <t>NCT03878433</t>
-  </si>
-  <si>
-    <t>NCT03006016</t>
-  </si>
-  <si>
-    <t>NCT03325452</t>
-  </si>
-  <si>
-    <t>NCT02754375</t>
-  </si>
-  <si>
-    <t>NCT03404492</t>
-  </si>
-  <si>
-    <t>NCT01787929</t>
-  </si>
-  <si>
-    <t>NCT02721134</t>
-  </si>
-  <si>
-    <t>NCT02650167</t>
-  </si>
-  <si>
-    <t>NCT02531581</t>
-  </si>
-  <si>
-    <t>NCT02723721</t>
-  </si>
-  <si>
-    <t>NCT03162016</t>
-  </si>
-  <si>
-    <t>NCT03171844</t>
-  </si>
-  <si>
-    <t>NCT03783494</t>
-  </si>
-  <si>
-    <t>NCT02768948</t>
+    <t>NCT02401581</t>
   </si>
   <si>
     <t>NCT02799901</t>
   </si>
   <si>
+    <t>NCT04573712</t>
+  </si>
+  <si>
+    <t>NCT03630562</t>
+  </si>
+  <si>
+    <t>NCT02768935</t>
+  </si>
+  <si>
+    <t>NCT04694456</t>
+  </si>
+  <si>
+    <t>NCT03175874</t>
+  </si>
+  <si>
+    <t>NCT02587195</t>
+  </si>
+  <si>
+    <t>NCT04371510</t>
+  </si>
+  <si>
     <t>NCT03303898</t>
   </si>
   <si>
-    <t>NCT02587195</t>
-  </si>
-  <si>
-    <t>NCT04371510</t>
+    <t>NCT04369456</t>
+  </si>
+  <si>
+    <t>NCT04204291</t>
+  </si>
+  <si>
+    <t>NCT04142489</t>
+  </si>
+  <si>
+    <t>NCT02728817</t>
   </si>
   <si>
     <t>NCT04635358</t>
   </si>
   <si>
-    <t>NCT04573712</t>
-  </si>
-  <si>
-    <t>NCT03630562</t>
-  </si>
-  <si>
-    <t>NCT04204291</t>
-  </si>
-  <si>
-    <t>NCT04142489</t>
-  </si>
-  <si>
-    <t>NCT02768935</t>
+    <t>NCT02204254</t>
+  </si>
+  <si>
+    <t>NCT03008733</t>
   </si>
   <si>
     <t>NCT04570813</t>
   </si>
   <si>
-    <t>NCT03175874</t>
-  </si>
-  <si>
-    <t>NCT02401581</t>
-  </si>
-  <si>
-    <t>NCT04369456</t>
-  </si>
-  <si>
-    <t>NCT03008733</t>
-  </si>
-  <si>
-    <t>NCT02204254</t>
-  </si>
-  <si>
-    <t>NCT04694456</t>
-  </si>
-  <si>
-    <t>NCT02728817</t>
+    <t>NCT04573985</t>
+  </si>
+  <si>
+    <t>NCT04152421</t>
+  </si>
+  <si>
+    <t>NCT04355351</t>
+  </si>
+  <si>
+    <t>NCT04566315</t>
+  </si>
+  <si>
+    <t>NCT04629924</t>
+  </si>
+  <si>
+    <t>NCT02690402</t>
+  </si>
+  <si>
+    <t>NCT04196543</t>
+  </si>
+  <si>
+    <t>NCT03493230</t>
+  </si>
+  <si>
+    <t>NCT04934033</t>
+  </si>
+  <si>
+    <t>NCT05199207</t>
+  </si>
+  <si>
+    <t>NCT04829578</t>
+  </si>
+  <si>
+    <t>NCT04106128</t>
+  </si>
+  <si>
+    <t>NCT03122652</t>
+  </si>
+  <si>
+    <t>NCT03546166</t>
+  </si>
+  <si>
+    <t>NCT03386760</t>
+  </si>
+  <si>
+    <t>NCT04225182</t>
+  </si>
+  <si>
+    <t>NCT04573829</t>
+  </si>
+  <si>
+    <t>NCT04806022</t>
+  </si>
+  <si>
+    <t>NCT04041089</t>
+  </si>
+  <si>
+    <t>NCT04497272</t>
+  </si>
+  <si>
+    <t>NCT04385017</t>
+  </si>
+  <si>
+    <t>NCT05119413</t>
+  </si>
+  <si>
+    <t>NCT04614519</t>
   </si>
   <si>
     <t>NCT04080063</t>
   </si>
   <si>
-    <t>NCT04355351</t>
-  </si>
-  <si>
-    <t>NCT02690402</t>
-  </si>
-  <si>
-    <t>NCT04829578</t>
-  </si>
-  <si>
-    <t>NCT04152421</t>
-  </si>
-  <si>
-    <t>NCT04566315</t>
-  </si>
-  <si>
-    <t>NCT04934033</t>
-  </si>
-  <si>
-    <t>NCT03386760</t>
-  </si>
-  <si>
-    <t>NCT04573829</t>
-  </si>
-  <si>
-    <t>NCT04225182</t>
-  </si>
-  <si>
-    <t>NCT03546166</t>
-  </si>
-  <si>
-    <t>NCT04629924</t>
-  </si>
-  <si>
-    <t>NCT04497272</t>
-  </si>
-  <si>
-    <t>NCT04041089</t>
-  </si>
-  <si>
-    <t>NCT04806022</t>
-  </si>
-  <si>
-    <t>NCT04614519</t>
-  </si>
-  <si>
-    <t>NCT05119413</t>
-  </si>
-  <si>
     <t>NCT04418206</t>
   </si>
   <si>
-    <t>NCT04196543</t>
-  </si>
-  <si>
-    <t>NCT04385017</t>
-  </si>
-  <si>
-    <t>NCT04573985</t>
-  </si>
-  <si>
     <t>NCT04983836</t>
   </si>
   <si>
-    <t>NCT04106128</t>
-  </si>
-  <si>
-    <t>NCT05199207</t>
-  </si>
-  <si>
-    <t>NCT03122652</t>
-  </si>
-  <si>
     <t>NCT02903290</t>
   </si>
   <si>
+    <t>NCT03498963</t>
+  </si>
+  <si>
     <t>NCT03296709</t>
   </si>
   <si>
+    <t>NCT03354741</t>
+  </si>
+  <si>
+    <t>NCT04442594</t>
+  </si>
+  <si>
     <t>NCT03671928</t>
   </si>
   <si>
+    <t>NCT04842773</t>
+  </si>
+  <si>
+    <t>NCT03947515</t>
+  </si>
+  <si>
+    <t>NCT03819712</t>
+  </si>
+  <si>
+    <t>NCT04074642</t>
+  </si>
+  <si>
+    <t>NCT02310451</t>
+  </si>
+  <si>
+    <t>NCT05292703</t>
+  </si>
+  <si>
     <t>NCT04825600</t>
   </si>
   <si>
-    <t>NCT05292703</t>
-  </si>
-  <si>
-    <t>NCT02310451</t>
+    <t>NCT04823039</t>
+  </si>
+  <si>
+    <t>NCT02408822</t>
+  </si>
+  <si>
+    <t>NCT04343924</t>
   </si>
   <si>
     <t>NCT03829072</t>
   </si>
   <si>
-    <t>NCT03498963</t>
-  </si>
-  <si>
-    <t>NCT04343924</t>
-  </si>
-  <si>
-    <t>NCT04442594</t>
-  </si>
-  <si>
-    <t>NCT04842773</t>
-  </si>
-  <si>
-    <t>NCT02408822</t>
-  </si>
-  <si>
     <t>NCT03572842</t>
   </si>
   <si>
-    <t>NCT04074642</t>
-  </si>
-  <si>
-    <t>NCT04823039</t>
-  </si>
-  <si>
-    <t>NCT03819712</t>
-  </si>
-  <si>
-    <t>NCT03947515</t>
-  </si>
-  <si>
-    <t>NCT03354741</t>
+    <t>NCT05276882</t>
+  </si>
+  <si>
+    <t>NCT06136416</t>
+  </si>
+  <si>
+    <t>NCT04907929</t>
+  </si>
+  <si>
+    <t>NCT06357208</t>
+  </si>
+  <si>
+    <t>NCT05211037</t>
+  </si>
+  <si>
+    <t>NCT05783349</t>
+  </si>
+  <si>
+    <t>NCT04141371</t>
+  </si>
+  <si>
+    <t>NCT03286322</t>
+  </si>
+  <si>
+    <t>NCT04959123</t>
+  </si>
+  <si>
+    <t>NCT05764863</t>
+  </si>
+  <si>
+    <t>NCT06808581</t>
   </si>
   <si>
     <t>NCT04159987</t>
@@ -673,49 +709,49 @@
     <t>NCT05843747</t>
   </si>
   <si>
-    <t>NCT05211037</t>
+    <t>NCT05395299</t>
+  </si>
+  <si>
+    <t>NCT05051384</t>
+  </si>
+  <si>
+    <t>NCT04529993</t>
+  </si>
+  <si>
+    <t>NCT05780606</t>
+  </si>
+  <si>
+    <t>NCT05742893</t>
+  </si>
+  <si>
+    <t>NCT04175223</t>
   </si>
   <si>
     <t>NCT04563923</t>
   </si>
   <si>
-    <t>NCT05742893</t>
-  </si>
-  <si>
-    <t>NCT04175223</t>
-  </si>
-  <si>
-    <t>NCT05783349</t>
-  </si>
-  <si>
-    <t>NCT06357208</t>
-  </si>
-  <si>
-    <t>NCT05780606</t>
-  </si>
-  <si>
-    <t>NCT05764863</t>
+    <t>NCT04920162</t>
   </si>
   <si>
     <t>NCT06088563</t>
   </si>
   <si>
-    <t>NCT06136416</t>
-  </si>
-  <si>
-    <t>NCT03286322</t>
-  </si>
-  <si>
-    <t>NCT05051384</t>
-  </si>
-  <si>
-    <t>NCT04920162</t>
-  </si>
-  <si>
-    <t>NCT04907929</t>
-  </si>
-  <si>
-    <t>NCT05276882</t>
+    <t>NCT05307133</t>
+  </si>
+  <si>
+    <t>NCT05872477</t>
+  </si>
+  <si>
+    <t>NCT04835831</t>
+  </si>
+  <si>
+    <t>NCT03460665</t>
+  </si>
+  <si>
+    <t>NCT03172299</t>
+  </si>
+  <si>
+    <t>NCT02592226</t>
   </si>
   <si>
     <t>NCT02180932</t>
@@ -724,21 +760,30 @@
     <t>NCT00696358</t>
   </si>
   <si>
-    <t>NCT02592226</t>
-  </si>
-  <si>
     <t>NCT00821925</t>
   </si>
   <si>
+    <t>2010-024322-38</t>
+  </si>
+  <si>
+    <t>2013-003308-38</t>
+  </si>
+  <si>
     <t>2015-001614-94</t>
   </si>
   <si>
+    <t>2012-005365-12</t>
+  </si>
+  <si>
     <t>2015-003944-38</t>
   </si>
   <si>
     <t>2020-002912-34</t>
   </si>
   <si>
+    <t>2018-004300-19</t>
+  </si>
+  <si>
     <t>2005</t>
   </si>
   <si>
@@ -799,6 +844,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Nasal Epithelium Gene Expression Profiling in Child Respiratory Allergic</t>
   </si>
   <si>
@@ -817,108 +865,114 @@
     <t>Assessment of Thyroid Function Throughout Pregnancy With and Without Iodine Supplementation</t>
   </si>
   <si>
+    <t>Clinical Efficacy of In-situ Thrombolysis in Case of Intraventricular Haemorraghia by Aneurysm Rupture</t>
+  </si>
+  <si>
     <t>Clinical and Biological Study of Sub-pigmentation During Infantile Cystinosis</t>
   </si>
   <si>
-    <t>Clinical Efficacy of In-situ Thrombolysis in Case of Intraventricular Haemorraghia by Aneurysm Rupture</t>
-  </si>
-  <si>
     <t>Evaluation of the Efficiency of Autologous Platelet Gel (Platelet Rich Fibrin) Obtained From Own Patients' Blood Versus Vaselitulle in Dupuytren's Disease Postoperative Wound Healing</t>
   </si>
   <si>
+    <t>Assessment of Sleep Disturbance in Alzheimer Disease</t>
+  </si>
+  <si>
     <t>Effect of Iodine Supplementation and During Pregnancy on Neuropsychological Development of Children Assessed at 2 Years Old</t>
   </si>
   <si>
+    <t>The Role of Preoperative Oral Immunonutrition in Major Vascular Surgery</t>
+  </si>
+  <si>
+    <t>Comparative Study of Two Haemodialyzers "VIE 2.1" Versus "EVODIAL2.2" in a Strategy of Heparin-free Haemodialysis (HFH)</t>
+  </si>
+  <si>
+    <t>Pompe Prevalence Study in Patients With Muscle Weakness Without Diagnosis</t>
+  </si>
+  <si>
     <t>Evaluation of Apathy Using Attentional Reaction Test in Neurodegenerative Diseases</t>
   </si>
   <si>
-    <t>The Role of Preoperative Oral Immunonutrition in Major Vascular Surgery</t>
-  </si>
-  <si>
-    <t>Comparative Study of Two Haemodialyzers "VIE 2.1" Versus "EVODIAL2.2" in a Strategy of Heparin-free Haemodialysis (HFH)</t>
-  </si>
-  <si>
-    <t>Pompe Prevalence Study in Patients With Muscle Weakness Without Diagnosis</t>
-  </si>
-  <si>
-    <t>Assessment of Sleep Disturbance in Alzheimer Disease</t>
-  </si>
-  <si>
     <t>Use of MEOPA for Elderly With Dementia.</t>
   </si>
   <si>
+    <t>Contribution of Actigraphy and Recognition Video in Apathy Assessment of Alzheimer's Disease : Experimental Research</t>
+  </si>
+  <si>
+    <t>Ecological Assessment of Apathy in Alzheimer's Disease and in Control Subjects: Interest on Video Recognition and Actigraphy</t>
+  </si>
+  <si>
     <t>Contribution of ESAOTE™ Low Field MRI for Diagnosis of Scaphoid Fractures.</t>
   </si>
   <si>
+    <t>Development and Validation of Fungal Extraction and Real -Time PCR Assay for the Diagnosis of Medically Important Fungal Infections in Blood Samples.</t>
+  </si>
+  <si>
+    <t>EFFICACY EVALUATION OF GREAT OCCIPITAL NERVE ELECTRICAL STIMULATION ON REBOUND HEADACHE AFTER WITHDRAWAL IN MEDICATION OVERUSE HEADACHE OCCURING IN MIGRAINE PATIENTS (SENGO-CAM Study)</t>
+  </si>
+  <si>
+    <t>Efficacy and Tolerance of Transplantation of Harvested Epidermal Cells and Narrow-Band UVB in Vitiligo</t>
+  </si>
+  <si>
+    <t>Effects of Treatment of Post-traumatic Stress Disorder on Reduced Recall for Fear Extinction</t>
+  </si>
+  <si>
+    <t>Study of the Involvement of 15q11 - q13 Chromosome Region and CYFIP1 Gene in Autism. Attempt a Genotype-phenotype Correlation</t>
+  </si>
+  <si>
     <t>Stage I Multiple Myeloma Treatment</t>
   </si>
   <si>
-    <t>Ecological Assessment of Apathy in Alzheimer's Disease and in Control Subjects: Interest on Video Recognition and Actigraphy</t>
-  </si>
-  <si>
-    <t>Study of the Involvement of 15q11 - q13 Chromosome Region and CYFIP1 Gene in Autism. Attempt a Genotype-phenotype Correlation</t>
-  </si>
-  <si>
-    <t>EFFICACY EVALUATION OF GREAT OCCIPITAL NERVE ELECTRICAL STIMULATION ON REBOUND HEADACHE AFTER WITHDRAWAL IN MEDICATION OVERUSE HEADACHE OCCURING IN MIGRAINE PATIENTS (SENGO-CAM Study)</t>
-  </si>
-  <si>
-    <t>Development and Validation of Fungal Extraction and Real -Time PCR Assay for the Diagnosis of Medically Important Fungal Infections in Blood Samples.</t>
-  </si>
-  <si>
-    <t>Contribution of Actigraphy and Recognition Video in Apathy Assessment of Alzheimer's Disease : Experimental Research</t>
-  </si>
-  <si>
-    <t>Effects of Treatment of Post-traumatic Stress Disorder on Reduced Recall for Fear Extinction</t>
-  </si>
-  <si>
     <t>Arthroplasty Versus Fusion in Anterior Cervical Surgery: Prospective Study of the Impact on the Adjacent Level</t>
   </si>
   <si>
-    <t>Efficacy and Tolerance of Transplantation of Harvested Epidermal Cells and Narrow-Band UVB in Vitiligo</t>
-  </si>
-  <si>
     <t>Screening Project for a Detection of Fabry Disease in Chronic Renal Failure Patients in Area PACA</t>
   </si>
   <si>
+    <t>Study of the Association Between Digital Osteoarthritis and Lower Limb Osteoarthritis (Knee and Hip) in Terms of Severity and Evolution - Khoala Group Ancillary Project / Cohort Khoala</t>
+  </si>
+  <si>
+    <t>EXPLORATION OF THE SOCIAL COGNITION IN ADOLESCENTS WITH A Dissociative Disorder OR AUTISM SPECTRUM</t>
+  </si>
+  <si>
+    <t>Prospective Pharmacokinetic and Pharmacogenetic Analysis of Advagraf After Transplantation</t>
+  </si>
+  <si>
+    <t>Comparaison de la Chromo Endoscopie Virtuelle FICE (Fujinon Intelligent Chromoendoscopy) Avec la Coloscopie Conventionnelle Dans la détection de la Dysplasie Chez Patients Porteurs de Recto Colite ulcéro hémorragique (RCH).</t>
+  </si>
+  <si>
+    <t>Treatment of Epidermolysis Bullosa Dystrophica by Polyphenon E (Epigallocatechin 3 Gallate)</t>
+  </si>
+  <si>
+    <t>Prevalence of Chronic Obstructive Pulmonary Disease in HIV-patient Population</t>
+  </si>
+  <si>
+    <t>Prevalence of Dissociative Disorders in Children in a Population Supported in the Medico-social and Health Structures in Provence Alpes Cote d'Azur</t>
+  </si>
+  <si>
     <t>Study of Inflammatory Mechanisms in Epidermolysis Bullosa Simplex- Dowling Meara</t>
   </si>
   <si>
+    <t>Prospective Comparison of Capsule Endoscopy Pillcam II™ Versus Colonoscopy for the Detection of Adenomatous Polyps and Cancer in a High Risk Population</t>
+  </si>
+  <si>
+    <t>Action of the Amantadine on Post Stroke Aphasic Patients' Language and Communication</t>
+  </si>
+  <si>
     <t>Physical and Psychological Evaluation of Patients Reaching End Stage Renal Disease : Effects on the Choice of Renal Replacement Therapy</t>
   </si>
   <si>
-    <t>Action of the Amantadine on Post Stroke Aphasic Patients' Language and Communication</t>
-  </si>
-  <si>
-    <t>Prevalence of Chronic Obstructive Pulmonary Disease in HIV-patient Population</t>
-  </si>
-  <si>
-    <t>Comparaison de la Chromo Endoscopie Virtuelle FICE (Fujinon Intelligent Chromoendoscopy) Avec la Coloscopie Conventionnelle Dans la détection de la Dysplasie Chez Patients Porteurs de Recto Colite ulcéro hémorragique (RCH).</t>
-  </si>
-  <si>
-    <t>Prospective Pharmacokinetic and Pharmacogenetic Analysis of Advagraf After Transplantation</t>
-  </si>
-  <si>
-    <t>Prospective Comparison of Capsule Endoscopy Pillcam II™ Versus Colonoscopy for the Detection of Adenomatous Polyps and Cancer in a High Risk Population</t>
-  </si>
-  <si>
-    <t>Prevalence of Dissociative Disorders in Children in a Population Supported in the Medico-social and Health Structures in Provence Alpes Cote d'Azur</t>
-  </si>
-  <si>
     <t>Comparative Study of Dual Yellow Laser Versus Stabilized Kilnman Preparation in the Treatment of Melasma</t>
   </si>
   <si>
-    <t>Study of the Association Between Digital Osteoarthritis and Lower Limb Osteoarthritis (Knee and Hip) in Terms of Severity and Evolution - Khoala Group Ancillary Project / Cohort Khoala</t>
-  </si>
-  <si>
-    <t>EXPLORATION OF THE SOCIAL COGNITION IN ADOLESCENTS WITH A Dissociative Disorder OR AUTISM SPECTRUM</t>
-  </si>
-  <si>
-    <t>Treatment of Epidermolysis Bullosa Dystrophica by Polyphenon E (Epigallocatechin 3 Gallate)</t>
-  </si>
-  <si>
     <t>MELA Study - Hedonic Study on the Taste of Drugs Crushed in Food: Observational Study Involving 16 Healthy Volunteers</t>
   </si>
   <si>
+    <t>Clinical, Genetic and Epigenetic Characterization of Patients With FSHD Type 1 and FSHD Type 2</t>
+  </si>
+  <si>
+    <t>Validation of a Clinical Interview for a Diagnosis of ADHD in Adults. Cross-validity of Screening Instruments ADHD in Adults. Estimation of Prevalence in France</t>
+  </si>
+  <si>
     <t>VERVE* PROJECT: Study of the Acceptability of a Virtual Reality System on the Cognitive Stimulation of Patients With Alzheimer's Disease or Related Conditions. (*Vanquishing Apathy Through E-inclusion Using Realistic Virtual Environment)</t>
   </si>
   <si>
@@ -928,461 +982,491 @@
     <t>Fatty Liver and Ectopic Fat in Overweight and Obese Patients</t>
   </si>
   <si>
-    <t>Clinical, Genetic and Epigenetic Characterization of Patients With FSHD Type 1 and FSHD Type 2</t>
-  </si>
-  <si>
     <t>Evaluation of Efficacy and Patient Acceptance of Sound Amplifier Téo First, in Mild and Moderate Presbycusis Patient 60 Years of Age and Older, With no Previous Hearing Aid.</t>
   </si>
   <si>
-    <t>Validation of a Clinical Interview for a Diagnosis of ADHD in Adults. Cross-validity of Screening Instruments ADHD in Adults. Estimation of Prevalence in France</t>
+    <t>Pilot Study of Sedation With Propofol in Refractory Pains Due to Care in Palliative Care Unit</t>
   </si>
   <si>
     <t>Treatment of Port-wine Stains by Bosentan in Addition to Pulsed Dye Laser (PDL) in Children or Young Adults Who Previously Failed to Respond to PDL Alone: a Monocentric Pilot Study</t>
   </si>
   <si>
+    <t>Ecological Assessment of Autonomy and Apathy in Alzheimer Patients at Mild and Moderate Stages, as Welle as in Healthy Control Particpants</t>
+  </si>
+  <si>
+    <t>Neurological and Psychiatric Comorbidities Patients With FSHD 1 and 2</t>
+  </si>
+  <si>
+    <t>Usability of Virtual Reality in Subjects With Mild Cognitive Impairment or Alzheimer's Disease. MeMO-RV2</t>
+  </si>
+  <si>
+    <t>Computed Tomography Scan Versus Color Duplex Ultrasound for Surveillance of Endovascular Repair of Abdominal Aortic Aneurysm. A Prospective Multicenter Study</t>
+  </si>
+  <si>
+    <t>Rehabilitation Protocol for Disorders on Hand Sensitivity in Multiple Sclerosis Patients.</t>
+  </si>
+  <si>
+    <t>Pilot Study Evaluating the Efficacy and Safety of Metformin in Melanoma</t>
+  </si>
+  <si>
     <t>Using Environmental Light Therapy to Improve Sleep and Neuropsychiatric Symptoms in Dementia</t>
   </si>
   <si>
-    <t>Computed Tomography Scan Versus Color Duplex Ultrasound for Surveillance of Endovascular Repair of Abdominal Aortic Aneurysm. A Prospective Multicenter Study</t>
-  </si>
-  <si>
-    <t>Rehabilitation Protocol for Disorders on Hand Sensitivity in Multiple Sclerosis Patients.</t>
-  </si>
-  <si>
-    <t>Pilot Study of Sedation With Propofol in Refractory Pains Due to Care in Palliative Care Unit</t>
-  </si>
-  <si>
-    <t>Ecological Assessment of Autonomy and Apathy in Alzheimer Patients at Mild and Moderate Stages, as Welle as in Healthy Control Particpants</t>
-  </si>
-  <si>
-    <t>Usability of Virtual Reality in Subjects With Mild Cognitive Impairment or Alzheimer's Disease. MeMO-RV2</t>
-  </si>
-  <si>
-    <t>Neurological and Psychiatric Comorbidities Patients With FSHD 1 and 2</t>
-  </si>
-  <si>
-    <t>Pilot Study Evaluating the Efficacy and Safety of Metformin in Melanoma</t>
+    <t>Evaluation of Therapeutic Management in ESBL-infected Patients or Carriers by Providing and Sharing a Free Tool - the "ESBL toolKIT" and Interventional Study of a Prospective Cohort of HIV+ Patients Searching for Possible Sexual Transmission Factors in ESBL (Extended-spectrum ß-lacatamase-producing Bacteria) Carriers</t>
+  </si>
+  <si>
+    <t>Health Related Quality of Life in Children With Food Allergy: Comparison to Healthy Children and Children With Other Chronic Diseases</t>
+  </si>
+  <si>
+    <t>Role of Tyrosine Kinase Lyn and Cleaved Form by Caspases in Psoriasis</t>
+  </si>
+  <si>
+    <t>Evaluation of the SARC-F Questionnaire, a New Screening Tool for Sarcopenia in People 65-year Old and Older in the Community</t>
   </si>
   <si>
     <t>Chimiodiet Study:Impact of Early and Active Nutritional and Dietary Management on grade3 or More Toxicities Induced by Chemotherapy and Targeted Therapies Administered to Patients as First Intention for Non Surgical Metastatic Colorectal Cancer.</t>
   </si>
   <si>
-    <t>Evaluation of the SARC-F Questionnaire, a New Screening Tool for Sarcopenia in People 65-year Old and Older in the Community</t>
+    <t>Acute Severe Traumatic Pain in the ED : Can we Improve Time to Pain-relief With a Single Dose of Intranasal Sufentanil Given at Triage ? A Randomized Double-blinded Placebo Controlled Study (InSPEED Study)</t>
   </si>
   <si>
     <t>Hepatoprotective role of SMOFlipid® used in short-term parenteral nutrition in an Onco-Hematology Pediatric Population, pilot study 
  Etude pilote du rôle hépatoprotecteur des SMOFlipid® en nutrition parentérale de courte durée chez des enfants suivis en Onco-Hématologie.</t>
   </si>
   <si>
+    <t>Characterization of Immune Semaphorin in Non Alcoholic Fatty Liver Disease and NASH</t>
+  </si>
+  <si>
     <t>Ketamine-propofol Versus Ketamine Alone for Procedural Sedation in Adults : a Blinded, Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>Toxicity of Perirenal Fat in Overweight or Obese Subjects: A Pathophysiological Link Between Uric Acid Stones and Renal Ammonium Formation</t>
+  </si>
+  <si>
     <t>Study of Inflammatory Role of Epstein-Barr Virus (EBV) in Atrophic and Erosive Forms of Oral Lichen Planus</t>
   </si>
   <si>
-    <t>Toxicity of Perirenal Fat in Overweight or Obese Subjects: A Pathophysiological Link Between Uric Acid Stones and Renal Ammonium Formation</t>
+    <t>Circulating Cell-free DNA in Metastatic Melanoma Patient: Mutational Analyses in Consecutive Measurement Before and After Chemotherapy.</t>
   </si>
   <si>
     <t>Pilot Study: Hepatoprotective Role of SMOFlipid® Used in Short-term Parenteral Nutrition in an Onco-Hematology Pediatric Population</t>
   </si>
   <si>
-    <t>Acute Severe Traumatic Pain in the ED : Can we Improve Time to Pain-relief With a Single Dose of Intranasal Sufentanil Given at Triage ? A Randomized Double-blinded Placebo Controlled Study (InSPEED Study)</t>
-  </si>
-  <si>
-    <t>Circulating Cell-free DNA in Metastatic Melanoma Patient: Mutational Analyses in Consecutive Measurement Before and After Chemotherapy.</t>
-  </si>
-  <si>
-    <t>Health Related Quality of Life in Children With Food Allergy: Comparison to Healthy Children and Children With Other Chronic Diseases</t>
-  </si>
-  <si>
-    <t>Evaluation of Therapeutic Management in ESBL-infected Patients or Carriers by Providing and Sharing a Free Tool - the "ESBL toolKIT" and Interventional Study of a Prospective Cohort of HIV+ Patients Searching for Possible Sexual Transmission Factors in ESBL (Extended-spectrum ß-lacatamase-producing Bacteria) Carriers</t>
-  </si>
-  <si>
-    <t>Role of Tyrosine Kinase Lyn and Cleaved Form by Caspases in Psoriasis</t>
-  </si>
-  <si>
-    <t>Characterization of Immune Semaphorin in Non Alcoholic Fatty Liver Disease and NASH</t>
+    <t>Lipophilic Organic Polluants and Morbid Obesity: Kinetic of the Release and Impact on the Metabolic Syndrome Before and After Bariatric Surgery</t>
+  </si>
+  <si>
+    <t>Impact Assessment of Positioning on Pain Sensitivity During a Lumbar Puncture in Children</t>
+  </si>
+  <si>
+    <t>Atorvastatin in Active Vitiligo: a Bicentric Prospective Randomized Trial</t>
+  </si>
+  <si>
+    <t>Efficacy of Deep Haptic Massage in Fibromyalgia : Preliminary Study</t>
+  </si>
+  <si>
+    <t>Evaluation de l'oxymétrie cérébrale à Deux Niveaux d'Hypothermie thérapeutique après arrêt Cardiaque Extra-hospitalier</t>
+  </si>
+  <si>
+    <t>Assessment of Incidence of Adverse Events in a Naive Pediatric Population Treated With an (Typical and Atypical) Antipsychotic Drug Over 12 Months Follow-up</t>
+  </si>
+  <si>
+    <t>Recto Colonic Endoscopic Mucosal Resection and Polypectomy Under Clopidogrel: the "MEDOC"Study.</t>
+  </si>
+  <si>
+    <t>Influence of Oral Treatment with Citicoline for the Prevention of Radiation Optic Neuropathy in Patients Treated for Uveal Melanomas with Proton Beam Therapy</t>
+  </si>
+  <si>
+    <t>Maxillary Sinus Floor Augmentation With Bioss® and Enamel Matrix Derivative: Evaluation of Osteogenic Properties</t>
   </si>
   <si>
     <t>SafEE : Safe &amp; Easy Environment at Home for Patients Presenting a Frail Syndrome</t>
   </si>
   <si>
-    <t>Efficacy of Deep Haptic Massage in Fibromyalgia : Preliminary Study</t>
-  </si>
-  <si>
-    <t>Evaluation de l'oxymétrie cérébrale à Deux Niveaux d'Hypothermie thérapeutique après arrêt Cardiaque Extra-hospitalier</t>
-  </si>
-  <si>
-    <t>Impact Assessment of Positioning on Pain Sensitivity During a Lumbar Puncture in Children</t>
-  </si>
-  <si>
-    <t>Assessment of Incidence of Adverse Events in a Naive Pediatric Population Treated With an (Typical and Atypical) Antipsychotic Drug Over 12 Months Follow-up</t>
-  </si>
-  <si>
-    <t>Maxillary Sinus Floor Augmentation With Bioss® and Enamel Matrix Derivative: Evaluation of Osteogenic Properties</t>
-  </si>
-  <si>
-    <t>Influence of Oral Treatment With Citicoline for the Prevention of Radiation Optic Neuropathy in Patients Treated for Uveal Melanomas With Proton Beam Therapy</t>
-  </si>
-  <si>
-    <t>Atorvastatin in Active Vitiligo: a Bicentric Prospective Randomized Trial</t>
-  </si>
-  <si>
-    <t>Lipophilic Organic Polluants and Morbid Obesity: Kinetic of the Release and Impact on the Metabolic Syndrome Before and After Bariatric Surgery</t>
-  </si>
-  <si>
     <t>Magnetic Resonance Imaging Hysterosalpingography Versus Radiographic Hysterosalpingography in Female Infertility</t>
   </si>
   <si>
-    <t>Recto Colonic Endoscopic Mucosal Resection and Polypectomy Under Clopidogrel: the "MEDOC"Study.</t>
+    <t>RAS Blockade at Bedtime Versus on Awakening for the Prevention of Aldosterone Breakthrough</t>
   </si>
   <si>
     <t>Relationship Between Neuromuscular Fatigue, Perceived Tiredness and Level Of Physical Activity of Patients Living With HIV</t>
   </si>
   <si>
+    <t>Detection and Characterization of Circulating Tumor Cells in Patients With Malignant Pleural Mesothelioma: Towards a New Phase in the Understanding of the Natural History of This Cancer?</t>
+  </si>
+  <si>
     <t>To Investigate the Impact of Aging on Cytokine and Chemokine Production by Peripheral Blood Immune Cells</t>
   </si>
   <si>
     <t>Pharmacological Comparison of Continuous and Intermittent Infusions of Cloxacillin During Bone and Joint Infections: a Prospective, Randomized, Open-label, Monocentric Crossover Study.</t>
   </si>
   <si>
-    <t>RAS Blockade at Bedtime Versus on Awakening for the Prevention of Aldosterone Breakthrough</t>
+    <t>Evaluation of the Interest of Ultra-high Frequency Doppler Ultrasound (UFDU) in the Surgical Management of Patients Operated in an Awake Condition for a Cerebral Tumor</t>
+  </si>
+  <si>
+    <t>Comfort Subcutaneous Drainage: a Descriptive Study Among Palliative Care Cancer Patients Presenting Severe Refractory Lower Limbs Lymphedema</t>
+  </si>
+  <si>
+    <t>Interest of 2-octyl-cyanoacrylate (Dermabond®) in Closing Surgical Incisions in Children Before Acquisition of Continence. Randomised, Prospective, Non-inferiority Study.</t>
+  </si>
+  <si>
+    <t>Phospholipase A2 Receptor (PLA2R1) Autoantibodies in Membranous Nephropathy in Kidney Transplantation</t>
   </si>
   <si>
     <t>Identification of Early Semantic Markers of Alzheimer's Disease by Using Eye Tracking in Reading Neutral and Predictable Sentences</t>
   </si>
   <si>
-    <t>Comfort Subcutaneous Drainage: a Descriptive Study Among Palliative Care Cancer Patients Presenting Severe Refractory Lower Limbs Lymphedema</t>
-  </si>
-  <si>
-    <t>Interest of 2-octyl-cyanoacrylate (Dermabond®) in Closing Surgical Incisions in Children Before Acquisition of Continence. Randomised, Prospective, Non-inferiority Study.</t>
-  </si>
-  <si>
-    <t>Phospholipase A2 Receptor (PLA2R1) Autoantibodies in Membranous Nephropathy in Kidney Transplantation</t>
-  </si>
-  <si>
-    <t>Detection and Characterization of Circulating Tumor Cells in Patients With Malignant Pleural Mesothelioma: Towards a New Phase in the Understanding of the Natural History of This Cancer?</t>
-  </si>
-  <si>
-    <t>Evaluation of the Interest of Ultra-high Frequency Doppler Ultrasound (UFDU) in the Surgical Management of Patients Operated in an Awake Condition for a Cerebral Tumor</t>
+    <t>OStéopontin as a Marker Of StenoSIS - OSMOSIS</t>
+  </si>
+  <si>
+    <t>Prospective Monocentric Study on the Efficacy of Lidocain Spray for Patient Comfort During Nasogastric Tube Insertion in Enteral Nutrition: the Xylonut Trial</t>
+  </si>
+  <si>
+    <t>Efficiency and Safety of a Procedural Sedation by Propofol Administered by Trained Doctors Who Are Not Anesthesiologists on Terminally Ill Patients With Refractory Pain Hospitalized in a Palliative Care Unit</t>
+  </si>
+  <si>
+    <t>Cimex Lectularius or Bed Bugs : Vector of Infectious Agents and Pathogenic Role</t>
   </si>
   <si>
     <t>Repigmentation Using Apremilast and Phototherapy In Diffuse VITILIGO RAPID VITILIGO</t>
   </si>
   <si>
+    <t>Computerized Facial Recognition for Automated Diagnosis of the Facio-Scapulo-Humeral Muscular Dystrophy (FSMHD): Pilot Study</t>
+  </si>
+  <si>
     <t>Comparison of the Efficacy of Micro-holes vs. Laser-assisted Dermabrasion, for Repigmenting in Vitiligo Skin</t>
   </si>
   <si>
     <t>TREg Activation in the Treatment of the PELADE (Alopecia Areata). Double Blind Randomized Placebo Controlled Comparative Study Using Low Doses of IL2</t>
   </si>
   <si>
-    <t>Cimex Lectularius or Bed Bugs : Vector of Infectious Agents and Pathogenic Role</t>
-  </si>
-  <si>
     <t>Multicenter Validation of the Sensitivity of Theranostic ALK Rearrangement Detection by FISH Analysis and Prevalence of Escaping Mutations in Circulating Tumor Cells for the Non-invasive Management of Lung Cancer Patients</t>
   </si>
   <si>
-    <t>OStéopontin as a Marker Of StenoSIS - OSMOSIS</t>
+    <t>Frequency of Pompe's Disease and Neuromuscular Etiologies in Patients With Restrictive Respiratory Failure Associated With Signs of Muscle Weakness</t>
+  </si>
+  <si>
+    <t>Impact on the Intestinal Microbiota of Treatment With Ceftriaxone in Women's Acute Community Pyelonephritis</t>
+  </si>
+  <si>
+    <t>Evaluation of a Predictive Immunovirological Test Occurrence of BK Virus Nephropathy in Renal Transplant</t>
+  </si>
+  <si>
+    <t>Study at the Man of the Profile of Chimiokines in the Anorexia Bound to the Cancerous Cachexy.</t>
+  </si>
+  <si>
+    <t>Arterial Calcifications: Role of Tissue-nonspecific Alkaline Phosphatase in Phosphate and Pyrophosphate Homeostasis. PIPAL Study.</t>
+  </si>
+  <si>
+    <t>Study Role of the Local Treatments on the Microbiome Modulation in the Psoriatic Skin. Study Monocentric, Interventional, Randomized and Single-blind</t>
   </si>
   <si>
     <t>Project A3sc - An Atlas of Airways at a Single Cell Level</t>
   </si>
   <si>
-    <t>Frequency of Pompe's Disease and Neuromuscular Etiologies in Patients With Restrictive Respiratory Failure Associated With Signs of Muscle Weakness</t>
+    <t>Study of the Influence of Blue Light Emitted by Computer / Television Screens on Melasma Single-center, Interventional, Randomized, Single-blind Study (Masked Investigator) MELABLUE Study</t>
+  </si>
+  <si>
+    <t>Treatment of the oral aphtose récidivante and idiopathique of the adult by probiotics_x000D_ Double-blind randomized interventional study versus placebo</t>
   </si>
   <si>
     <t>Performance in Walking in Osteoarthritis Patients: the Role of Fatigue and the Effect of an Eccentric Muscle Building Program</t>
   </si>
   <si>
-    <t>Study of the Influence of Blue Light Emitted by Computer / Television Screens on Melasma Single-center, Interventional, Randomized, Single-blind Study (Masked Investigator) MELABLUE Study</t>
-  </si>
-  <si>
-    <t>Efficiency and Safety of a Procedural Sedation by Propofol Administered by Trained Doctors Who Are Not Anesthesiologists on Terminally Ill Patients With Refractory Pain Hospitalized in a Palliative Care Unit</t>
-  </si>
-  <si>
-    <t>Prospective Monocentric Study on the Efficacy of Lidocain Spray for Patient Comfort During Nasogastric Tube Insertion in Enteral Nutrition: the Xylonut Trial</t>
-  </si>
-  <si>
-    <t>Impact on the Intestinal Microbiota of Treatment With Ceftriaxone in Women's Acute Community Pyelonephritis</t>
-  </si>
-  <si>
-    <t>Study at the Man of the Profile of Chimiokines in the Anorexia Bound to the Cancerous Cachexy.</t>
-  </si>
-  <si>
-    <t>Evaluation of a Predictive Immunovirological Test Occurrence of BK Virus Nephropathy in Renal Transplant</t>
-  </si>
-  <si>
-    <t>Study Role of the Local Treatments on the Microbiome Modulation in the Psoriatic Skin. Study Monocentric, Interventional, Randomized and Single-blind</t>
-  </si>
-  <si>
     <t>Anatomo-functional Study of the Brain Cortical and Sub-cortical Connectivity Using Diffusion MRI, Electrocorticography and Direct Electrical Stimulation</t>
   </si>
   <si>
-    <t>Arterial Calcifications: Role of Tissue-nonspecific Alkaline Phosphatase in Phosphate and Pyrophosphate Homeostasis. PIPAL Study.</t>
-  </si>
-  <si>
-    <t>Computerized Facial Recognition for Automated Diagnosis of the Facio-Scapulo-Humeral Muscular Dystrophy (FSMHD): Pilot Study</t>
-  </si>
-  <si>
-    <t>Treatment of the oral aphtose récidivante and idiopathique of the adult by probiotics_x000D_ Double-blind randomized interventional study versus placebo</t>
+    <t>Gastroprotected Superoxide Dismutase in Combination With UVB vs Placebo and UVB for Treating Vitiligo. A Randomized Double Blind Placebo Controlled Monocentric Study</t>
+  </si>
+  <si>
+    <t>Cerebral Functional Modifications After Low Frequency Repetitive Transcranial Magnetic Stimulation in Refractory Depression. Assessment With 18F-FDG-PET Imaging.</t>
+  </si>
+  <si>
+    <t>Determinants of Vascular Calcification in Chronic Renal Failure : Impact of Pyrophosphate Levels After Renal Transplantation</t>
+  </si>
+  <si>
+    <t>Indication and Response to Immunosuppressive Treatment in Membranous Nephropathy : Role of Anti-mouse PLA2R1 ELISA</t>
+  </si>
+  <si>
+    <t>Molecular Profile of the Evolution of Inclusion Body Myositis</t>
+  </si>
+  <si>
+    <t>Treatment of Multiple Gingival Recession Defects Using a Xenogenic Acellular Dermal Matrix Compared to Connective Tissue Graft: a Randomized Controlled Clinical Study</t>
+  </si>
+  <si>
+    <t>Prospective Study of Ingenol Mebutate for Non-invasive Lentigo Melanoma of the Face - Study PICAMEL</t>
+  </si>
+  <si>
+    <t>Treatment of Idiopathic and Recurrent Aphthous Stomatitis by a Probiotic, the Lactobacillus Rhamnosus Lcr35® : a Randomized, Double Blind and Placebo-controlled Trial</t>
+  </si>
+  <si>
+    <t>Is Adipose Tissue a Reservoir for SARS-Cov2 Spread?</t>
+  </si>
+  <si>
+    <t>Circulating Tumor Cells and Early Diagnosis of Lung Cancer in Patients With Chronic Obstructive Pulmonary Disease</t>
+  </si>
+  <si>
+    <t>Hypnosis as a Therapeutic Tool in Patients With Reccurent Cystitis</t>
+  </si>
+  <si>
+    <t>Pyrophosphate Homeostasis and Hepatic Expression of ABCC6. Pilot Study in Liver Transplantation</t>
+  </si>
+  <si>
+    <t>Telmisartan Promotes the Differentiation of Monocytes Into Macrophages M2 in Diabetic Nephropathy?</t>
+  </si>
+  <si>
+    <t>A Pilot Study Evaluating the PROgnostic Contribution of Venous Lactate for the Recovery of Spontaneous Cardiac Activity, Following an Extra-hospital Cardiac Arrest "PROLAC Study"</t>
+  </si>
+  <si>
+    <t>Diagnostic Performance of a New Bio-marker During Bacterial Sepsis</t>
+  </si>
+  <si>
+    <t>Effects of Cardiorespiratory Rehabilitation on the Right Ventricle in Pulmonary Hypertension</t>
   </si>
   <si>
     <t>Evaluation of the Efficacy and Safety of the Use of the RespIn PAD in the Bronchial De-enclosure of Elderly Patients Who Cannot Benefit From Respiratory Physiotherapy</t>
   </si>
   <si>
-    <t>Pyrophosphate Homeostasis and Hepatic Expression of ABCC6. Pilot Study in Liver Transplantation</t>
+    <t>Impact of Preoperative 4-week Supplementation With Omega-3 Polyunsaturated Fatty Acids on Liver Volume and Steatosis to Facilitate Bariatric Surgery in Morbdly Obese Patients : the " Omegaobese Study ".</t>
+  </si>
+  <si>
+    <t>Target-controlled Infusion With Propofol in the Emergency Department : a Prospective Study on 45 Adult Patients</t>
+  </si>
+  <si>
+    <t>Oral Superoxide Dismutase (GLISODin) to Decrease Melasma Severity. A Prospective Randomized Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Cemented Versus Uncemented Hemiarthroplasty for Displaced Femoral Neck Fracture in Elderly Patient : a Randomized Prospective Trial</t>
+  </si>
+  <si>
+    <t>Early Skin to Skin in Neonatal reanimation_Risk Assessment in the Newborn With an Umbilical Venous Catheter</t>
+  </si>
+  <si>
+    <t>Comparing a Diuretic Vascular Filling in the Initial Management of Acute Pulmonary Embolism With Right Ventricular Dysfunction Normotensive</t>
   </si>
   <si>
     <t>IMPLEMENTING A SINGLE MUSCLE FIBER DNA QUANTIFICATION TECHNIQUE AS A INTERPRETATION TOOL FOR THE VARIANTS OF UNKNOWN SERVICE IN MITOCHONDRIAL DISEASES</t>
   </si>
   <si>
-    <t>Molecular Profile of the Evolution of Inclusion Body Myositis</t>
-  </si>
-  <si>
-    <t>Indication and Response to Immunosuppressive Treatment in Membranous Nephropathy : Role of Anti-mouse PLA2R1 ELISA</t>
-  </si>
-  <si>
-    <t>Treatment of Idiopathic and Recurrent Aphthous Stomatitis by a Probiotic, the Lactobacillus Rhamnosus Lcr35® : a Randomized, Double Blind and Placebo-controlled Trial</t>
-  </si>
-  <si>
-    <t>Circulating Tumor Cells and Early Diagnosis of Lung Cancer in Patients With Chronic Obstructive Pulmonary Disease</t>
-  </si>
-  <si>
-    <t>Hypnosis as a Therapeutic Tool in Patients With Reccurent Cystitis</t>
-  </si>
-  <si>
-    <t>Gastroprotected Superoxide Dismutase in Combination With UVB vs Placebo and UVB for Treating Vitiligo. A Randomized Double Blind Placebo Controlled Monocentric Study</t>
-  </si>
-  <si>
-    <t>Determinants of Vascular Calcification in Chronic Renal Failure : Impact of Pyrophosphate Levels After Renal Transplantation</t>
-  </si>
-  <si>
-    <t>Is Adipose Tissue a Reservoir for SARS-Cov2 Spread?</t>
-  </si>
-  <si>
-    <t>Oral Superoxide Dismutase (GLISODin) to Decrease Melasma Severity. A Prospective Randomized Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Impact of Preoperative 4-week Supplementation With Omega-3 Polyunsaturated Fatty Acids on Liver Volume and Steatosis to Facilitate Bariatric Surgery in Morbdly Obese Patients : the " Omegaobese Study ".</t>
-  </si>
-  <si>
-    <t>A Pilot Study Evaluating the PROgnostic Contribution of Venous Lactate for the Recovery of Spontaneous Cardiac Activity, Following an Extra-hospital Cardiac Arrest "PROLAC Study"</t>
-  </si>
-  <si>
-    <t>Cerebral Functional Modifications After Low Frequency Repetitive Transcranial Magnetic Stimulation in Refractory Depression. Assessment With 18F-FDG-PET Imaging.</t>
-  </si>
-  <si>
-    <t>Effects of Cardiorespiratory Rehabilitation on the Right Ventricle in Pulmonary Hypertension</t>
-  </si>
-  <si>
-    <t>Cemented Versus Uncemented Hemiarthroplasty for Displaced Femoral Neck Fracture in Elderly Patient : a Randomized Prospective Trial</t>
-  </si>
-  <si>
-    <t>Diagnostic Performance of a New Bio-marker During Bacterial Sepsis</t>
-  </si>
-  <si>
-    <t>Comparing a Diuretic Vascular Filling in the Initial Management of Acute Pulmonary Embolism With Right Ventricular Dysfunction Normotensive</t>
-  </si>
-  <si>
-    <t>Prospective Study of Ingenol Mebutate for Non-invasive Lentigo Melanoma of the Face - Study PICAMEL</t>
-  </si>
-  <si>
-    <t>Treatment of Multiple Gingival Recession Defects Using a Xenogenic Acellular Dermal Matrix Compared to Connective Tissue Graft: a Randomized Controlled Clinical Study</t>
-  </si>
-  <si>
-    <t>Early Skin to Skin in Neonatal reanimation_Risk Assessment in the Newborn With an Umbilical Venous Catheter</t>
-  </si>
-  <si>
-    <t>Target-controlled Infusion With Propofol in the Emergency Department : a Prospective Study on 45 Adult Patients</t>
-  </si>
-  <si>
-    <t>Telmisartan Promotes the Differentiation of Monocytes Into Macrophages M2 in Diabetic Nephropathy?</t>
+    <t>Study ¨PRECOCE Feasibility Study of Photovaporisation of Prostate With a Limitated Length of Catheterization of 3 Hours</t>
   </si>
   <si>
     <t>Nivolumab in Combination With High Dose Radiotherapy at Varied Tumor Sites in Advanced Melanoma and no Prior Antitumoral Treatment</t>
   </si>
   <si>
+    <t>FAME 1: The Effects of Apathy on Different Forms of Fatigue</t>
+  </si>
+  <si>
+    <t>Assay of Pro-angiogenic Cytokines in Exudative Age-Related Macular Degeneration</t>
+  </si>
+  <si>
+    <t>Macrophage Phenotype in Type 2 Diabetics After Myocardial Infarction and the Potential Role of miRNAs Secreted</t>
+  </si>
+  <si>
+    <t>Pro-inflammatory Cytokines as Potential Therapeutic Target in Type 1 Facioscapulohumeral Muscular Dystrophy: Pilot Study</t>
+  </si>
+  <si>
+    <t>AVP Study: Autophagy and Pathological Aging Human Study in Osteoporosis With or Without Dementia of Alzheimer's Type</t>
+  </si>
+  <si>
+    <t>A National, Multi-center Study to Evaluate the Safety of Long Term Treatment With Teriflunomide 14 mg Once Daily in Patients With a First Clinical Episode Suggestive of Multiple Sclerosis in a Long-term Extension Period</t>
+  </si>
+  <si>
+    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Chronic Haemodialysis Patients</t>
+  </si>
+  <si>
     <t>ASYMPTOMATIC CARRIER OF LEISHMANIA INFANTUM, MEDISERRANEAN VISCERAL LEISHMANIOSIS AGENT: STUDY OF IMMUNE RESPONSE - POSTULATE PRIOR TO HUMAN VACCINAL TRIALS Immune Response of Asymptomatic Carriers to L. Infantum</t>
   </si>
   <si>
-    <t>A National, Multi-center Study to Evaluate the Safety of Long Term Treatment With Teriflunomide 14 mg Once Daily in Patients With a First Clinical Episode Suggestive of Multiple Sclerosis in a Long-term Extension Period</t>
-  </si>
-  <si>
-    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Chronic Haemodialysis Patients</t>
+    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Kidney Transplant Patients</t>
+  </si>
+  <si>
+    <t>Project A4sc - An Atlas of Airways at a Single Cell Level</t>
+  </si>
+  <si>
+    <t>Clinical Study of In Vivo Damage Induced bu UV in the Epidermis of the Scalp</t>
+  </si>
+  <si>
+    <t>Evaluation of the Radial Artery Deviation And Reimplantation Technique for Primary Hemodialysis Access Creation: a Multicenter Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Feasibility Study of Smoking Cessation for the Staff of a Hospital Center Through a Treatment Proposal Combining Nicotine Substitutes, Psychological Support, Nutritional Assistance and Hypnosis.</t>
   </si>
   <si>
-    <t>FAME 1: The Effects of Apathy on Different Forms of Fatigue</t>
-  </si>
-  <si>
-    <t>Assay of Pro-angiogenic Cytokines in Exudative Age-Related Macular Degeneration</t>
-  </si>
-  <si>
-    <t>Project A4sc - An Atlas of Airways at a Single Cell Level</t>
-  </si>
-  <si>
-    <t>Clinical Study of In Vivo Damage Induced bu UV in the Epidermis of the Scalp</t>
-  </si>
-  <si>
-    <t>Macrophage Phenotype in Type 2 Diabetics After Myocardial Infarction and the Potential Role of miRNAs Secreted</t>
+    <t>Prospective, Open Label, Randomized Study Comparing Bipolar Radiofrequency Potentiated by Infrared Light to Doxycycline in Patient With Papulopustular Rosacea</t>
+  </si>
+  <si>
+    <t>Descriptive Analysis of Morphological Aspects of Nerve by Ultra-high Frequency Ultrasound (30-50MHZ) in Demyelinating Neuropathies: Inflammatory Demyelinating Polyneuropathy Chronic (IPDC), Neuropathy Multifocal Motor Block of Conducting (NMMBC) and Neuropathy With Antibody A MAG</t>
   </si>
   <si>
     <t>Art'Health: Effects of Artistic and Participative Workshops at the MAMAC of Nice on the Health of Seniors</t>
   </si>
   <si>
-    <t>AVP Study: Autophagy and Pathological Aging Human Study in Osteoporosis With or Without Dementia of Alzheimer's Type</t>
-  </si>
-  <si>
-    <t>Study ¨PRECOCE Feasibility Study of Photovaporisation of Prostate With a Limitated Length of Catheterization of 3 Hours</t>
-  </si>
-  <si>
-    <t>Blood Innate Biomarkers as Predictors of COVID-19 Disease Progression in Recently Infected Kidney Transplant Patients</t>
-  </si>
-  <si>
-    <t>Descriptive Analysis of Morphological Aspects of Nerve by Ultra-high Frequency Ultrasound (30-50MHZ) in Demyelinating Neuropathies: Inflammatory Demyelinating Polyneuropathy Chronic (IPDC), Neuropathy Multifocal Motor Block of Conducting (NMMBC) and Neuropathy With Antibody A MAG</t>
-  </si>
-  <si>
-    <t>Prospective, Open Label, Randomized Study Comparing Bipolar Radiofrequency Potentiated by Infrared Light to Doxycycline in Patient With Papulopustular Rosacea</t>
-  </si>
-  <si>
-    <t>Pro-inflammatory Cytokines as Potential Therapeutic Target in Type 1 Facioscapulohumeral Muscular Dystrophy: Pilot Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Radial Artery Deviation And Reimplantation Technique for Primary Hemodialysis Access Creation: a Multicenter Randomized Controlled Trial</t>
+    <t>Impact of the Eurékoi Serious Game on Family Caregivers of Patients With a Major Neurocognitive Disorder</t>
+  </si>
+  <si>
+    <t>Acceptability and Clinical, Cognitive and Brain Efficacy of the Pilot of a Computerized Psychotherapy Program Based on Behavioural and Cognitive Techniques in the Depressed Patient</t>
+  </si>
+  <si>
+    <t>Study of Immune Response During SARS-CoV-2 Infection</t>
+  </si>
+  <si>
+    <t>SYMPTOMATIC EFFECTIVENESS OF MICROPARTICLE ARTERIAL EMBOLIZATION IN PATIENTS WITH TOTAL KNEE PROSTHESIS WITH PAIN RESISTANT TO MEDICAL TREATMENT</t>
+  </si>
+  <si>
+    <t>Comparison of Intraosseous Anesthesia Osteocentral With Electronic Assistance to Injection to a Conventional Anaesthesia by Infiltration on Temporary Molars</t>
+  </si>
+  <si>
+    <t>Fragility Multidisciplinary Evaluation and Adapted Physical Activity</t>
+  </si>
+  <si>
+    <t>Interest of a Post-operative Ultrasound With Systematic Use of Ultrasonic Contrast in the Follow-up of Aortic Endoprosthesis: Prospective Study at the University Hospital of Nice</t>
+  </si>
+  <si>
+    <t>Detection of Plasmatic Cell-free BRAF and NRAS Mutations: a New Tool for Monitoring Patients with Metastatic Malignant Melanoma Treated with Targeted Therapies or Immunotherapy ( MALT )</t>
+  </si>
+  <si>
+    <t>Nice Healthy Brain - Cohort of Healthy People in Brain MRI, Together With a Language and Cognitive Assessment at the University Hospital of Nice</t>
+  </si>
+  <si>
+    <t>Sarcopenia Physical Activity and Metabolomic</t>
+  </si>
+  <si>
+    <t>A Prospective Study of Hypnosis for Chronic Idiopathic Pruritus</t>
+  </si>
+  <si>
+    <t>Treatment of bullous pemphigoid with avdoralimab (IPH5401), an anti-C5aR1 monoclonal antibody</t>
+  </si>
+  <si>
+    <t>Prevalence, Impact and Reversibility of Acute Diaprhagmatic Dysfunction in Acute Respiratory Detresse Measured by Diaphragmatic Echogaphy</t>
+  </si>
+  <si>
+    <t>Multi-center, Randomized, Double-blinded Study of Teriflunomide® in Radiologically Isolated Syndrome (RIS) The TERIS Study</t>
+  </si>
+  <si>
+    <t>Open, Prospective, Single-center Study Evaluating the Efficacy and Safety of 0.05% Ingenol Mebutate (Picato® 500) in the Treatment of Basal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Evaluation of an Ultra-speed Picosecond Laser for Treating Tattoos</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of a Muscular Strengthening Protocol With an Instrumented Orthosis for Gonarthrosis Patients</t>
+  </si>
+  <si>
+    <t>PsyDoMa :Non-drug Approaches at Home for Alzheimer's Patients With Psycho-behavioural Disorders and Psycho-education for the Caregivers</t>
+  </si>
+  <si>
+    <t>Effects of Different Forms of Fatigue on Double-Task Performance in the Elderly</t>
+  </si>
+  <si>
+    <t>Development and Evaluation of the Effectiveness of Rehabilitation Tools for Neurovisual Disorders in Patients With Posterior Cortical Atrophy (PCA)</t>
+  </si>
+  <si>
+    <t>Assesment of the Metabolomic Signature in COVID-19 Patients (SignCov Study)</t>
+  </si>
+  <si>
+    <t>Role of Inflammasomes in COVID-19 Disease</t>
+  </si>
+  <si>
+    <t>Comparison of a New Masterful Preparation to Kligman's Trio in the Treatment of Melasma: a Double Blind Prospective Randomzed Study</t>
+  </si>
+  <si>
+    <t>Appendectomy by Low Impact Laparoscopy vs Routine Laparoscopy : a Randomized Prospective Monocentric Trial</t>
   </si>
   <si>
     <t>Biological Markers of Functional Effects of Physical Activity : Aging, Immunometabolism and Frailty Project (VIF-APAS)</t>
   </si>
   <si>
-    <t>Study of Immune Response During SARS-CoV-2 Infection</t>
-  </si>
-  <si>
-    <t>Fragility Multidisciplinary Evaluation and Adapted Physical Activity</t>
-  </si>
-  <si>
-    <t>A Prospective Study of Hypnosis for Chronic Idiopathic Pruritus</t>
-  </si>
-  <si>
-    <t>Acceptability and Clinical, Cognitive and Brain Efficacy of the Pilot of a Computerized Psychotherapy Program Based on Behavioural and Cognitive Techniques in the Depressed Patient</t>
-  </si>
-  <si>
-    <t>SYMPTOMATIC EFFECTIVENESS OF MICROPARTICLE ARTERIAL EMBOLIZATION IN PATIENTS WITH TOTAL KNEE PROSTHESIS WITH PAIN RESISTANT TO MEDICAL TREATMENT</t>
-  </si>
-  <si>
-    <t>Nice Healthy Brain - Cohort of Healthy People in Brain MRI, Together With a Language and Cognitive Assessment at the University Hospital of Nice</t>
-  </si>
-  <si>
-    <t>Treatment of bullous pemphigoid with avdoralimab (IPH5401), an anti-C5aR1 monoclonal antibody</t>
-  </si>
-  <si>
-    <t>Evaluation of an Ultra-speed Picosecond Laser for Treating Tattoos</t>
-  </si>
-  <si>
-    <t>PsyDoMa :Non-drug Approaches at Home for Alzheimer's Patients With Psycho-behavioural Disorders and Psycho-education for the Caregivers</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of a Muscular Strengthening Protocol With an Instrumented Orthosis for Gonarthrosis Patients</t>
-  </si>
-  <si>
-    <t>Open, Prospective, Single-center Study Evaluating the Efficacy and Safety of 0.05% Ingenol Mebutate (Picato® 500) in the Treatment of Basal Cell Carcinoma</t>
-  </si>
-  <si>
-    <t>Comparison of Intraosseous Anesthesia Osteocentral With Electronic Assistance to Injection to a Conventional Anaesthesia by Infiltration on Temporary Molars</t>
-  </si>
-  <si>
-    <t>Assesment of the Metabolomic Signature in COVID-19 Patients (SignCov Study)</t>
-  </si>
-  <si>
-    <t>Development and Evaluation of the Effectiveness of Rehabilitation Tools for Neurovisual Disorders in Patients With Posterior Cortical Atrophy (PCA)</t>
-  </si>
-  <si>
-    <t>Effects of Different Forms of Fatigue on Double-Task Performance in the Elderly</t>
-  </si>
-  <si>
-    <t>Appendectomy by Low Impact Laparoscopy vs Routine Laparoscopy : a Randomized Prospective Monocentric Trial</t>
-  </si>
-  <si>
-    <t>Comparison of a New Masterful Preparation to Kligman's Trio in the Treatment of Melasma: a Double Blind Prospective Randomzed Study</t>
-  </si>
-  <si>
     <t>Validating an ELISpot for Early Detection of an Active Immune Response Against COVID-19</t>
   </si>
   <si>
-    <t>Interest of a Post-operative Ultrasound With Systematic Use of Ultrasonic Contrast in the Follow-up of Aortic Endoprosthesis: Prospective Study at the University Hospital of Nice</t>
-  </si>
-  <si>
-    <t>Role of Inflammasomes in COVID-19 Disease</t>
-  </si>
-  <si>
-    <t>Impact of the Eurékoi Serious Game on Family Caregivers of Patients With a Major Neurocognitive Disorder</t>
-  </si>
-  <si>
     <t>Comparison of Analgesic Efficiency Between Serratus Block and Paravertebral Block in Video-assisted Thoracic Surgery. Double-blind Randomized Comparative Non-inferiority Study</t>
   </si>
   <si>
-    <t>Prevalence, Impact and Reversibility of Acute Diaprhagmatic Dysfunction in Acute Respiratory Detresse Measured by Diaphragmatic Echogaphy</t>
-  </si>
-  <si>
-    <t>Sarcopenia Physical Activity and Metabolomic</t>
-  </si>
-  <si>
-    <t>Multi-center, Randomized, Double-blinded Study of Teriflunomide® in Radiologically Isolated Syndrome (RIS) The TERIS Study</t>
-  </si>
-  <si>
     <t>Longitudinal Monitoring of Energy Expenditure, Dynamic Stability and Fatigue During Gait in Patients With Cerebellar Ataxia Gene</t>
   </si>
   <si>
+    <t>Early Detection by Molecular Biology Technique of Pathogens Responsible for Respiratory Infections Associated With Drownings in Seawater: Pilot Study at the CHU de Nice</t>
+  </si>
+  <si>
     <t>Preformed Pediatric Crown Zirconia Versus Preformed Pediatric Metal Crown PPC Z-M</t>
   </si>
   <si>
+    <t>Stimulation of Acupuncture Points by Athermic Laser Therapy for the Prevention of Chemotherapy Induced Nausea and Vomiting in Children</t>
+  </si>
+  <si>
+    <t>REMINISCENCES : Reminiscence Triggered by Virtual Reality for Older Adults With Mood Disorders</t>
+  </si>
+  <si>
     <t>Study of Circulating Glicentin Levels in Patients With Intestinal Ischemia</t>
   </si>
   <si>
+    <t>MESSAge Study : Ultrasound Measurement of Sarcopenia in the Elder Subject</t>
+  </si>
+  <si>
+    <t>Urinary and Prostate Microbiotes and Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Identification of Predictive Blood Biomarkers of Recurrent Urinary Tract Infections</t>
+  </si>
+  <si>
+    <t>OCT-angiography as a Pronostic Marker for Visual Impairment in Patients Undergoing Neurosurgery for Compressive Macroadenoma : a Prospective Study.</t>
+  </si>
+  <si>
+    <t>Pilot Study of Exosomes Before and After BRAF Inhibitor Therapy in Patients With Advanced Unresectable or Metastatic BRAF Mutation-positive Melanoma</t>
+  </si>
+  <si>
+    <t>Olfaction, Virtual Reality and Art in Health</t>
+  </si>
+  <si>
     <t>Diagnosis of Toxoplasma Gondii Infection by Exploration of Cellular Immunity</t>
   </si>
   <si>
-    <t>Olfaction, Virtual Reality and Art in Health</t>
-  </si>
-  <si>
-    <t>Pilot Study of Exosomes Before and After BRAF Inhibitor Therapy in Patients With Advanced Unresectable or Metastatic BRAF Mutation-positive Melanoma</t>
+    <t>Evaluation of Prevenar 13's Vaccine Response in Patients Hospitalized in Infectious Disease Department for Sepsis</t>
+  </si>
+  <si>
+    <t>Superiority of Drug-eluting Balloon Angioplasty Versus Plain Balloon Angioplasty for the Treatment of Hemodialysis Vascular Access Stenosis : a Multicentre, Randomized, Controlled Trial</t>
+  </si>
+  <si>
+    <t>Clinical Study: Physiological Effects of Scuba Diving on PTSD by Activating the Parasympathetic System and Restoring the Optimal and Sustainable State of Balance Between the Sympathetic and Parasympathetic Autonomous Nervous System (Sympatho-vagale Scale)</t>
   </si>
   <si>
     <t>Impact of Cooking Education and Adapted Physical Activity on Nutritional Status and Quality of Life of Patients Treated by Allo Stem Cell Transplantation</t>
   </si>
   <si>
-    <t>Early Detection by Molecular Biology Technique of Pathogens Responsible for Respiratory Infections Associated With Drownings in Seawater: Pilot Study at the CHU de Nice</t>
-  </si>
-  <si>
-    <t>Clinical Study: Physiological Effects of Scuba Diving on PTSD by Activating the Parasympathetic System and Restoring the Optimal and Sustainable State of Balance Between the Sympathetic and Parasympathetic Autonomous Nervous System (Sympatho-vagale Scale)</t>
-  </si>
-  <si>
-    <t>REMINISCENCES : Reminiscence Triggered by Virtual Reality for Older Adults With Mood Disorders</t>
-  </si>
-  <si>
-    <t>MESSAge Study : Ultrasound Measurement of Sarcopenia in the Elder Subject</t>
-  </si>
-  <si>
-    <t>Superiority of Drug-eluting Balloon Angioplasty Versus Plain Balloon Angioplasty for the Treatment of Hemodialysis Vascular Access Stenosis : a Multicentre, Randomized, Controlled Trial</t>
-  </si>
-  <si>
     <t>Functional Non Specific Immunity Monitoring After Kidney Transplantation Using an Interferon Gamma Test, QuantiFERON Monitor®</t>
   </si>
   <si>
-    <t>OCT-angiography as a Pronostic Marker for Visual Impairment in Patients Undergoing Neurosurgery for Compressive Macroadenoma : a Prospective Study.</t>
-  </si>
-  <si>
-    <t>Evaluation of Prevenar 13's Vaccine Response in Patients Hospitalized in Infectious Disease Department for Sepsis</t>
-  </si>
-  <si>
-    <t>Identification of Predictive Blood Biomarkers of Recurrent Urinary Tract Infections</t>
-  </si>
-  <si>
-    <t>Urinary and Prostate Microbiotes and Prostate Cancer</t>
-  </si>
-  <si>
-    <t>Stimulation of Acupuncture Points by Athermic Laser Therapy for the Prevention of Chemotherapy Induced Nausea and Vomiting in Children</t>
+    <t>Improved Rehabilitation After Surgery and Hypnosis: Benefits Potentiated by a Preoperative Consultation</t>
+  </si>
+  <si>
+    <t>Pilot Study for the Development of an Activity and Quality of Life Questionnaire for the Follow-up of Patients With Non-dystrophic Myotonia</t>
+  </si>
+  <si>
+    <t>Effectiveness Speech and Cognitive Therapy Implant Pre-cohlear Implantation</t>
+  </si>
+  <si>
+    <t>IMPACT OF BREATH CONTROL AND RETENTION ON PATIENT STRESS. E.S IN MEDICALLY ASSISTED REPRODUCTION BREATH HOLD TO BREATH BETTER PROGRAM IN MEDICALLY ASSISTED REPRODUCTION</t>
+  </si>
+  <si>
+    <t>Screening for Renal Complications in Children and Young Adults With Major Sickle Cell Disease</t>
+  </si>
+  <si>
+    <t>To Study the Predictive Value of Th1, Th2 and Th17 Cytokine Serum Levels Produced After Non-specific Stimulation on the Success of Embryo Implantation</t>
+  </si>
+  <si>
+    <t>Effect of Molar Sodium Lactate Filling on Cerebral Hemodynamics in Patients with Severe Meningeal Hemorrhage Multicenter Randomized Study</t>
+  </si>
+  <si>
+    <t>Comparison of a Classical Rehabilitation Method and a Specific Rehabilitation Method of the Cervical Spine to Improve Balance in Elderly Patients</t>
+  </si>
+  <si>
+    <t>Does the Common Practice of Adding Diluted Epinephrine in Tranverse Abdominal Plan Block to Ropivacaine Significantly Decrease the Peak Systemic Resorption of Ropivacaine?</t>
+  </si>
+  <si>
+    <t>fMRI Study of the Cerebal Bases of the Spatialization Process in Working Memory in Young Healthy Adults</t>
+  </si>
+  <si>
+    <t>EVALUATION OF SERUM INFLAMMATORY CYTOKINE CONCENTRATION</t>
   </si>
   <si>
     <t>A Multicenter, Interventional, Open-label Study to Monitor the Evolution of Motor Function in SMA Type II Adults Patients Treated With SPINRAZA®</t>
@@ -1391,49 +1475,50 @@
     <t>Ex Vivo Transformation of White Adipose Tissue (WAT) Into Brown Adipose Tissue (BAT) in Morbidly Obese Patients Using the Ex Vivo Adipocyte Expansion (ExAdEx) Approach: Proof of Concept. From White to Brown Adipose Tissue</t>
   </si>
   <si>
-    <t>Screening for Renal Complications in Children and Young Adults With Major Sickle Cell Disease</t>
+    <t>Feasibility of Prostatic Arterial Embolization with SQUID (Ethylene Vinyl Alcohol Copolymer ) in Symptomatic Patients with Benign Prostatic Hyperplasia: Monocentric Pilot Study</t>
+  </si>
+  <si>
+    <t>Using the Superb Microvascular Imaging Method in the Diagnosis of Intraocular Tumors (SMITIS)</t>
+  </si>
+  <si>
+    <t>An Atlas of Airways At a Single Cell Level in Chronic Obstructive Pulmonary Disease, Idiopathic Pulmonary Fibrosis and Controls</t>
+  </si>
+  <si>
+    <t>Single-cell Transcriptome Identification of UV- and Visible-light-induced Genes in Human Melanocytes in Vivo</t>
+  </si>
+  <si>
+    <t>Comparison of a Speech-Language Pathology Assessment Tool for Pragmatic and Discourse Skills for Patients With Schizophrenic Spectrum Disorders and Other Psychotic Disorders</t>
+  </si>
+  <si>
+    <t>Study to Measure the Impact of Probiotics on Immune Activation and Neurocognitive Disorders in HIV-positive Patients With Neurocognitive Disorders</t>
   </si>
   <si>
     <t>Treatment of Bullous Pemphigoid With Avdoralimab (IPH5401), an Anti-C5aR1 Monoclonal Antibody</t>
   </si>
   <si>
-    <t>Comparison of a Speech-Language Pathology Assessment Tool for Pragmatic and Discourse Skills for Patients With Schizophrenic Spectrum Disorders and Other Psychotic Disorders</t>
-  </si>
-  <si>
-    <t>Study to Measure the Impact of Probiotics on Immune Activation and Neurocognitive Disorders in HIV-positive Patients With Neurocognitive Disorders</t>
-  </si>
-  <si>
-    <t>To Study the Predictive Value of Th1, Th2 and Th17 Cytokine Serum Levels Produced After Non-specific Stimulation on the Success of Embryo Implantation</t>
-  </si>
-  <si>
-    <t>IMPACT OF BREATH CONTROL AND RETENTION ON PATIENT STRESS. E.S IN MEDICALLY ASSISTED REPRODUCTION BREATH HOLD TO BREATH BETTER PROGRAM IN MEDICALLY ASSISTED REPRODUCTION</t>
-  </si>
-  <si>
-    <t>Single-cell Transcriptome Identification of UV- and Visible-light-induced Genes in Human Melanocytes in Vivo</t>
-  </si>
-  <si>
-    <t>fMRI Study of the Cerebal Bases of the Spatialization Process in Working Memory in Young Healthy Adults</t>
+    <t>Search for New Predictive Markers of the Immune Response in Vitiligo and Melanoma (Vitilimel Study)</t>
   </si>
   <si>
     <t>Study of the Impact of Time of Vaccination on Response to Influenza Vaccine in Kidney Transplant Recipients -ChronoVAX</t>
   </si>
   <si>
-    <t>Pilot Study for the Development of an Activity and Quality of Life Questionnaire for the Follow-up of Patients With Non-dystrophic Myotonia</t>
-  </si>
-  <si>
-    <t>Comparison of a Classical Rehabilitation Method and a Specific Rehabilitation Method of the Cervical Spine to Improve Balance in Elderly Patients</t>
-  </si>
-  <si>
-    <t>Using the Superb Microvascular Imaging Method in the Diagnosis of Intraocular Tumors (SMITIS)</t>
-  </si>
-  <si>
-    <t>Search for New Predictive Markers of the Immune Response in Vitiligo and Melanoma (Vitilimel Study)</t>
-  </si>
-  <si>
-    <t>Effectiveness Speech and Cognitive Therapy Implant Pre-cohlear Implantation</t>
-  </si>
-  <si>
-    <t>Improved Rehabilitation After Surgery and Hypnosis: Benefits Potentiated by a Preoperative Consultation</t>
+    <t>Oxytocin Serum Variation Following Laparoscopic Sleeve Gastrectomy in Morbidly Obese Women</t>
+  </si>
+  <si>
+    <t>Promoting Repigmentation After Epidermal Cell Suspension Grafting and preVENTing the Loss of Melanocytes Using Topical Ruxolitinib for Vitiligo in Resistant Areas. Prospective Monocentric Interventional Study With Blinded Evaluation</t>
+  </si>
+  <si>
+    <t>Interest of APA in Fatty Liver Disease Evaluation of Efficacy and Adherence to an Adapted Physical Activity (APA) Program in Patients with Metabolic Fatty Liver Disease, Open-label, Multicenter, Multicenter Pilot Study</t>
+  </si>
+  <si>
+    <t>Symptomatic Efficacy of Microparticle Arterial Embolization in Knee Osteoarthritis Resistant to Medical Treatment: Randomized Prospective Study Versus Placebo</t>
+  </si>
+  <si>
+    <t>Prevention of Neovascular Glaucoma by Intravitreal Injections of Anti-Vascular Endothelial Growth Factor in Patients Treated with Proton Therapy for a Large Choroidal Melanoma</t>
+  </si>
+  <si>
+    <t>Target-controled infusion with propofol in the Emergency Department : a prospective study on 50 adult patients 
+ Sédation Intraveineuse à Objectif de Concentration (SIVOC) au propofol à l’accueil des urgences : étude prospective pilote sur 50 patients consécutifs</t>
   </si>
   <si>
     <t>Comparative Study of 308nm Excimer Lamp and 308nm Excimer Laser in the Treatment of Vitiligo</t>
@@ -1445,33 +1530,33 @@
     <t>POPS</t>
   </si>
   <si>
+    <t>09-PP-06</t>
+  </si>
+  <si>
+    <t>Viticell</t>
+  </si>
+  <si>
+    <t>VITICELL</t>
+  </si>
+  <si>
     <t>IFM-01-04</t>
   </si>
   <si>
-    <t>Viticell</t>
-  </si>
-  <si>
-    <t>09-PP-06</t>
-  </si>
-  <si>
     <t>PROCERV</t>
   </si>
   <si>
-    <t>VITICELL</t>
+    <t>Khoala</t>
+  </si>
+  <si>
+    <t>AADAPT</t>
+  </si>
+  <si>
+    <t>HIV and COPD</t>
   </si>
   <si>
     <t>CELIC-1</t>
   </si>
   <si>
-    <t>HIV and COPD</t>
-  </si>
-  <si>
-    <t>AADAPT</t>
-  </si>
-  <si>
-    <t>Khoala</t>
-  </si>
-  <si>
     <t>MELA</t>
   </si>
   <si>
@@ -1481,28 +1566,34 @@
     <t>TEO FIRST</t>
   </si>
   <si>
+    <t>PROPOPAL1</t>
+  </si>
+  <si>
+    <t>Dem@Care</t>
+  </si>
+  <si>
+    <t>MeMO-RV2</t>
+  </si>
+  <si>
+    <t>ESSEA</t>
+  </si>
+  <si>
+    <t>FINGER</t>
+  </si>
+  <si>
     <t>SOLEIL SOMMEIL</t>
   </si>
   <si>
-    <t>ESSEA</t>
-  </si>
-  <si>
-    <t>FINGER</t>
-  </si>
-  <si>
-    <t>PROPOPAL1</t>
-  </si>
-  <si>
-    <t>Dem@Care</t>
-  </si>
-  <si>
-    <t>MeMO-RV2</t>
+    <t>Calires</t>
+  </si>
+  <si>
+    <t>SARCORSICA</t>
   </si>
   <si>
     <t>CHIMIODIET</t>
   </si>
   <si>
-    <t>SARCORSICA</t>
+    <t>InSPEED</t>
   </si>
   <si>
     <t>SMOFPILOT</t>
@@ -1511,37 +1602,34 @@
     <t>LICHENVIR</t>
   </si>
   <si>
-    <t>InSPEED</t>
-  </si>
-  <si>
     <t>AMMAM</t>
   </si>
   <si>
-    <t>Calires</t>
+    <t>POLOB</t>
+  </si>
+  <si>
+    <t>PHIPA-PEPL</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>CARBOXHYD</t>
+  </si>
+  <si>
+    <t>MEDOC</t>
+  </si>
+  <si>
+    <t>SaFEE2</t>
+  </si>
+  <si>
+    <t>EMDOGAIM</t>
   </si>
   <si>
     <t>SafEE</t>
   </si>
   <si>
-    <t>SaFEE2</t>
-  </si>
-  <si>
-    <t>FEM</t>
-  </si>
-  <si>
-    <t>CARBOXHYD</t>
-  </si>
-  <si>
-    <t>PHIPA-PEPL</t>
-  </si>
-  <si>
-    <t>EMDOGAIM</t>
-  </si>
-  <si>
-    <t>POLOB</t>
-  </si>
-  <si>
-    <t>MEDOC</t>
+    <t>IRAB2</t>
   </si>
   <si>
     <t>ACT PHY HIV</t>
@@ -1553,21 +1641,30 @@
     <t>CLOXA Continue</t>
   </si>
   <si>
-    <t>IRAB2</t>
+    <t>EUHF_PRC</t>
+  </si>
+  <si>
+    <t>PRAM-KT</t>
   </si>
   <si>
     <t>ADAL</t>
   </si>
   <si>
-    <t>PRAM-KT</t>
-  </si>
-  <si>
-    <t>EUHF_PRC</t>
+    <t>OSMOSIS</t>
+  </si>
+  <si>
+    <t>Xylonut</t>
+  </si>
+  <si>
+    <t>PROPOPAL2</t>
   </si>
   <si>
     <t>Rapid Vitiligo</t>
   </si>
   <si>
+    <t>CV4DIAGNOSIS</t>
+  </si>
+  <si>
     <t>Dermabrasion</t>
   </si>
   <si>
@@ -1577,265 +1674,283 @@
     <t>STALKLUNG01</t>
   </si>
   <si>
-    <t>OSMOSIS</t>
+    <t>POPS3</t>
+  </si>
+  <si>
+    <t>CEFIMPACT</t>
+  </si>
+  <si>
+    <t>CHIMIOKINES</t>
+  </si>
+  <si>
+    <t>PIPAL</t>
+  </si>
+  <si>
+    <t>Microbiome&amp;Pso</t>
   </si>
   <si>
     <t>AAAsc</t>
   </si>
   <si>
-    <t>POPS3</t>
+    <t>MELABLUE</t>
+  </si>
+  <si>
+    <t>Aphtose</t>
   </si>
   <si>
     <t>EX-ART</t>
   </si>
   <si>
-    <t>MELABLUE</t>
-  </si>
-  <si>
-    <t>PROPOPAL2</t>
-  </si>
-  <si>
-    <t>Xylonut</t>
-  </si>
-  <si>
-    <t>CEFIMPACT</t>
-  </si>
-  <si>
-    <t>CHIMIOKINES</t>
-  </si>
-  <si>
-    <t>Microbiome&amp;Pso</t>
-  </si>
-  <si>
-    <t>PIPAL</t>
-  </si>
-  <si>
-    <t>CV4DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Aphtose</t>
+    <t>Vitisod</t>
+  </si>
+  <si>
+    <t>SMTr-METAB</t>
+  </si>
+  <si>
+    <t>PyroCal-greffe</t>
+  </si>
+  <si>
+    <t>SOURIS</t>
+  </si>
+  <si>
+    <t>IBM-RNAseq</t>
+  </si>
+  <si>
+    <t>MUCODERM</t>
+  </si>
+  <si>
+    <t>PICAMEL</t>
+  </si>
+  <si>
+    <t>TA/SARS-Cov2</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>HYPNOCYST</t>
+  </si>
+  <si>
+    <t>Pyro-TH</t>
+  </si>
+  <si>
+    <t>PROLAC</t>
+  </si>
+  <si>
+    <t>BACTIDIAG</t>
+  </si>
+  <si>
+    <t>COLOSTRUM</t>
+  </si>
+  <si>
+    <t>Rehab-HTP</t>
   </si>
   <si>
     <t>RESPINPAD</t>
   </si>
   <si>
-    <t>Pyro-TH</t>
-  </si>
-  <si>
-    <t>IBM-RNAseq</t>
-  </si>
-  <si>
-    <t>SOURIS</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>HYPNOCYST</t>
-  </si>
-  <si>
-    <t>Vitisod</t>
-  </si>
-  <si>
-    <t>PyroCal-greffe</t>
-  </si>
-  <si>
-    <t>TA/SARS-Cov2</t>
+    <t>Omegobese</t>
+  </si>
+  <si>
+    <t>SIVOC</t>
   </si>
   <si>
     <t>Glisodin</t>
   </si>
   <si>
-    <t>Omegobese</t>
-  </si>
-  <si>
-    <t>PROLAC</t>
-  </si>
-  <si>
-    <t>SMTr-METAB</t>
-  </si>
-  <si>
-    <t>Rehab-HTP</t>
-  </si>
-  <si>
     <t>PIH</t>
   </si>
   <si>
-    <t>BACTIDIAG</t>
-  </si>
-  <si>
-    <t>COLOSTRUM</t>
-  </si>
-  <si>
-    <t>PICAMEL</t>
-  </si>
-  <si>
-    <t>MUCODERM</t>
-  </si>
-  <si>
     <t>PA2PRéaNice</t>
   </si>
   <si>
-    <t>SIVOC</t>
+    <t>PRECOCE</t>
   </si>
   <si>
     <t>NIRVANA</t>
   </si>
   <si>
+    <t>FAME1</t>
+  </si>
+  <si>
+    <t>TARMAC-1</t>
+  </si>
+  <si>
+    <t>CYTOKINE-FSH</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>TERICIS</t>
+  </si>
+  <si>
+    <t>PredictCovid-D</t>
+  </si>
+  <si>
     <t>Asymptoleish</t>
   </si>
   <si>
-    <t>TERICIS</t>
-  </si>
-  <si>
-    <t>PredictCovid-D</t>
+    <t>PredictCovidT</t>
+  </si>
+  <si>
+    <t>A4sc</t>
+  </si>
+  <si>
+    <t>RADAR</t>
   </si>
   <si>
     <t>Je_Respire</t>
   </si>
   <si>
-    <t>FAME1</t>
-  </si>
-  <si>
-    <t>TARMAC-1</t>
-  </si>
-  <si>
-    <t>A4sc</t>
+    <t>Rosac-RF</t>
+  </si>
+  <si>
+    <t>EchoNerf</t>
   </si>
   <si>
     <t>Art'Health</t>
   </si>
   <si>
-    <t>AVP</t>
-  </si>
-  <si>
-    <t>PRECOCE</t>
-  </si>
-  <si>
-    <t>PredictCovidT</t>
-  </si>
-  <si>
-    <t>EchoNerf</t>
-  </si>
-  <si>
-    <t>Rosac-RF</t>
-  </si>
-  <si>
-    <t>CYTOKINE-FSH</t>
-  </si>
-  <si>
-    <t>RADAR</t>
+    <t>STOP DEPRESS</t>
+  </si>
+  <si>
+    <t>CovImmune</t>
+  </si>
+  <si>
+    <t>SLEEPER-ONE</t>
+  </si>
+  <si>
+    <t>Ultra_Evar</t>
+  </si>
+  <si>
+    <t>MALT</t>
+  </si>
+  <si>
+    <t>NHB</t>
+  </si>
+  <si>
+    <t>SPAM</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PIRD-DRA</t>
+  </si>
+  <si>
+    <t>TERIS</t>
+  </si>
+  <si>
+    <t>PICABAS</t>
+  </si>
+  <si>
+    <t>PicoS</t>
+  </si>
+  <si>
+    <t>PSYDOMA</t>
+  </si>
+  <si>
+    <t>REEDUC-ACP</t>
+  </si>
+  <si>
+    <t>SignCov</t>
+  </si>
+  <si>
+    <t>CoVInnate</t>
+  </si>
+  <si>
+    <t>Kligman</t>
+  </si>
+  <si>
+    <t>LIL-APP</t>
   </si>
   <si>
     <t>BIO-APAS</t>
   </si>
   <si>
-    <t>CovImmune</t>
-  </si>
-  <si>
-    <t>STOP DEPRESS</t>
-  </si>
-  <si>
-    <t>NHB</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>PicoS</t>
-  </si>
-  <si>
-    <t>PSYDOMA</t>
-  </si>
-  <si>
-    <t>PICABAS</t>
-  </si>
-  <si>
-    <t>SLEEPER-ONE</t>
-  </si>
-  <si>
-    <t>SignCov</t>
-  </si>
-  <si>
-    <t>REEDUC-ACP</t>
-  </si>
-  <si>
-    <t>LIL-APP</t>
-  </si>
-  <si>
-    <t>Kligman</t>
-  </si>
-  <si>
     <t>EliSpot</t>
   </si>
   <si>
-    <t>Ultra_Evar</t>
-  </si>
-  <si>
-    <t>CoVInnate</t>
-  </si>
-  <si>
     <t>BSBP</t>
   </si>
   <si>
-    <t>PIRD-DRA</t>
-  </si>
-  <si>
-    <t>SPAM</t>
-  </si>
-  <si>
-    <t>TERIS</t>
+    <t>APIR-NOY</t>
   </si>
   <si>
     <t>PPC Z-M</t>
   </si>
   <si>
+    <t>NAUVOLA</t>
+  </si>
+  <si>
+    <t>REMINISCENCES</t>
+  </si>
+  <si>
     <t>GLICENTINEDIGE</t>
   </si>
   <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>MICROPROSTK</t>
+  </si>
+  <si>
+    <t>Predict-UTI</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>EXOSOMES</t>
+  </si>
+  <si>
+    <t>OREVAS</t>
+  </si>
+  <si>
     <t>TOXCELL</t>
   </si>
   <si>
-    <t>OREVAS</t>
-  </si>
-  <si>
-    <t>EXOSOMES</t>
+    <t>Vaccis</t>
+  </si>
+  <si>
+    <t>B3AV</t>
+  </si>
+  <si>
+    <t>DIVE4NICE</t>
   </si>
   <si>
     <t>NUTRITION</t>
   </si>
   <si>
-    <t>APIR-NOY</t>
-  </si>
-  <si>
-    <t>DIVE4NICE</t>
-  </si>
-  <si>
-    <t>REMINISCENCES</t>
-  </si>
-  <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
-    <t>B3AV</t>
-  </si>
-  <si>
     <t>QuantiFERON</t>
   </si>
   <si>
-    <t>FIRST</t>
-  </si>
-  <si>
-    <t>Vaccis</t>
-  </si>
-  <si>
-    <t>Predict-UTI</t>
-  </si>
-  <si>
-    <t>MICROPROSTK</t>
-  </si>
-  <si>
-    <t>NAUVOLA</t>
+    <t>RACHYP</t>
+  </si>
+  <si>
+    <t>MNDActivLife</t>
+  </si>
+  <si>
+    <t>EPOC</t>
+  </si>
+  <si>
+    <t>BHBB</t>
+  </si>
+  <si>
+    <t>NEPHRO-DREPA</t>
+  </si>
+  <si>
+    <t>SATRACE</t>
+  </si>
+  <si>
+    <t>ROPIVADRE</t>
+  </si>
+  <si>
+    <t>IRMF-SPAT</t>
+  </si>
+  <si>
+    <t>CytokinesUS</t>
   </si>
   <si>
     <t>SMAII</t>
@@ -1844,46 +1959,50 @@
     <t>OBADEX</t>
   </si>
   <si>
-    <t>NEPHRO-DREPA</t>
+    <t>SQUID</t>
+  </si>
+  <si>
+    <t>SMITIS</t>
+  </si>
+  <si>
+    <t>DISCOVAIR</t>
+  </si>
+  <si>
+    <t>melatrans</t>
+  </si>
+  <si>
+    <t>VEOS</t>
+  </si>
+  <si>
+    <t>PROCOG</t>
   </si>
   <si>
     <t>IPH</t>
   </si>
   <si>
-    <t>VEOS</t>
-  </si>
-  <si>
-    <t>PROCOG</t>
-  </si>
-  <si>
-    <t>BHBB</t>
-  </si>
-  <si>
-    <t>melatrans</t>
-  </si>
-  <si>
-    <t>IRMF-SPAT</t>
+    <t>VITILIMEL</t>
   </si>
   <si>
     <t>CHRONOVAX</t>
   </si>
   <si>
-    <t>MNDActivLife</t>
-  </si>
-  <si>
-    <t>SATRACE</t>
-  </si>
-  <si>
-    <t>SMITIS</t>
-  </si>
-  <si>
-    <t>VITILIMEL</t>
-  </si>
-  <si>
-    <t>EPOC</t>
-  </si>
-  <si>
-    <t>RACHYP</t>
+    <t>BARIA</t>
+  </si>
+  <si>
+    <t>PREVENT</t>
+  </si>
+  <si>
+    <t>STEATO-APA</t>
+  </si>
+  <si>
+    <t>EMBARGO</t>
+  </si>
+  <si>
+    <t>PROTECT</t>
+  </si>
+  <si>
+    <t>SIVOC 
+ SIVOC</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -1898,19 +2017,22 @@
     <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>DRUG</t>
   </si>
   <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>RADIATION</t>
   </si>
   <si>
     <t>GENETIC</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -2271,7 +2393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2317,13 +2439,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2337,13 +2459,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2357,13 +2479,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="I4" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2377,50 +2499,50 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="I5" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I6" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2434,53 +2556,53 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="I8" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="I9" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="I10" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2494,13 +2616,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="I11" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2514,13 +2636,13 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="I12" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2534,13 +2656,13 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="I13" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2554,13 +2676,13 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="I14" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2574,13 +2696,13 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G15" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="I15" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2594,16 +2716,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="H16" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="I16" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2617,13 +2739,10 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I17" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2637,13 +2756,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G18" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="I18" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2657,10 +2776,13 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>262</v>
+      </c>
+      <c r="G19" t="s">
+        <v>292</v>
       </c>
       <c r="I19" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2674,13 +2796,16 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>293</v>
+      </c>
+      <c r="H20" t="s">
+        <v>504</v>
       </c>
       <c r="I20" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2694,16 +2819,13 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G21" t="s">
-        <v>278</v>
-      </c>
-      <c r="H21" t="s">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="I21" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2717,13 +2839,13 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
-      </c>
-      <c r="H22" t="s">
-        <v>477</v>
+        <v>263</v>
+      </c>
+      <c r="G22" t="s">
+        <v>295</v>
       </c>
       <c r="I22" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2737,13 +2859,13 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="I23" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2757,13 +2879,13 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" t="s">
-        <v>280</v>
+        <v>263</v>
+      </c>
+      <c r="H24" t="s">
+        <v>505</v>
       </c>
       <c r="I24" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2777,13 +2899,13 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I25" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2797,13 +2919,16 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G26" t="s">
-        <v>282</v>
+        <v>298</v>
+      </c>
+      <c r="H26" t="s">
+        <v>506</v>
       </c>
       <c r="I26" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2817,16 +2942,13 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" t="s">
-        <v>478</v>
+        <v>299</v>
       </c>
       <c r="I27" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2840,13 +2962,13 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="I28" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2860,16 +2982,16 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="H29" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="I29" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2883,16 +3005,16 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G30" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="H30" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="I30" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2906,13 +3028,13 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="I31" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2926,13 +3048,16 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>304</v>
+      </c>
+      <c r="H32" t="s">
+        <v>509</v>
       </c>
       <c r="I32" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2946,13 +3071,13 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2966,16 +3091,16 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H34" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="I34" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2989,36 +3114,33 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H35" t="s">
-        <v>482</v>
+        <v>307</v>
       </c>
       <c r="I35" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="I36" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3032,16 +3154,16 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H37" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="I37" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3055,53 +3177,53 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="I39" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="I40" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3115,16 +3237,16 @@
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H41" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="I41" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3138,13 +3260,13 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G42" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I42" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3158,13 +3280,13 @@
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G43" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="I43" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3178,39 +3300,36 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G44" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H44" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="I44" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G45" t="s">
-        <v>301</v>
-      </c>
-      <c r="H45" t="s">
-        <v>486</v>
+        <v>317</v>
       </c>
       <c r="I45" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3224,13 +3343,13 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G46" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="I46" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3244,10 +3363,16 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>265</v>
+      </c>
+      <c r="G47" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" t="s">
+        <v>514</v>
       </c>
       <c r="I47" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3261,76 +3386,73 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
-      </c>
-      <c r="G48" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="I48" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G49" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="I49" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G50" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" t="s">
-        <v>487</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>306</v>
+        <v>322</v>
+      </c>
+      <c r="H51" t="s">
+        <v>515</v>
       </c>
       <c r="I51" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3344,13 +3466,16 @@
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>323</v>
+      </c>
+      <c r="H52" t="s">
+        <v>516</v>
       </c>
       <c r="I52" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3364,39 +3489,36 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
-      </c>
-      <c r="H53" t="s">
-        <v>488</v>
+        <v>324</v>
       </c>
       <c r="I53" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H54" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="I54" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3410,16 +3532,13 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
-      </c>
-      <c r="H55" t="s">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="I55" t="s">
-        <v>629</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3433,10 +3552,10 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="I56" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3450,33 +3569,39 @@
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>251</v>
+        <v>266</v>
+      </c>
+      <c r="G57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H57" t="s">
+        <v>518</v>
       </c>
       <c r="I57" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G58" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H58" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="I58" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3490,16 +3615,16 @@
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G59" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H59" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="I59" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3512,17 +3637,17 @@
       <c r="C60" t="s">
         <v>75</v>
       </c>
+      <c r="D60" t="s">
+        <v>249</v>
+      </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
-      </c>
-      <c r="H60" t="s">
-        <v>493</v>
+        <v>330</v>
       </c>
       <c r="I60" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3536,13 +3661,10 @@
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
-      </c>
-      <c r="G61" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="I61" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3556,13 +3678,16 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G62" t="s">
-        <v>315</v>
+        <v>331</v>
+      </c>
+      <c r="H62" t="s">
+        <v>521</v>
       </c>
       <c r="I62" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3576,16 +3701,16 @@
         <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H63" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="I63" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3599,36 +3724,33 @@
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G64" t="s">
-        <v>317</v>
-      </c>
-      <c r="H64" t="s">
-        <v>495</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>238</v>
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
-      </c>
-      <c r="H65" t="s">
-        <v>496</v>
+        <v>334</v>
+      </c>
+      <c r="I65" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3639,39 +3761,42 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G66" t="s">
-        <v>319</v>
+        <v>335</v>
+      </c>
+      <c r="H66" t="s">
+        <v>523</v>
       </c>
       <c r="I66" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G67" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="I67" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3682,16 +3807,22 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
+        <v>250</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G68" t="s">
-        <v>321</v>
+        <v>337</v>
+      </c>
+      <c r="H68" t="s">
+        <v>525</v>
       </c>
       <c r="I68" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3701,43 +3832,40 @@
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" t="s">
-        <v>83</v>
+      <c r="D69" t="s">
+        <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G69" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H69" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="I69" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
-      </c>
-      <c r="H70" t="s">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="I70" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3751,16 +3879,13 @@
         <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
-      </c>
-      <c r="H71" t="s">
-        <v>499</v>
+        <v>340</v>
       </c>
       <c r="I71" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3774,76 +3899,82 @@
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="I72" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G73" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="H73" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="I73" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>343</v>
+      </c>
+      <c r="H74" t="s">
+        <v>528</v>
       </c>
       <c r="I74" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>344</v>
+      </c>
+      <c r="H75" t="s">
+        <v>526</v>
       </c>
       <c r="I75" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3857,16 +3988,16 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G76" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="I76" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3880,13 +4011,16 @@
         <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>268</v>
+      </c>
+      <c r="G77" t="s">
+        <v>346</v>
       </c>
       <c r="H77" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="I77" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3900,16 +4034,13 @@
         <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G78" t="s">
-        <v>330</v>
-      </c>
-      <c r="H78" t="s">
-        <v>503</v>
+        <v>347</v>
       </c>
       <c r="I78" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3923,16 +4054,16 @@
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G79" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="H79" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="I79" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3946,16 +4077,16 @@
         <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G80" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="H80" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="I80" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3969,13 +4100,13 @@
         <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G81" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="I81" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3988,17 +4119,20 @@
       <c r="C82" t="s">
         <v>96</v>
       </c>
+      <c r="D82" t="s">
+        <v>252</v>
+      </c>
       <c r="F82" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G82" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H82" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="I82" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4012,13 +4146,13 @@
         <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G83" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="I83" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4032,13 +4166,13 @@
         <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
-      </c>
-      <c r="G84" t="s">
-        <v>336</v>
+        <v>268</v>
+      </c>
+      <c r="H84" t="s">
+        <v>534</v>
       </c>
       <c r="I84" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4052,16 +4186,16 @@
         <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="H85" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="I85" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4075,13 +4209,16 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G86" t="s">
-        <v>338</v>
+        <v>354</v>
+      </c>
+      <c r="H86" t="s">
+        <v>536</v>
       </c>
       <c r="I86" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4095,16 +4232,13 @@
         <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G87" t="s">
-        <v>339</v>
-      </c>
-      <c r="H87" t="s">
-        <v>508</v>
+        <v>355</v>
       </c>
       <c r="I87" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4118,16 +4252,16 @@
         <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G88" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="H88" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4141,16 +4275,16 @@
         <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G89" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="H89" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="I89" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4164,16 +4298,13 @@
         <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G90" t="s">
-        <v>342</v>
-      </c>
-      <c r="H90" t="s">
-        <v>511</v>
+        <v>358</v>
       </c>
       <c r="I90" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4187,16 +4318,16 @@
         <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G91" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="H91" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="I91" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4210,36 +4341,39 @@
         <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G92" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="H92" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="I92" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>107</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G93" t="s">
-        <v>345</v>
+        <v>361</v>
+      </c>
+      <c r="H93" t="s">
+        <v>541</v>
       </c>
       <c r="I93" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4253,102 +4387,102 @@
         <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G94" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="I94" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G95" t="s">
-        <v>347</v>
-      </c>
-      <c r="H95" t="s">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="I95" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>110</v>
       </c>
       <c r="F96" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G96" t="s">
-        <v>348</v>
+        <v>364</v>
+      </c>
+      <c r="H96" t="s">
+        <v>542</v>
       </c>
       <c r="I96" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G97" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="H97" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="I97" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G98" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="H98" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="I98" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4362,16 +4496,16 @@
         <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G99" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="H99" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="I99" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4385,16 +4519,16 @@
         <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G100" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H100" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="I100" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4408,36 +4542,36 @@
         <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G101" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="I101" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
         <v>116</v>
       </c>
       <c r="F102" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G102" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="H102" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="I102" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4451,16 +4585,16 @@
         <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G103" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="H103" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="I103" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4474,16 +4608,16 @@
         <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G104" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="H104" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="I104" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4497,39 +4631,39 @@
         <v>119</v>
       </c>
       <c r="F105" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H105" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="I105" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G106" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H106" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="I106" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4543,16 +4677,16 @@
         <v>121</v>
       </c>
       <c r="F107" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G107" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H107" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="I107" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4566,16 +4700,16 @@
         <v>122</v>
       </c>
       <c r="F108" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G108" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="H108" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="I108" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4589,16 +4723,13 @@
         <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G109" t="s">
-        <v>361</v>
-      </c>
-      <c r="H109" t="s">
-        <v>526</v>
+        <v>377</v>
       </c>
       <c r="I109" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4612,16 +4743,16 @@
         <v>124</v>
       </c>
       <c r="F110" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G110" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="H110" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="I110" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4635,145 +4766,151 @@
         <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G111" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="H111" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="I111" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
         <v>126</v>
       </c>
       <c r="F112" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G112" t="s">
-        <v>364</v>
+        <v>380</v>
+      </c>
+      <c r="H112" t="s">
+        <v>556</v>
       </c>
       <c r="I112" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
         <v>127</v>
       </c>
       <c r="F113" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G113" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="H113" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="I113" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
       </c>
       <c r="F114" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G114" t="s">
-        <v>366</v>
+        <v>382</v>
+      </c>
+      <c r="H114" t="s">
+        <v>558</v>
       </c>
       <c r="I114" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" t="s">
-        <v>129</v>
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>253</v>
       </c>
       <c r="F115" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G115" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="H115" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="I115" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G116" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="H116" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="I116" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" t="s">
-        <v>239</v>
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
       </c>
       <c r="F117" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G117" t="s">
-        <v>369</v>
-      </c>
-      <c r="H117" t="s">
-        <v>532</v>
+        <v>385</v>
+      </c>
+      <c r="I117" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4787,16 +4924,16 @@
         <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G118" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="H118" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="I118" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4810,16 +4947,16 @@
         <v>132</v>
       </c>
       <c r="F119" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G119" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="H119" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="I119" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4833,105 +4970,108 @@
         <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G120" t="s">
-        <v>372</v>
+        <v>388</v>
+      </c>
+      <c r="H120" t="s">
+        <v>563</v>
       </c>
       <c r="I120" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
       </c>
       <c r="F121" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G121" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H121" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="I121" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G122" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H122" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="I122" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="F123" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G123" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H123" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="I123" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="F124" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G124" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H124" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="I124" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4945,16 +5085,16 @@
         <v>138</v>
       </c>
       <c r="F125" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G125" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="H125" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="I125" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4968,39 +5108,39 @@
         <v>139</v>
       </c>
       <c r="F126" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G126" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="H126" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="I126" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
       </c>
       <c r="F127" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G127" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="H127" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="I127" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5014,16 +5154,16 @@
         <v>141</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G128" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="H128" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="I128" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5037,16 +5177,16 @@
         <v>142</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G129" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="H129" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="I129" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5060,16 +5200,13 @@
         <v>143</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G130" t="s">
-        <v>382</v>
-      </c>
-      <c r="H130" t="s">
-        <v>543</v>
+        <v>398</v>
       </c>
       <c r="I130" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5083,16 +5220,16 @@
         <v>144</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G131" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="H131" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="I131" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5106,16 +5243,16 @@
         <v>145</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G132" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="H132" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="I132" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5129,16 +5266,13 @@
         <v>146</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
-      </c>
-      <c r="G133" t="s">
-        <v>385</v>
+        <v>271</v>
       </c>
       <c r="H133" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="I133" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5152,16 +5286,16 @@
         <v>147</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G134" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="H134" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="I134" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5175,16 +5309,16 @@
         <v>148</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G135" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H135" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="I135" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5198,33 +5332,39 @@
         <v>149</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>271</v>
+      </c>
+      <c r="G136" t="s">
+        <v>403</v>
       </c>
       <c r="H136" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="I136" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G137" t="s">
-        <v>388</v>
+        <v>404</v>
+      </c>
+      <c r="H137" t="s">
+        <v>578</v>
       </c>
       <c r="I137" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5238,39 +5378,39 @@
         <v>151</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G138" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="H138" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="I138" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
         <v>152</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G139" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="H139" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="I139" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5284,39 +5424,36 @@
         <v>153</v>
       </c>
       <c r="F140" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G140" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="H140" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="I140" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
         <v>154</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G141" t="s">
-        <v>392</v>
-      </c>
-      <c r="H141" t="s">
-        <v>553</v>
+        <v>408</v>
       </c>
       <c r="I141" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5330,82 +5467,82 @@
         <v>155</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G142" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="I142" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G143" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="H143" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="I143" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
       </c>
       <c r="F144" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G144" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="H144" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="I144" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
         <v>158</v>
       </c>
       <c r="F145" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G145" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="H145" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="I145" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5419,16 +5556,16 @@
         <v>159</v>
       </c>
       <c r="F146" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G146" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H146" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="I146" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5442,39 +5579,36 @@
         <v>160</v>
       </c>
       <c r="F147" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G147" t="s">
-        <v>398</v>
-      </c>
-      <c r="H147" t="s">
-        <v>558</v>
+        <v>414</v>
       </c>
       <c r="I147" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
         <v>161</v>
       </c>
       <c r="F148" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G148" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="H148" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="I148" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5488,16 +5622,16 @@
         <v>162</v>
       </c>
       <c r="F149" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G149" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="H149" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="I149" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5511,16 +5645,16 @@
         <v>163</v>
       </c>
       <c r="F150" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G150" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="H150" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="I150" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5534,13 +5668,16 @@
         <v>164</v>
       </c>
       <c r="F151" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G151" t="s">
-        <v>402</v>
+        <v>418</v>
+      </c>
+      <c r="H151" t="s">
+        <v>589</v>
       </c>
       <c r="I151" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5554,13 +5691,16 @@
         <v>165</v>
       </c>
       <c r="F152" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G152" t="s">
-        <v>403</v>
+        <v>419</v>
+      </c>
+      <c r="H152" t="s">
+        <v>590</v>
       </c>
       <c r="I152" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5574,16 +5714,16 @@
         <v>166</v>
       </c>
       <c r="F153" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G153" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="H153" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="I153" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5597,16 +5737,16 @@
         <v>167</v>
       </c>
       <c r="F154" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G154" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="H154" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="I154" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5620,16 +5760,13 @@
         <v>168</v>
       </c>
       <c r="F155" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G155" t="s">
-        <v>406</v>
-      </c>
-      <c r="H155" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="I155" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5643,16 +5780,16 @@
         <v>169</v>
       </c>
       <c r="F156" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G156" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H156" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="I156" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5666,16 +5803,16 @@
         <v>170</v>
       </c>
       <c r="F157" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G157" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="H157" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="I157" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5689,16 +5826,16 @@
         <v>171</v>
       </c>
       <c r="F158" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G158" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="H158" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="I158" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5712,16 +5849,16 @@
         <v>172</v>
       </c>
       <c r="F159" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G159" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H159" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="I159" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5735,16 +5872,16 @@
         <v>173</v>
       </c>
       <c r="F160" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G160" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="I160" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5758,16 +5895,13 @@
         <v>174</v>
       </c>
       <c r="F161" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G161" t="s">
-        <v>412</v>
-      </c>
-      <c r="H161" t="s">
-        <v>570</v>
+        <v>428</v>
       </c>
       <c r="I161" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5781,16 +5915,16 @@
         <v>175</v>
       </c>
       <c r="F162" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G162" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="I162" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5804,13 +5938,16 @@
         <v>176</v>
       </c>
       <c r="F163" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G163" t="s">
-        <v>414</v>
+        <v>430</v>
+      </c>
+      <c r="H163" t="s">
+        <v>599</v>
       </c>
       <c r="I163" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5824,13 +5961,13 @@
         <v>177</v>
       </c>
       <c r="F164" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G164" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="I164" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5844,16 +5981,16 @@
         <v>178</v>
       </c>
       <c r="F165" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G165" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="H165" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="I165" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5867,13 +6004,13 @@
         <v>179</v>
       </c>
       <c r="F166" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G166" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="I166" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5887,16 +6024,16 @@
         <v>180</v>
       </c>
       <c r="F167" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G167" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="I167" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5906,17 +6043,20 @@
       <c r="B168" t="s">
         <v>14</v>
       </c>
-      <c r="D168" t="s">
-        <v>240</v>
+      <c r="C168" t="s">
+        <v>181</v>
       </c>
       <c r="F168" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G168" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="H168" t="s">
-        <v>574</v>
+        <v>602</v>
+      </c>
+      <c r="I168" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5927,19 +6067,19 @@
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F169" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G169" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="H169" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="I169" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5950,19 +6090,19 @@
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F170" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G170" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="H170" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="I170" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5973,39 +6113,39 @@
         <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F171" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G171" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="I171" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" t="s">
-        <v>184</v>
+        <v>14</v>
+      </c>
+      <c r="D172" t="s">
+        <v>254</v>
       </c>
       <c r="F172" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G172" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="H172" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="I172" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6019,16 +6159,16 @@
         <v>185</v>
       </c>
       <c r="F173" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G173" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="H173" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="I173" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6042,39 +6182,39 @@
         <v>186</v>
       </c>
       <c r="F174" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G174" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="H174" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="I174" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
         <v>187</v>
       </c>
       <c r="F175" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G175" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="H175" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="I175" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6088,13 +6228,16 @@
         <v>188</v>
       </c>
       <c r="F176" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G176" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="H176" t="s">
+        <v>609</v>
       </c>
       <c r="I176" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6108,16 +6251,13 @@
         <v>189</v>
       </c>
       <c r="F177" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G177" t="s">
-        <v>428</v>
-      </c>
-      <c r="H177" t="s">
-        <v>581</v>
+        <v>444</v>
       </c>
       <c r="I177" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6131,16 +6271,16 @@
         <v>190</v>
       </c>
       <c r="F178" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G178" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="H178" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="I178" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6154,16 +6294,13 @@
         <v>191</v>
       </c>
       <c r="F179" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G179" t="s">
-        <v>430</v>
-      </c>
-      <c r="H179" t="s">
-        <v>583</v>
+        <v>446</v>
       </c>
       <c r="I179" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6177,59 +6314,62 @@
         <v>192</v>
       </c>
       <c r="F180" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G180" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H180" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="I180" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
         <v>193</v>
       </c>
       <c r="F181" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G181" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H181" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="I181" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
         <v>194</v>
       </c>
       <c r="F182" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G182" t="s">
-        <v>433</v>
+        <v>449</v>
+      </c>
+      <c r="H182" t="s">
+        <v>613</v>
       </c>
       <c r="I182" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6243,16 +6383,16 @@
         <v>195</v>
       </c>
       <c r="F183" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G183" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="H183" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="I183" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6266,16 +6406,16 @@
         <v>196</v>
       </c>
       <c r="F184" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G184" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="H184" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="I184" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6289,16 +6429,16 @@
         <v>197</v>
       </c>
       <c r="F185" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G185" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="H185" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="I185" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6312,16 +6452,16 @@
         <v>198</v>
       </c>
       <c r="F186" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G186" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="H186" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="I186" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6335,36 +6475,36 @@
         <v>199</v>
       </c>
       <c r="F187" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G187" t="s">
-        <v>438</v>
+        <v>454</v>
+      </c>
+      <c r="H187" t="s">
+        <v>618</v>
       </c>
       <c r="I187" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
         <v>200</v>
       </c>
       <c r="F188" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G188" t="s">
-        <v>439</v>
-      </c>
-      <c r="H188" t="s">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="I188" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6378,39 +6518,39 @@
         <v>201</v>
       </c>
       <c r="F189" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G189" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H189" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="I189" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
         <v>202</v>
       </c>
       <c r="F190" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G190" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="H190" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="I190" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6424,16 +6564,16 @@
         <v>203</v>
       </c>
       <c r="F191" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G191" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="H191" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="I191" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6447,16 +6587,16 @@
         <v>204</v>
       </c>
       <c r="F192" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G192" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H192" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="I192" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6470,16 +6610,16 @@
         <v>205</v>
       </c>
       <c r="F193" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G193" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="H193" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="I193" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6493,16 +6633,16 @@
         <v>206</v>
       </c>
       <c r="F194" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G194" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="H194" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="I194" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6516,16 +6656,16 @@
         <v>207</v>
       </c>
       <c r="F195" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G195" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="H195" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="I195" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6539,16 +6679,16 @@
         <v>208</v>
       </c>
       <c r="F196" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G196" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H196" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="I196" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6562,16 +6702,16 @@
         <v>209</v>
       </c>
       <c r="F197" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G197" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="H197" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="I197" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6585,16 +6725,16 @@
         <v>210</v>
       </c>
       <c r="F198" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G198" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="H198" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="I198" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6608,16 +6748,16 @@
         <v>211</v>
       </c>
       <c r="F199" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G199" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H199" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="I199" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6631,16 +6771,16 @@
         <v>212</v>
       </c>
       <c r="F200" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G200" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="H200" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="I200" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6654,16 +6794,16 @@
         <v>213</v>
       </c>
       <c r="F201" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G201" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H201" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="I201" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6677,16 +6817,16 @@
         <v>214</v>
       </c>
       <c r="F202" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G202" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="H202" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="I202" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6700,16 +6840,16 @@
         <v>215</v>
       </c>
       <c r="F203" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G203" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="H203" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="I203" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6723,16 +6863,16 @@
         <v>216</v>
       </c>
       <c r="F204" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G204" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="H204" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="I204" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6746,16 +6886,16 @@
         <v>217</v>
       </c>
       <c r="F205" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G205" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="H205" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="I205" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6769,16 +6909,16 @@
         <v>218</v>
       </c>
       <c r="F206" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G206" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H206" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="I206" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6792,16 +6932,16 @@
         <v>219</v>
       </c>
       <c r="F207" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G207" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="H207" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="I207" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6815,16 +6955,16 @@
         <v>220</v>
       </c>
       <c r="F208" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G208" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="H208" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="I208" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6838,16 +6978,16 @@
         <v>221</v>
       </c>
       <c r="F209" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G209" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="H209" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="I209" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6861,16 +7001,16 @@
         <v>222</v>
       </c>
       <c r="F210" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G210" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="H210" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="I210" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6884,13 +7024,13 @@
         <v>223</v>
       </c>
       <c r="F211" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G211" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="I211" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6904,16 +7044,13 @@
         <v>224</v>
       </c>
       <c r="F212" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G212" t="s">
-        <v>463</v>
-      </c>
-      <c r="H212" t="s">
-        <v>613</v>
+        <v>479</v>
       </c>
       <c r="I212" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6927,16 +7064,16 @@
         <v>225</v>
       </c>
       <c r="F213" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G213" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="H213" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="I213" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6950,16 +7087,16 @@
         <v>226</v>
       </c>
       <c r="F214" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G214" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="H214" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="I214" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6973,16 +7110,16 @@
         <v>227</v>
       </c>
       <c r="F215" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G215" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="H215" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="I215" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6996,16 +7133,16 @@
         <v>228</v>
       </c>
       <c r="F216" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G216" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H216" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="I216" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7019,16 +7156,16 @@
         <v>229</v>
       </c>
       <c r="F217" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G217" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="H217" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="I217" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7042,16 +7179,16 @@
         <v>230</v>
       </c>
       <c r="F218" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G218" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="H218" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="I218" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7065,16 +7202,16 @@
         <v>231</v>
       </c>
       <c r="F219" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G219" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="H219" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="I219" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7088,16 +7225,16 @@
         <v>232</v>
       </c>
       <c r="F220" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G220" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="H220" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="I220" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7111,16 +7248,16 @@
         <v>233</v>
       </c>
       <c r="F221" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G221" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="H221" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="I221" t="s">
-        <v>625</v>
+        <v>662</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7133,8 +7270,17 @@
       <c r="C222" t="s">
         <v>234</v>
       </c>
+      <c r="F222" t="s">
+        <v>275</v>
+      </c>
+      <c r="G222" t="s">
+        <v>489</v>
+      </c>
+      <c r="H222" t="s">
+        <v>650</v>
+      </c>
       <c r="I222" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7147,25 +7293,40 @@
       <c r="C223" t="s">
         <v>235</v>
       </c>
+      <c r="F223" t="s">
+        <v>275</v>
+      </c>
       <c r="G223" t="s">
-        <v>473</v>
+        <v>490</v>
+      </c>
+      <c r="H223" t="s">
+        <v>651</v>
       </c>
       <c r="I223" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
         <v>236</v>
       </c>
+      <c r="F224" t="s">
+        <v>275</v>
+      </c>
+      <c r="G224" t="s">
+        <v>491</v>
+      </c>
+      <c r="H224" t="s">
+        <v>652</v>
+      </c>
       <c r="I224" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7178,11 +7339,260 @@
       <c r="C225" t="s">
         <v>237</v>
       </c>
+      <c r="F225" t="s">
+        <v>275</v>
+      </c>
       <c r="G225" t="s">
-        <v>474</v>
+        <v>492</v>
+      </c>
+      <c r="H225" t="s">
+        <v>653</v>
       </c>
       <c r="I225" t="s">
-        <v>623</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" t="s">
+        <v>238</v>
+      </c>
+      <c r="F226" t="s">
+        <v>275</v>
+      </c>
+      <c r="G226" t="s">
+        <v>493</v>
+      </c>
+      <c r="H226" t="s">
+        <v>654</v>
+      </c>
+      <c r="I226" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" t="s">
+        <v>239</v>
+      </c>
+      <c r="F227" t="s">
+        <v>275</v>
+      </c>
+      <c r="G227" t="s">
+        <v>494</v>
+      </c>
+      <c r="H227" t="s">
+        <v>655</v>
+      </c>
+      <c r="I227" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" t="s">
+        <v>240</v>
+      </c>
+      <c r="F228" t="s">
+        <v>276</v>
+      </c>
+      <c r="G228" t="s">
+        <v>495</v>
+      </c>
+      <c r="H228" t="s">
+        <v>656</v>
+      </c>
+      <c r="I228" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" t="s">
+        <v>241</v>
+      </c>
+      <c r="F229" t="s">
+        <v>276</v>
+      </c>
+      <c r="G229" t="s">
+        <v>496</v>
+      </c>
+      <c r="H229" t="s">
+        <v>657</v>
+      </c>
+      <c r="I229" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" t="s">
+        <v>242</v>
+      </c>
+      <c r="F230" t="s">
+        <v>276</v>
+      </c>
+      <c r="G230" t="s">
+        <v>497</v>
+      </c>
+      <c r="H230" t="s">
+        <v>658</v>
+      </c>
+      <c r="I230" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>243</v>
+      </c>
+      <c r="F231" t="s">
+        <v>276</v>
+      </c>
+      <c r="G231" t="s">
+        <v>498</v>
+      </c>
+      <c r="H231" t="s">
+        <v>659</v>
+      </c>
+      <c r="I231" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" t="s">
+        <v>244</v>
+      </c>
+      <c r="F232" t="s">
+        <v>276</v>
+      </c>
+      <c r="G232" t="s">
+        <v>499</v>
+      </c>
+      <c r="H232" t="s">
+        <v>660</v>
+      </c>
+      <c r="I232" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" t="s">
+        <v>255</v>
+      </c>
+      <c r="G233" t="s">
+        <v>500</v>
+      </c>
+      <c r="H233" t="s">
+        <v>661</v>
+      </c>
+      <c r="I233" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>245</v>
+      </c>
+      <c r="I234" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" t="s">
+        <v>246</v>
+      </c>
+      <c r="I235" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" t="s">
+        <v>247</v>
+      </c>
+      <c r="G236" t="s">
+        <v>501</v>
+      </c>
+      <c r="I236" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
+        <v>248</v>
+      </c>
+      <c r="G237" t="s">
+        <v>502</v>
+      </c>
+      <c r="I237" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
